--- a/Docs/Prashant Mewada.xlsx
+++ b/Docs/Prashant Mewada.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25601"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\XLNC\Documents\UiPath\LinkedInBot\Docs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Prashant\Documents\UiPath\LinkedInBot\Docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B11CA8C9-C433-4B12-B051-5DE7523C9025}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="304" uniqueCount="133">
   <si>
     <t>Name</t>
   </si>
@@ -55,12 +56,381 @@
   </si>
   <si>
     <t>Pune</t>
+  </si>
+  <si>
+    <t>UserName</t>
+  </si>
+  <si>
+    <t>Message</t>
+  </si>
+  <si>
+    <t>ConnectStatus</t>
+  </si>
+  <si>
+    <t>Pranati Nikhare</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/pranati-nikhare-b1454b6a?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAA6ssIABA5DAbFnouVsMGJUQJNdv5AK_ZdA</t>
+  </si>
+  <si>
+    <t>Priyanka M. Mahajan</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/priyanka-m-mahajan-512a02201?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAADOVmF4B0PZKPlVIdq_RKaNe7N8BL2U7lQI</t>
+  </si>
+  <si>
+    <t>Brajesh Ranjan</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/brajesh-ranjan-1925b165?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAA3Kzr4BRHMYg_h36_Sz4N3FkUtCU9p7v0Y</t>
+  </si>
+  <si>
+    <t>Vineet Raina</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/vineet-raina?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAA9wpZIBWja_GwhpfU9qvt28DuQCjYt8FN8</t>
+  </si>
+  <si>
+    <t>anurag kopulwar</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/anurag-kopulwar-79b89812a?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAB_Pk2cBXXw0otiEZwAal2qZ9vbuQSSBil4</t>
+  </si>
+  <si>
+    <t>Shubham Kulkarni</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/shubham-kulkarni-6045a0185?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACuw-WQB12BVX9f2W8Va2Jl0A8ke_CkQQjQ</t>
+  </si>
+  <si>
+    <t>Shubhashrestha Bohra</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/shubhashrestha-bohra-a5357788?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABKX6B8BucY1ToYRUK6_BFBvuAlKYN6KiTM</t>
+  </si>
+  <si>
+    <t>manisha sharma</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/manisha-sharma-79461a198?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAC5doOABTqKLUEX5ztcUA1eUn1c6-EvHuu0</t>
+  </si>
+  <si>
+    <t>sameeksha shrivastava</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/sameeksha-shrivastava-56246482?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABGCVBoBcxJRGG4PBNv2Yrxiq8ktEEx5DXk</t>
+  </si>
+  <si>
+    <t>Mayur Thorat</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/mayur-thorat-431178173?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACkjK2UBPB8Z-KgKCGrTQUtyd-MnsI6hq6A</t>
+  </si>
+  <si>
+    <t>Shiladitya Banerjee</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/shiladitya-banerjee-7138426b?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAA7lZX8B7WnzTqkthjIJrAjGraTbZCGQcrM</t>
+  </si>
+  <si>
+    <t>Mohini Chaudhari</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/mohini-chaudhari-9b5329197?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAC4k-FkBPMyd9hMd5PxYJzS_tuB8QoNXU9g</t>
+  </si>
+  <si>
+    <t>Shruti Deshpande</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/shruti-deshpande-b2414b176?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACmrAIwBBhYC7a74deZ7DS3Z_NNjjD_kSss</t>
+  </si>
+  <si>
+    <t>naeem H.</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/-naeem-hussain?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAB6WOekB2c5UpQ_v96Vxh1NzxMTmnvoCba4</t>
+  </si>
+  <si>
+    <t>Shailesh Khamkar</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/shailesh-khamkar-89034389?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABK80SwBIeSU4oO0FZ0pkKYXbpKlJ-Y2f-0</t>
+  </si>
+  <si>
+    <t>SNEHAL SANGALE</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/snehal-sangale-32a754200?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAADNeRdIBoCrbVfyPv_YaLtCizU1tr6FLMnk</t>
+  </si>
+  <si>
+    <t>Bhagyashree Pawar</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/bhagyashree-pawar-4544b8169?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACgec4ABHDKWH0hWn8svzS6WNTMv_xglsLs</t>
+  </si>
+  <si>
+    <t>Alok Sinha</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/alok-sinha-046629202?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAADO0xvYBexlqAkrNhuo4AP21o8TQhDpTFeM</t>
+  </si>
+  <si>
+    <t>Sujay Ahirrao</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/sujay-ahirrao-a50a0b1a6?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAADA0KBwBMzFCxWgxT5-c-lgAYfNRHfyDiUY</t>
+  </si>
+  <si>
+    <t>talent acquisition</t>
+  </si>
+  <si>
+    <t>Bengaluru</t>
+  </si>
+  <si>
+    <t>Apurva Wadekar</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/apurva-wadekar-8926a81b6?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAADJKzO4BR3q2cUU7HkdIe_xG4hPtJ0wWxLk</t>
+  </si>
+  <si>
+    <t>Devendra Madhusudan</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/devendra-madhusudan-62166321a?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAADdFJbkB_q8FkZFMVrbhfj1Bd2rU8wygPug</t>
+  </si>
+  <si>
+    <t>Ketan Mehta</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/kmm133?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAAm2xDMBrFN8ofiDPDYmsfxMNkYCSw_NbU0</t>
+  </si>
+  <si>
+    <t>Swapnita Patil</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/swapnita-patil-7700b415?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAAMKKkQByDDEj1EaOmWwnVRRGqOo4pnMgBY</t>
+  </si>
+  <si>
+    <t>Debadutta Dey</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/debaduttadey?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAAhqfssBIHtw9XzVBEYH_cfmb6RUQa4-oVU</t>
+  </si>
+  <si>
+    <t>PRATIK BHADE .</t>
+  </si>
+  <si>
+    <t>Follow</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/pratik-bhade-7623b5170?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACijRPoB0o5mMJCslDQdAs63hLSLw6kUpEY</t>
+  </si>
+  <si>
+    <t>Mugdha Paithankar</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/mugdha-paithankar?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABt4D7ABAsTKczVu5RD-2W1YB1qryPtbbiM</t>
+  </si>
+  <si>
+    <t>Shruti Godbole</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/shruti-godbole-95a242b7?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABjGHtYBkr8AeAe-KU94Z1WQ-zS965FX2EY</t>
+  </si>
+  <si>
+    <t>Pawan Semwal</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/pawan-semwal-bb6731153?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACTzBHoBm3jGjuvQrMs2kavkpgKShleR1KY</t>
+  </si>
+  <si>
+    <t>Shobitha C</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/shobitha-c-089330119?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAB1qJ2kBNlpyJ42QZHyktH2AvFkvUrfeBlo</t>
+  </si>
+  <si>
+    <t>Hemanth Krishna</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/hemanth-krishna-86182918a?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACyd44kBJMpL_A_TRTXSQMpwlniqfZ6sm-U</t>
+  </si>
+  <si>
+    <t>SAPNA chauhan</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/sapna-chauhan-a5a66690?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABNRnGYBh061uAKBuC9ESTNo-iwwDlBIF34</t>
+  </si>
+  <si>
+    <t>ASHVITHA S</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/ashvitha-s-34b935b9?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABk7kqsBEN-PnA58GkSl53aaHCBsdJ-ib6M</t>
+  </si>
+  <si>
+    <t>Kripa Sharma</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/kripa-sharma-426627103?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABpBS54BljpyqcLYcb0RNbWO-2di6LPYgr4</t>
+  </si>
+  <si>
+    <t>Hemant S</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/hemant-s-0a1a481b7?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAADKFonkBhhq0LQIoBZx7pU8v-JOFtIrAkGk</t>
+  </si>
+  <si>
+    <t>Padmashree S</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/padmashree-s-4a6345b3?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABgTvH4BaYbXshvyv29h0xDtlE7VtscDXSc</t>
+  </si>
+  <si>
+    <t>Dipika Singh</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/dipikasingh2016?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABI_VeQBZLwy3OeARJiSv7uC6_6aFLoU928</t>
+  </si>
+  <si>
+    <t>Ramya Rai B N</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/ramya-rai-b-n-35131598?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABSxGK0BezaJFvAuELH1tlnF4Ivh5w6NzXg</t>
+  </si>
+  <si>
+    <t>Active</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>Shruthi Abbar</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/shruthi-abbar-47685a177?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACnzaxoBySAvXwpC8YnbJwBuTWv96NXm6To</t>
+  </si>
+  <si>
+    <t>Shwetha Awdesh</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/shwethaawdesh?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABtuU9sBI098J113_MyQ_Jnsa10SmCy8ffc</t>
+  </si>
+  <si>
+    <t>Abirami Manoharan</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/abirami-manoharan-a919bb196?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAC4RF00B3ZHF2wT4ThJ7v9boSivZUgvbT9E</t>
+  </si>
+  <si>
+    <t>preethi kumar</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/preethi-kumar-533603145?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACMmrzcBuZT5gSFrQPxrZBxQK3goTwkZbDc</t>
+  </si>
+  <si>
+    <t>Sweta Sahini</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/sweta-sahini-37a5a568?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAA5TSc4BEnVJ9W0PGRLNFZH9ItSu3mic358</t>
+  </si>
+  <si>
+    <t>Khaiser Shariff (She/Her)</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/khaiser-shariff-she-her-155973118?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAB1UuBEBYHne4z5_Di3VroQIgqXjBXp0phQ</t>
+  </si>
+  <si>
+    <t>Kavya Shree</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/kavyashreeav?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAAt7G7gBZBipGj3co0ddZiNKK__1xhLBVTQ</t>
+  </si>
+  <si>
+    <t>Sarah Abraham</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/sarah-abraham-53172ba1?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABWkkzUB-W5jW1ndRF02fuXdc4sQYk7yRow</t>
+  </si>
+  <si>
+    <t>INDU Y M</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/indu-y-m-97104a50?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAAqvTOUBbQLXFBEas-jMBYXma-9RK0KHsLs</t>
+  </si>
+  <si>
+    <t>Sneha komal</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/sneha-komal-240a52b5?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABiJq9AB6tE7IEESa0oboqvwg2FX1toEem8</t>
+  </si>
+  <si>
+    <t>Prashanth S</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/prashanth-s-81472415b?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACZfRZABjSs-rOESaKxKSRYr9QgLA5raIBI</t>
+  </si>
+  <si>
+    <t>Rakhi Chadaga</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/rakhi-chadaga-a9539120?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAARTydEB_6cVhIGQgLEN7E7IIN-9IVlw5Xg</t>
+  </si>
+  <si>
+    <t>Devangi Katiyar</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/devangi-katiyar?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAADF7fbcBKM3q-eBVeQ4j5vJQlQhBP45MRsc</t>
+  </si>
+  <si>
+    <t>Komal Gupta</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/komal-gupta-07392a29?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAAYCodcBYLLUW9_RqpRhu0MCoNLeYnCZNoA</t>
+  </si>
+  <si>
+    <t>Maushmi Roy</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/maushmi-roy-25a75111?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAAJsgSYBEXZF0uzYPc7nQ_qBQXl029Bpqsw</t>
+  </si>
+  <si>
+    <t>Nikhita Singh</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/nikhita-singh-a8423878?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABBohwQBVxAaxnlHGcEhGYPLbUk2K4cfspM</t>
+  </si>
+  <si>
+    <t>Rashma Rajendran Nair</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/rashma-rajendran-nair-81a03a124?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAB6d-xYBGRi3W_ks-x0RYiZO3fXDd9Ptync</t>
+  </si>
+  <si>
+    <t>Nireeksha Narayan</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/nireeksha1992?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABZ2na0B1A9lrw06XjwV9z1x4kepiqGM084</t>
+  </si>
+  <si>
+    <t>Ekta Srivastava</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/ekta-srivastava-7a0605180?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACrN7igBGu3QiKsQUbAdYVZEOp5mCcZA7is</t>
+  </si>
+  <si>
+    <t>Jasmine Raina</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/jasmine-raina-a96399122?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAB5QH9IBmgsHLRrT8r88z24Mk73SZ0ydiWE</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -90,8 +460,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -371,18 +742,102 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="16.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2">
+        <v>6</v>
+      </c>
+      <c r="E2" s="1">
+        <v>44827.927777777775</v>
+      </c>
+      <c r="F2" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>51</v>
+      </c>
+      <c r="C3" t="s">
+        <v>52</v>
+      </c>
+      <c r="D3">
+        <v>3</v>
+      </c>
+      <c r="E3" s="1">
+        <v>44827.980104166665</v>
+      </c>
+      <c r="F3" t="s">
+        <v>92</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:E58"/>
+  <sheetViews>
+    <sheetView topLeftCell="A35" workbookViewId="0">
+      <selection activeCell="A59" sqref="A59:E68"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="23.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -396,15 +851,15 @@
         <v>4</v>
       </c>
       <c r="D1" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="E1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="B2" t="s">
         <v>3</v>
@@ -412,37 +867,963 @@
       <c r="C2" t="s">
         <v>9</v>
       </c>
-      <c r="D2">
-        <v>2</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="2" width="10.28515625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C1" t="s">
-        <v>7</v>
+      <c r="D2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E6" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>23</v>
+      </c>
+      <c r="B7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E7" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>25</v>
+      </c>
+      <c r="B8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D8" t="s">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>27</v>
+      </c>
+      <c r="B9" t="s">
+        <v>3</v>
+      </c>
+      <c r="C9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D9" t="s">
+        <v>7</v>
+      </c>
+      <c r="E9" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>29</v>
+      </c>
+      <c r="B10" t="s">
+        <v>3</v>
+      </c>
+      <c r="C10" t="s">
+        <v>9</v>
+      </c>
+      <c r="D10" t="s">
+        <v>7</v>
+      </c>
+      <c r="E10" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>31</v>
+      </c>
+      <c r="B11" t="s">
+        <v>3</v>
+      </c>
+      <c r="C11" t="s">
+        <v>9</v>
+      </c>
+      <c r="D11" t="s">
+        <v>7</v>
+      </c>
+      <c r="E11" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>33</v>
+      </c>
+      <c r="B12" t="s">
+        <v>3</v>
+      </c>
+      <c r="C12" t="s">
+        <v>9</v>
+      </c>
+      <c r="D12" t="s">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>35</v>
+      </c>
+      <c r="B13" t="s">
+        <v>3</v>
+      </c>
+      <c r="C13" t="s">
+        <v>9</v>
+      </c>
+      <c r="D13" t="s">
+        <v>7</v>
+      </c>
+      <c r="E13" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>37</v>
+      </c>
+      <c r="B14" t="s">
+        <v>3</v>
+      </c>
+      <c r="C14" t="s">
+        <v>9</v>
+      </c>
+      <c r="D14" t="s">
+        <v>7</v>
+      </c>
+      <c r="E14" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>39</v>
+      </c>
+      <c r="B15" t="s">
+        <v>3</v>
+      </c>
+      <c r="C15" t="s">
+        <v>9</v>
+      </c>
+      <c r="D15" t="s">
+        <v>11</v>
+      </c>
+      <c r="E15" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>41</v>
+      </c>
+      <c r="B16" t="s">
+        <v>3</v>
+      </c>
+      <c r="C16" t="s">
+        <v>9</v>
+      </c>
+      <c r="D16" t="s">
+        <v>11</v>
+      </c>
+      <c r="E16" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>43</v>
+      </c>
+      <c r="B17" t="s">
+        <v>3</v>
+      </c>
+      <c r="C17" t="s">
+        <v>9</v>
+      </c>
+      <c r="D17" t="s">
+        <v>7</v>
+      </c>
+      <c r="E17" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>45</v>
+      </c>
+      <c r="B18" t="s">
+        <v>3</v>
+      </c>
+      <c r="C18" t="s">
+        <v>9</v>
+      </c>
+      <c r="D18" t="s">
+        <v>7</v>
+      </c>
+      <c r="E18" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>47</v>
+      </c>
+      <c r="B19" t="s">
+        <v>3</v>
+      </c>
+      <c r="C19" t="s">
+        <v>9</v>
+      </c>
+      <c r="D19" t="s">
+        <v>7</v>
+      </c>
+      <c r="E19" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>49</v>
+      </c>
+      <c r="B20" t="s">
+        <v>3</v>
+      </c>
+      <c r="C20" t="s">
+        <v>9</v>
+      </c>
+      <c r="D20" t="s">
+        <v>7</v>
+      </c>
+      <c r="E20" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>53</v>
+      </c>
+      <c r="B21" t="s">
+        <v>3</v>
+      </c>
+      <c r="C21" t="s">
+        <v>9</v>
+      </c>
+      <c r="D21" t="s">
+        <v>7</v>
+      </c>
+      <c r="E21" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>55</v>
+      </c>
+      <c r="B22" t="s">
+        <v>3</v>
+      </c>
+      <c r="C22" t="s">
+        <v>9</v>
+      </c>
+      <c r="D22" t="s">
+        <v>11</v>
+      </c>
+      <c r="E22" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>57</v>
+      </c>
+      <c r="B23" t="s">
+        <v>3</v>
+      </c>
+      <c r="C23" t="s">
+        <v>9</v>
+      </c>
+      <c r="D23" t="s">
+        <v>7</v>
+      </c>
+      <c r="E23" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>59</v>
+      </c>
+      <c r="B24" t="s">
+        <v>3</v>
+      </c>
+      <c r="C24" t="s">
+        <v>9</v>
+      </c>
+      <c r="D24" t="s">
+        <v>7</v>
+      </c>
+      <c r="E24" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>61</v>
+      </c>
+      <c r="B25" t="s">
+        <v>3</v>
+      </c>
+      <c r="C25" t="s">
+        <v>9</v>
+      </c>
+      <c r="D25" t="s">
+        <v>7</v>
+      </c>
+      <c r="E25" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>63</v>
+      </c>
+      <c r="B26" t="s">
+        <v>3</v>
+      </c>
+      <c r="C26" t="s">
+        <v>9</v>
+      </c>
+      <c r="D26" t="s">
+        <v>64</v>
+      </c>
+      <c r="E26" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>66</v>
+      </c>
+      <c r="B27" t="s">
+        <v>3</v>
+      </c>
+      <c r="C27" t="s">
+        <v>9</v>
+      </c>
+      <c r="D27" t="s">
+        <v>7</v>
+      </c>
+      <c r="E27" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>68</v>
+      </c>
+      <c r="B28" t="s">
+        <v>3</v>
+      </c>
+      <c r="C28" t="s">
+        <v>9</v>
+      </c>
+      <c r="D28" t="s">
+        <v>11</v>
+      </c>
+      <c r="E28" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>70</v>
+      </c>
+      <c r="B29" t="s">
+        <v>51</v>
+      </c>
+      <c r="C29" t="s">
+        <v>52</v>
+      </c>
+      <c r="D29" t="s">
+        <v>7</v>
+      </c>
+      <c r="E29" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>72</v>
+      </c>
+      <c r="B30" t="s">
+        <v>51</v>
+      </c>
+      <c r="C30" t="s">
+        <v>52</v>
+      </c>
+      <c r="D30" t="s">
+        <v>7</v>
+      </c>
+      <c r="E30" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>74</v>
+      </c>
+      <c r="B31" t="s">
+        <v>51</v>
+      </c>
+      <c r="C31" t="s">
+        <v>52</v>
+      </c>
+      <c r="D31" t="s">
+        <v>7</v>
+      </c>
+      <c r="E31" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>76</v>
+      </c>
+      <c r="B32" t="s">
+        <v>51</v>
+      </c>
+      <c r="C32" t="s">
+        <v>52</v>
+      </c>
+      <c r="D32" t="s">
+        <v>7</v>
+      </c>
+      <c r="E32" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>78</v>
+      </c>
+      <c r="B33" t="s">
+        <v>51</v>
+      </c>
+      <c r="C33" t="s">
+        <v>52</v>
+      </c>
+      <c r="D33" t="s">
+        <v>7</v>
+      </c>
+      <c r="E33" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>80</v>
+      </c>
+      <c r="B34" t="s">
+        <v>51</v>
+      </c>
+      <c r="C34" t="s">
+        <v>52</v>
+      </c>
+      <c r="D34" t="s">
+        <v>7</v>
+      </c>
+      <c r="E34" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>82</v>
+      </c>
+      <c r="B35" t="s">
+        <v>51</v>
+      </c>
+      <c r="C35" t="s">
+        <v>52</v>
+      </c>
+      <c r="D35" t="s">
+        <v>7</v>
+      </c>
+      <c r="E35" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>84</v>
+      </c>
+      <c r="B36" t="s">
+        <v>51</v>
+      </c>
+      <c r="C36" t="s">
+        <v>52</v>
+      </c>
+      <c r="D36" t="s">
+        <v>7</v>
+      </c>
+      <c r="E36" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>86</v>
+      </c>
+      <c r="B37" t="s">
+        <v>51</v>
+      </c>
+      <c r="C37" t="s">
+        <v>52</v>
+      </c>
+      <c r="D37" t="s">
+        <v>7</v>
+      </c>
+      <c r="E37" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>88</v>
+      </c>
+      <c r="B38" t="s">
+        <v>51</v>
+      </c>
+      <c r="C38" t="s">
+        <v>52</v>
+      </c>
+      <c r="D38" t="s">
+        <v>7</v>
+      </c>
+      <c r="E38" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>93</v>
+      </c>
+      <c r="B39" t="s">
+        <v>51</v>
+      </c>
+      <c r="C39" t="s">
+        <v>52</v>
+      </c>
+      <c r="D39" t="s">
+        <v>7</v>
+      </c>
+      <c r="E39" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>95</v>
+      </c>
+      <c r="B40" t="s">
+        <v>51</v>
+      </c>
+      <c r="C40" t="s">
+        <v>52</v>
+      </c>
+      <c r="D40" t="s">
+        <v>7</v>
+      </c>
+      <c r="E40" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>97</v>
+      </c>
+      <c r="B41" t="s">
+        <v>51</v>
+      </c>
+      <c r="C41" t="s">
+        <v>52</v>
+      </c>
+      <c r="D41" t="s">
+        <v>7</v>
+      </c>
+      <c r="E41" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>99</v>
+      </c>
+      <c r="B42" t="s">
+        <v>51</v>
+      </c>
+      <c r="C42" t="s">
+        <v>52</v>
+      </c>
+      <c r="D42" t="s">
+        <v>7</v>
+      </c>
+      <c r="E42" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>101</v>
+      </c>
+      <c r="B43" t="s">
+        <v>51</v>
+      </c>
+      <c r="C43" t="s">
+        <v>52</v>
+      </c>
+      <c r="D43" t="s">
+        <v>7</v>
+      </c>
+      <c r="E43" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>103</v>
+      </c>
+      <c r="B44" t="s">
+        <v>51</v>
+      </c>
+      <c r="C44" t="s">
+        <v>52</v>
+      </c>
+      <c r="D44" t="s">
+        <v>7</v>
+      </c>
+      <c r="E44" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>105</v>
+      </c>
+      <c r="B45" t="s">
+        <v>51</v>
+      </c>
+      <c r="C45" t="s">
+        <v>52</v>
+      </c>
+      <c r="D45" t="s">
+        <v>7</v>
+      </c>
+      <c r="E45" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>107</v>
+      </c>
+      <c r="B46" t="s">
+        <v>51</v>
+      </c>
+      <c r="C46" t="s">
+        <v>52</v>
+      </c>
+      <c r="D46" t="s">
+        <v>7</v>
+      </c>
+      <c r="E46" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>109</v>
+      </c>
+      <c r="B47" t="s">
+        <v>51</v>
+      </c>
+      <c r="C47" t="s">
+        <v>52</v>
+      </c>
+      <c r="D47" t="s">
+        <v>7</v>
+      </c>
+      <c r="E47" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>111</v>
+      </c>
+      <c r="B48" t="s">
+        <v>51</v>
+      </c>
+      <c r="C48" t="s">
+        <v>52</v>
+      </c>
+      <c r="D48" t="s">
+        <v>7</v>
+      </c>
+      <c r="E48" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>113</v>
+      </c>
+      <c r="B49" t="s">
+        <v>51</v>
+      </c>
+      <c r="C49" t="s">
+        <v>52</v>
+      </c>
+      <c r="D49" t="s">
+        <v>11</v>
+      </c>
+      <c r="E49" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>115</v>
+      </c>
+      <c r="B50" t="s">
+        <v>51</v>
+      </c>
+      <c r="C50" t="s">
+        <v>52</v>
+      </c>
+      <c r="D50" t="s">
+        <v>11</v>
+      </c>
+      <c r="E50" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>117</v>
+      </c>
+      <c r="B51" t="s">
+        <v>51</v>
+      </c>
+      <c r="C51" t="s">
+        <v>52</v>
+      </c>
+      <c r="D51" t="s">
+        <v>11</v>
+      </c>
+      <c r="E51" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>119</v>
+      </c>
+      <c r="B52" t="s">
+        <v>51</v>
+      </c>
+      <c r="C52" t="s">
+        <v>52</v>
+      </c>
+      <c r="D52" t="s">
+        <v>64</v>
+      </c>
+      <c r="E52" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>121</v>
+      </c>
+      <c r="B53" t="s">
+        <v>51</v>
+      </c>
+      <c r="C53" t="s">
+        <v>52</v>
+      </c>
+      <c r="D53" t="s">
+        <v>64</v>
+      </c>
+      <c r="E53" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>123</v>
+      </c>
+      <c r="B54" t="s">
+        <v>51</v>
+      </c>
+      <c r="C54" t="s">
+        <v>52</v>
+      </c>
+      <c r="D54" t="s">
+        <v>11</v>
+      </c>
+      <c r="E54" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>125</v>
+      </c>
+      <c r="B55" t="s">
+        <v>51</v>
+      </c>
+      <c r="C55" t="s">
+        <v>52</v>
+      </c>
+      <c r="D55" t="s">
+        <v>11</v>
+      </c>
+      <c r="E55" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>127</v>
+      </c>
+      <c r="B56" t="s">
+        <v>51</v>
+      </c>
+      <c r="C56" t="s">
+        <v>52</v>
+      </c>
+      <c r="D56" t="s">
+        <v>11</v>
+      </c>
+      <c r="E56" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>129</v>
+      </c>
+      <c r="B57" t="s">
+        <v>51</v>
+      </c>
+      <c r="C57" t="s">
+        <v>52</v>
+      </c>
+      <c r="D57" t="s">
+        <v>11</v>
+      </c>
+      <c r="E57" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>131</v>
+      </c>
+      <c r="B58" t="s">
+        <v>51</v>
+      </c>
+      <c r="C58" t="s">
+        <v>52</v>
+      </c>
+      <c r="D58" t="s">
+        <v>64</v>
+      </c>
+      <c r="E58" t="s">
+        <v>132</v>
       </c>
     </row>
   </sheetData>

--- a/Docs/Prashant Mewada.xlsx
+++ b/Docs/Prashant Mewada.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25601"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Prashant\Documents\UiPath\LinkedInBot\Docs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\XLNC\Documents\UiPath\LinkedInBot\Docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DB6664C-3F56-4E2A-B95A-85AFE4F13DC3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3300" yWindow="3540" windowWidth="21600" windowHeight="11295" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3300" yWindow="3540" windowWidth="21600" windowHeight="11295"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="49">
   <si>
     <t>Name</t>
   </si>
@@ -99,12 +98,87 @@
   </si>
   <si>
     <t>HR recruiter</t>
+  </si>
+  <si>
+    <t>DataTimestamp</t>
+  </si>
+  <si>
+    <t>Widthdrawn</t>
+  </si>
+  <si>
+    <t>Nikhita Singh</t>
+  </si>
+  <si>
+    <t>Message - Sent</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/nikhita-singh-a8423878?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABBohwQBVxAaxnlHGcEhGYPLbUk2K4cfspM</t>
+  </si>
+  <si>
+    <t>preethi kumar</t>
+  </si>
+  <si>
+    <t>Message - Already Sent</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/preethi-kumar-533603145?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACMmrzcBuZT5gSFrQPxrZBxQK3goTwkZbDc</t>
+  </si>
+  <si>
+    <t>Aishwarya BP</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/aishwarya-bp-37a059103?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABorg84BMXvgvbAyq0JxoxyIAgk8RahvhDQ</t>
+  </si>
+  <si>
+    <t>Shruthi Abbar</t>
+  </si>
+  <si>
+    <t>Connect - Sent</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/shruthi-abbar-47685a177?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACnzaxoBySAvXwpC8YnbJwBuTWv96NXm6To</t>
+  </si>
+  <si>
+    <t>RIVIN MATHEW</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/rivin-mathew-0a64b0135?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACD_u34B2Nqz595efGkVi1Nj_9ZsZo8c0TI</t>
+  </si>
+  <si>
+    <t>Aarthi Raju</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/aarthi-raju-792a0b197?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAC4-9p4BTu6bJ_ft8aDkNyJyZvqS2H55-M4</t>
+  </si>
+  <si>
+    <t>Smitha H</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/smitha-h-3672a2155?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACU9YX8BPJ8Jtjzq1onul_LeeohCQskIWTU</t>
+  </si>
+  <si>
+    <t>Sonal Ranjit</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/sonal-ranjit-a77ba8164?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACdU6fsBWhp9QE47Xy_kT6iQQwHvNpr27b4</t>
+  </si>
+  <si>
+    <t>Parul Narayan</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/parul-narayan-b551391a4?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAC-3wjEB_vXizWzTrx2OKoZwG2m9aZoFMNw</t>
+  </si>
+  <si>
+    <t>Natasha Castelino</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/natasha-castelino-92590b7b?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABEK620B9eP5H9iv543swL-IiLJKb-ALHMo</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -416,11 +490,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:D3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -479,8 +553,11 @@
       <c r="C3" t="s">
         <v>12</v>
       </c>
+      <c r="D3">
+        <v>2</v>
+      </c>
       <c r="E3" s="1">
-        <v>44828.881030092591</v>
+        <v>44830.43886574074</v>
       </c>
       <c r="F3" t="s">
         <v>14</v>
@@ -522,11 +599,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:E1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -535,9 +612,11 @@
     <col min="2" max="2" width="14.85546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13.85546875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -552,6 +631,212 @@
       </c>
       <c r="E1" t="s">
         <v>6</v>
+      </c>
+      <c r="F1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E2" t="s">
+        <v>28</v>
+      </c>
+      <c r="F2" s="1">
+        <v>44830.40488425926</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E3" t="s">
+        <v>31</v>
+      </c>
+      <c r="F3" s="1">
+        <v>44830.404988425929</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" t="s">
+        <v>27</v>
+      </c>
+      <c r="E4" t="s">
+        <v>33</v>
+      </c>
+      <c r="F4" s="1">
+        <v>44830.40525462963</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>34</v>
+      </c>
+      <c r="B5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" t="s">
+        <v>35</v>
+      </c>
+      <c r="E5" t="s">
+        <v>36</v>
+      </c>
+      <c r="F5" s="1">
+        <v>44830.405300925922</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>37</v>
+      </c>
+      <c r="B6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" t="s">
+        <v>35</v>
+      </c>
+      <c r="E6" t="s">
+        <v>38</v>
+      </c>
+      <c r="F6" s="1">
+        <v>44830.405347222222</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>39</v>
+      </c>
+      <c r="B7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D7" t="s">
+        <v>27</v>
+      </c>
+      <c r="E7" t="s">
+        <v>40</v>
+      </c>
+      <c r="F7" s="1">
+        <v>44830.437939814816</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>41</v>
+      </c>
+      <c r="B8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D8" t="s">
+        <v>27</v>
+      </c>
+      <c r="E8" t="s">
+        <v>42</v>
+      </c>
+      <c r="F8" s="1">
+        <v>44830.438217592593</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>43</v>
+      </c>
+      <c r="B9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" t="s">
+        <v>12</v>
+      </c>
+      <c r="D9" t="s">
+        <v>27</v>
+      </c>
+      <c r="E9" t="s">
+        <v>44</v>
+      </c>
+      <c r="F9" s="1">
+        <v>44830.43849537037</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>45</v>
+      </c>
+      <c r="B10" t="s">
+        <v>11</v>
+      </c>
+      <c r="C10" t="s">
+        <v>12</v>
+      </c>
+      <c r="D10" t="s">
+        <v>27</v>
+      </c>
+      <c r="E10" t="s">
+        <v>46</v>
+      </c>
+      <c r="F10" s="1">
+        <v>44830.438761574071</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>47</v>
+      </c>
+      <c r="B11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11" t="s">
+        <v>12</v>
+      </c>
+      <c r="D11" t="s">
+        <v>35</v>
+      </c>
+      <c r="E11" t="s">
+        <v>48</v>
+      </c>
+      <c r="F11" s="1">
+        <v>44830.438807870371</v>
       </c>
     </row>
   </sheetData>
@@ -560,7 +845,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1712782C-3F30-40F4-B24D-17F6F1DA1B46}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A9"/>
   <sheetViews>
     <sheetView workbookViewId="0">

--- a/Docs/Prashant Mewada.xlsx
+++ b/Docs/Prashant Mewada.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25601"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\XLNC\Documents\UiPath\LinkedInBot\Docs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Prashant\Documents\UiPath\LinkedInBot\Docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C987E94-9500-42BD-976C-D82F8402631A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3300" yWindow="3540" windowWidth="21600" windowHeight="11295"/>
+    <workbookView xWindow="4995" yWindow="2865" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="87">
   <si>
     <t>Name</t>
   </si>
@@ -173,12 +174,126 @@
   </si>
   <si>
     <t>https://www.linkedin.com/in/natasha-castelino-92590b7b?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABEK620B9eP5H9iv543swL-IiLJKb-ALHMo</t>
+  </si>
+  <si>
+    <t>Lalit ..</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/lalit-4bba7924a?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAD29Do8B6n63DBAgEUbzASH-DNU18DFXrgE</t>
+  </si>
+  <si>
+    <t>Kavya Shree</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/kavyashreeav?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAAt7G7gBZBipGj3co0ddZiNKK__1xhLBVTQ</t>
+  </si>
+  <si>
+    <t>Shwetha S L</t>
+  </si>
+  <si>
+    <t>Pending - Already Sent</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/shwetha-s-l-7904a924?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAAUOWxwB8e7Wsf6VKyY9g0OR3UwFmfLzGHA</t>
+  </si>
+  <si>
+    <t>Harshith K</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/harshith-k-455a3224b?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAD3pKwEBmHbKU2rk6XEXGbjoPGIUjyrjH8E</t>
+  </si>
+  <si>
+    <t>Hemant S</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/hemant-s-0a1a481b7?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAADKFonkBhhq0LQIoBZx7pU8v-JOFtIrAkGk</t>
+  </si>
+  <si>
+    <t>R Aarthi She/Her</t>
+  </si>
+  <si>
+    <t>Follow - Sent</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/aarthirecruitergoogle?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABmDMYcBHai2bR4gJ9Hy7ATnN6Mv9Jrb2mA</t>
+  </si>
+  <si>
+    <t>Ankita Goel</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/ankita-goel-007ab5147?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACOUhMcB24kw_osHDEw3La9F4hBGBPNpUWI</t>
+  </si>
+  <si>
+    <t>Srinath M</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/srinath-m-546651244?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAADybpsYBki2f6h7c-j4Dy7p2SoaKeUEjNWs</t>
+  </si>
+  <si>
+    <t>Vidya hj</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/vidyahj?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABsAHJkB7r-ikZXuMH8q9Opw2TYU_pDzVdE</t>
+  </si>
+  <si>
+    <t>Anuraag Mandanna</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/anuraag-mandanna-a06b75158?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACXnYmYBc_wNWufnIVXRQLIb-_UwY9OuUCI</t>
+  </si>
+  <si>
+    <t>Ramya D</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/ramya-d-b7310b106?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABq2fMcBApC11S5AGrSeSGKVEsHnOWMATAY</t>
+  </si>
+  <si>
+    <t>Apeksha .</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/apeksha3?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAAnEoRABgpnQUOiRjkIujbUbbLCDgTNMkLw</t>
+  </si>
+  <si>
+    <t>Samreen Jabbar</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/samreen-jabbar-220239172?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACj4KPgB1-GRuUKp7Y1JW6EGeCZpfmZcxLU</t>
+  </si>
+  <si>
+    <t>Astha Handa</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/asthahanda?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACYJDAkB6F5meb0X1a8RpFMJ736SaBMosIE</t>
+  </si>
+  <si>
+    <t>Preethika gk</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/preethika-gk-b60144140?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACIxMXgBCHQlrQ2Kd6vWjCNNv_NV0HjrNr0</t>
+  </si>
+  <si>
+    <t>Sananda Basu</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/sananda-basu-666a3358?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAAxBQu4B1pbluJLT08oDB_nv5r7FIefoIlg</t>
+  </si>
+  <si>
+    <t>Luzanna Virgina Barretto</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/luzanna-virgina-barretto-b170401a2?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAC9Y6kMBfuv5q1qNF5jMAsBpaz55R6SS8XU</t>
+  </si>
+  <si>
+    <t>Athiba Syed</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/athiba-syed-432923176?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACnIhKYBbKNHfAdCeQfQs1p6FsmA0198ZYs</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -490,17 +605,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="16.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="31" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="15.5703125" bestFit="1" customWidth="1"/>
@@ -560,7 +675,7 @@
         <v>44830.43886574074</v>
       </c>
       <c r="F3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -573,9 +688,14 @@
       <c r="C4" t="s">
         <v>12</v>
       </c>
-      <c r="E4" s="1"/>
+      <c r="D4">
+        <v>2</v>
+      </c>
+      <c r="E4" s="1">
+        <v>44831.957442129627</v>
+      </c>
       <c r="F4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -588,8 +708,69 @@
       <c r="C5" t="s">
         <v>12</v>
       </c>
+      <c r="D5">
+        <v>2</v>
+      </c>
+      <c r="E5" s="1">
+        <v>44831.959918981483</v>
+      </c>
       <c r="F5" t="s">
-        <v>15</v>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>1</v>
+      </c>
+      <c r="B7" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>1</v>
+      </c>
+      <c r="B8" t="s">
+        <v>21</v>
+      </c>
+      <c r="C8" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>1</v>
+      </c>
+      <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -599,8 +780,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G11"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:G29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G2" sqref="G2"/>
@@ -839,17 +1020,377 @@
         <v>44830.438807870371</v>
       </c>
     </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>49</v>
+      </c>
+      <c r="B12" t="s">
+        <v>16</v>
+      </c>
+      <c r="C12" t="s">
+        <v>12</v>
+      </c>
+      <c r="D12" t="s">
+        <v>35</v>
+      </c>
+      <c r="E12" t="s">
+        <v>50</v>
+      </c>
+      <c r="F12" s="1">
+        <v>44831.956238425926</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>51</v>
+      </c>
+      <c r="B13" t="s">
+        <v>16</v>
+      </c>
+      <c r="C13" t="s">
+        <v>12</v>
+      </c>
+      <c r="D13" t="s">
+        <v>35</v>
+      </c>
+      <c r="E13" t="s">
+        <v>52</v>
+      </c>
+      <c r="F13" s="1">
+        <v>44831.956284722219</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>53</v>
+      </c>
+      <c r="B14" t="s">
+        <v>16</v>
+      </c>
+      <c r="C14" t="s">
+        <v>12</v>
+      </c>
+      <c r="D14" t="s">
+        <v>54</v>
+      </c>
+      <c r="E14" t="s">
+        <v>55</v>
+      </c>
+      <c r="F14" s="1">
+        <v>44831.956284722219</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>56</v>
+      </c>
+      <c r="B15" t="s">
+        <v>16</v>
+      </c>
+      <c r="C15" t="s">
+        <v>12</v>
+      </c>
+      <c r="D15" t="s">
+        <v>27</v>
+      </c>
+      <c r="E15" t="s">
+        <v>57</v>
+      </c>
+      <c r="F15" s="1">
+        <v>44831.95653935185</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>58</v>
+      </c>
+      <c r="B16" t="s">
+        <v>16</v>
+      </c>
+      <c r="C16" t="s">
+        <v>12</v>
+      </c>
+      <c r="D16" t="s">
+        <v>35</v>
+      </c>
+      <c r="E16" t="s">
+        <v>59</v>
+      </c>
+      <c r="F16" s="1">
+        <v>44831.956585648149</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>60</v>
+      </c>
+      <c r="B17" t="s">
+        <v>16</v>
+      </c>
+      <c r="C17" t="s">
+        <v>12</v>
+      </c>
+      <c r="D17" t="s">
+        <v>61</v>
+      </c>
+      <c r="E17" t="s">
+        <v>62</v>
+      </c>
+      <c r="F17" s="1">
+        <v>44831.95684027778</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>63</v>
+      </c>
+      <c r="B18" t="s">
+        <v>16</v>
+      </c>
+      <c r="C18" t="s">
+        <v>12</v>
+      </c>
+      <c r="D18" t="s">
+        <v>27</v>
+      </c>
+      <c r="E18" t="s">
+        <v>64</v>
+      </c>
+      <c r="F18" s="1">
+        <v>44831.957083333335</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>65</v>
+      </c>
+      <c r="B19" t="s">
+        <v>16</v>
+      </c>
+      <c r="C19" t="s">
+        <v>12</v>
+      </c>
+      <c r="D19" t="s">
+        <v>27</v>
+      </c>
+      <c r="E19" t="s">
+        <v>66</v>
+      </c>
+      <c r="F19" s="1">
+        <v>44831.957326388889</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>67</v>
+      </c>
+      <c r="B20" t="s">
+        <v>16</v>
+      </c>
+      <c r="C20" t="s">
+        <v>12</v>
+      </c>
+      <c r="D20" t="s">
+        <v>35</v>
+      </c>
+      <c r="E20" t="s">
+        <v>68</v>
+      </c>
+      <c r="F20" s="1">
+        <v>44831.957372685189</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>69</v>
+      </c>
+      <c r="B21" t="s">
+        <v>17</v>
+      </c>
+      <c r="C21" t="s">
+        <v>12</v>
+      </c>
+      <c r="D21" t="s">
+        <v>27</v>
+      </c>
+      <c r="E21" t="s">
+        <v>70</v>
+      </c>
+      <c r="F21" s="1">
+        <v>44831.958101851851</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>71</v>
+      </c>
+      <c r="B22" t="s">
+        <v>17</v>
+      </c>
+      <c r="C22" t="s">
+        <v>12</v>
+      </c>
+      <c r="D22" t="s">
+        <v>27</v>
+      </c>
+      <c r="E22" t="s">
+        <v>72</v>
+      </c>
+      <c r="F22" s="1">
+        <v>44831.958333333336</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>73</v>
+      </c>
+      <c r="B23" t="s">
+        <v>17</v>
+      </c>
+      <c r="C23" t="s">
+        <v>12</v>
+      </c>
+      <c r="D23" t="s">
+        <v>27</v>
+      </c>
+      <c r="E23" t="s">
+        <v>74</v>
+      </c>
+      <c r="F23" s="1">
+        <v>44831.958599537036</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>75</v>
+      </c>
+      <c r="B24" t="s">
+        <v>17</v>
+      </c>
+      <c r="C24" t="s">
+        <v>12</v>
+      </c>
+      <c r="D24" t="s">
+        <v>27</v>
+      </c>
+      <c r="E24" t="s">
+        <v>76</v>
+      </c>
+      <c r="F24" s="1">
+        <v>44831.95884259259</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>77</v>
+      </c>
+      <c r="B25" t="s">
+        <v>17</v>
+      </c>
+      <c r="C25" t="s">
+        <v>12</v>
+      </c>
+      <c r="D25" t="s">
+        <v>27</v>
+      </c>
+      <c r="E25" t="s">
+        <v>78</v>
+      </c>
+      <c r="F25" s="1">
+        <v>44831.959097222221</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>79</v>
+      </c>
+      <c r="B26" t="s">
+        <v>17</v>
+      </c>
+      <c r="C26" t="s">
+        <v>12</v>
+      </c>
+      <c r="D26" t="s">
+        <v>27</v>
+      </c>
+      <c r="E26" t="s">
+        <v>80</v>
+      </c>
+      <c r="F26" s="1">
+        <v>44831.959340277775</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>81</v>
+      </c>
+      <c r="B27" t="s">
+        <v>17</v>
+      </c>
+      <c r="C27" t="s">
+        <v>12</v>
+      </c>
+      <c r="D27" t="s">
+        <v>27</v>
+      </c>
+      <c r="E27" t="s">
+        <v>82</v>
+      </c>
+      <c r="F27" s="1">
+        <v>44831.95957175926</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>83</v>
+      </c>
+      <c r="B28" t="s">
+        <v>17</v>
+      </c>
+      <c r="C28" t="s">
+        <v>12</v>
+      </c>
+      <c r="D28" t="s">
+        <v>35</v>
+      </c>
+      <c r="E28" t="s">
+        <v>84</v>
+      </c>
+      <c r="F28" s="1">
+        <v>44831.959618055553</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>85</v>
+      </c>
+      <c r="B29" t="s">
+        <v>17</v>
+      </c>
+      <c r="C29" t="s">
+        <v>12</v>
+      </c>
+      <c r="D29" t="s">
+        <v>27</v>
+      </c>
+      <c r="E29" t="s">
+        <v>86</v>
+      </c>
+      <c r="F29" s="1">
+        <v>44831.959872685184</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:A9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="A2" sqref="A2:A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Docs/Prashant Mewada.xlsx
+++ b/Docs/Prashant Mewada.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Prashant\Documents\UiPath\LinkedInBot\Docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C987E94-9500-42BD-976C-D82F8402631A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDDBD838-739E-4CFE-813B-CAC03A4D3226}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4995" yWindow="2865" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4035" yWindow="3840" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="403" uniqueCount="201">
   <si>
     <t>Name</t>
   </si>
@@ -104,190 +104,532 @@
     <t>DataTimestamp</t>
   </si>
   <si>
-    <t>Widthdrawn</t>
-  </si>
-  <si>
     <t>Nikhita Singh</t>
   </si>
   <si>
     <t>Message - Sent</t>
   </si>
   <si>
-    <t>https://www.linkedin.com/in/nikhita-singh-a8423878?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABBohwQBVxAaxnlHGcEhGYPLbUk2K4cfspM</t>
-  </si>
-  <si>
     <t>preethi kumar</t>
   </si>
   <si>
     <t>Message - Already Sent</t>
   </si>
   <si>
-    <t>https://www.linkedin.com/in/preethi-kumar-533603145?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACMmrzcBuZT5gSFrQPxrZBxQK3goTwkZbDc</t>
-  </si>
-  <si>
     <t>Aishwarya BP</t>
   </si>
   <si>
-    <t>https://www.linkedin.com/in/aishwarya-bp-37a059103?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABorg84BMXvgvbAyq0JxoxyIAgk8RahvhDQ</t>
-  </si>
-  <si>
     <t>Shruthi Abbar</t>
   </si>
   <si>
     <t>Connect - Sent</t>
   </si>
   <si>
-    <t>https://www.linkedin.com/in/shruthi-abbar-47685a177?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACnzaxoBySAvXwpC8YnbJwBuTWv96NXm6To</t>
-  </si>
-  <si>
     <t>RIVIN MATHEW</t>
   </si>
   <si>
-    <t>https://www.linkedin.com/in/rivin-mathew-0a64b0135?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACD_u34B2Nqz595efGkVi1Nj_9ZsZo8c0TI</t>
-  </si>
-  <si>
     <t>Aarthi Raju</t>
   </si>
   <si>
-    <t>https://www.linkedin.com/in/aarthi-raju-792a0b197?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAC4-9p4BTu6bJ_ft8aDkNyJyZvqS2H55-M4</t>
-  </si>
-  <si>
     <t>Smitha H</t>
   </si>
   <si>
-    <t>https://www.linkedin.com/in/smitha-h-3672a2155?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACU9YX8BPJ8Jtjzq1onul_LeeohCQskIWTU</t>
-  </si>
-  <si>
     <t>Sonal Ranjit</t>
   </si>
   <si>
-    <t>https://www.linkedin.com/in/sonal-ranjit-a77ba8164?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACdU6fsBWhp9QE47Xy_kT6iQQwHvNpr27b4</t>
-  </si>
-  <si>
     <t>Parul Narayan</t>
   </si>
   <si>
-    <t>https://www.linkedin.com/in/parul-narayan-b551391a4?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAC-3wjEB_vXizWzTrx2OKoZwG2m9aZoFMNw</t>
-  </si>
-  <si>
     <t>Natasha Castelino</t>
   </si>
   <si>
-    <t>https://www.linkedin.com/in/natasha-castelino-92590b7b?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABEK620B9eP5H9iv543swL-IiLJKb-ALHMo</t>
-  </si>
-  <si>
     <t>Lalit ..</t>
   </si>
   <si>
-    <t>https://www.linkedin.com/in/lalit-4bba7924a?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAD29Do8B6n63DBAgEUbzASH-DNU18DFXrgE</t>
-  </si>
-  <si>
     <t>Kavya Shree</t>
   </si>
   <si>
-    <t>https://www.linkedin.com/in/kavyashreeav?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAAt7G7gBZBipGj3co0ddZiNKK__1xhLBVTQ</t>
-  </si>
-  <si>
     <t>Shwetha S L</t>
   </si>
   <si>
     <t>Pending - Already Sent</t>
   </si>
   <si>
-    <t>https://www.linkedin.com/in/shwetha-s-l-7904a924?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAAUOWxwB8e7Wsf6VKyY9g0OR3UwFmfLzGHA</t>
-  </si>
-  <si>
     <t>Harshith K</t>
   </si>
   <si>
-    <t>https://www.linkedin.com/in/harshith-k-455a3224b?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAD3pKwEBmHbKU2rk6XEXGbjoPGIUjyrjH8E</t>
-  </si>
-  <si>
     <t>Hemant S</t>
   </si>
   <si>
-    <t>https://www.linkedin.com/in/hemant-s-0a1a481b7?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAADKFonkBhhq0LQIoBZx7pU8v-JOFtIrAkGk</t>
-  </si>
-  <si>
     <t>R Aarthi She/Her</t>
   </si>
   <si>
     <t>Follow - Sent</t>
   </si>
   <si>
-    <t>https://www.linkedin.com/in/aarthirecruitergoogle?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABmDMYcBHai2bR4gJ9Hy7ATnN6Mv9Jrb2mA</t>
-  </si>
-  <si>
     <t>Ankita Goel</t>
   </si>
   <si>
-    <t>https://www.linkedin.com/in/ankita-goel-007ab5147?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACOUhMcB24kw_osHDEw3La9F4hBGBPNpUWI</t>
-  </si>
-  <si>
     <t>Srinath M</t>
   </si>
   <si>
-    <t>https://www.linkedin.com/in/srinath-m-546651244?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAADybpsYBki2f6h7c-j4Dy7p2SoaKeUEjNWs</t>
-  </si>
-  <si>
     <t>Vidya hj</t>
   </si>
   <si>
-    <t>https://www.linkedin.com/in/vidyahj?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABsAHJkB7r-ikZXuMH8q9Opw2TYU_pDzVdE</t>
-  </si>
-  <si>
     <t>Anuraag Mandanna</t>
   </si>
   <si>
-    <t>https://www.linkedin.com/in/anuraag-mandanna-a06b75158?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACXnYmYBc_wNWufnIVXRQLIb-_UwY9OuUCI</t>
-  </si>
-  <si>
     <t>Ramya D</t>
   </si>
   <si>
-    <t>https://www.linkedin.com/in/ramya-d-b7310b106?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAABq2fMcBApC11S5AGrSeSGKVEsHnOWMATAY</t>
-  </si>
-  <si>
     <t>Apeksha .</t>
   </si>
   <si>
-    <t>https://www.linkedin.com/in/apeksha3?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAAnEoRABgpnQUOiRjkIujbUbbLCDgTNMkLw</t>
-  </si>
-  <si>
     <t>Samreen Jabbar</t>
   </si>
   <si>
-    <t>https://www.linkedin.com/in/samreen-jabbar-220239172?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACj4KPgB1-GRuUKp7Y1JW6EGeCZpfmZcxLU</t>
-  </si>
-  <si>
     <t>Astha Handa</t>
   </si>
   <si>
-    <t>https://www.linkedin.com/in/asthahanda?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACYJDAkB6F5meb0X1a8RpFMJ736SaBMosIE</t>
-  </si>
-  <si>
     <t>Preethika gk</t>
   </si>
   <si>
-    <t>https://www.linkedin.com/in/preethika-gk-b60144140?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACIxMXgBCHQlrQ2Kd6vWjCNNv_NV0HjrNr0</t>
-  </si>
-  <si>
     <t>Sananda Basu</t>
   </si>
   <si>
-    <t>https://www.linkedin.com/in/sananda-basu-666a3358?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAAxBQu4B1pbluJLT08oDB_nv5r7FIefoIlg</t>
-  </si>
-  <si>
     <t>Luzanna Virgina Barretto</t>
   </si>
   <si>
-    <t>https://www.linkedin.com/in/luzanna-virgina-barretto-b170401a2?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAC9Y6kMBfuv5q1qNF5jMAsBpaz55R6SS8XU</t>
-  </si>
-  <si>
     <t>Athiba Syed</t>
   </si>
   <si>
-    <t>https://www.linkedin.com/in/athiba-syed-432923176?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAACnIhKYBbKNHfAdCeQfQs1p6FsmA0198ZYs</t>
+    <t>Withdrawn</t>
+  </si>
+  <si>
+    <t>WithdrawTimeStamp</t>
+  </si>
+  <si>
+    <t>Srinivasulu Neeruganti</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/srinivasulu-neeruganti-632386b/</t>
+  </si>
+  <si>
+    <t>Withdraw</t>
+  </si>
+  <si>
+    <t>Philomena Lincy</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/philomena-lincy-2b7a4610/</t>
+  </si>
+  <si>
+    <t>Antarikhya Deka</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/antarikhya-deka-ab0ba169/</t>
+  </si>
+  <si>
+    <t>Sangram Guha</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/sangram-guha-6ba27634/</t>
+  </si>
+  <si>
+    <t>Khushboo Sinha</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/khushboo-sinha-74252338/</t>
+  </si>
+  <si>
+    <t>Snigdha Mukherjee</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/snigdha-mukherjee-7998b4154/</t>
+  </si>
+  <si>
+    <t>Sandhya Tiwari</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/sandhya-tiwari-27838a56/</t>
+  </si>
+  <si>
+    <t>Soma Dutta</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/soma-dutta-b6b343194/</t>
+  </si>
+  <si>
+    <t>Revathi D.</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/revathi-d-64807a6/</t>
+  </si>
+  <si>
+    <t>Manushi Sharma</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/manushi-sharma-56923a120/</t>
+  </si>
+  <si>
+    <t>Vishnu Arumugam</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/vishnu-arumugam-a470216a/</t>
+  </si>
+  <si>
+    <t>Srushti Shah</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/srushtishah-leadership-hiring/</t>
+  </si>
+  <si>
+    <t>Apoorv Katiyar</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/apoorv-katiyar-82776118b/</t>
+  </si>
+  <si>
+    <t>Gangadhar Salimath</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/gangadharsalimath/</t>
+  </si>
+  <si>
+    <t>Rakhi Chadaga</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/rakhi-chadaga-a9539120/</t>
+  </si>
+  <si>
+    <t>Reuben R.</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/reubenrraj/</t>
+  </si>
+  <si>
+    <t>Mahjabin Fatma</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/mahjabinfatma/</t>
+  </si>
+  <si>
+    <t>Rubi Kumar</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/rubi-kumar-17a20242/</t>
+  </si>
+  <si>
+    <t>Steve Bulls ~ Skilled RPA and Excel VBA Programmer</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/steve-bulls/</t>
+  </si>
+  <si>
+    <t>Priya Rajput</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/priya-rajput-2729ba224/</t>
+  </si>
+  <si>
+    <t>Anisha Sahu</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/anishasahu96/</t>
+  </si>
+  <si>
+    <t>Payel Biswas</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/payel-biswas-17ab53119/</t>
+  </si>
+  <si>
+    <t>Harshitha Raju</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/harshitha-raju/</t>
+  </si>
+  <si>
+    <t>Kajal Dash</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/kajal-dash-7574a2103/</t>
+  </si>
+  <si>
+    <t>Chanchala Ugra</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/chanchala-ugra-a44029145/</t>
+  </si>
+  <si>
+    <t>Akashdeep Bhowal</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/akashdeep-bhowal-b43b51104/</t>
+  </si>
+  <si>
+    <t>AMULYA V R.</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/amulyavrao/</t>
+  </si>
+  <si>
+    <t>Niveditha Rao</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/niveditha-rao-b5b9881a3/</t>
+  </si>
+  <si>
+    <t>Trishita K.</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/trishita-k-9666891ab/</t>
+  </si>
+  <si>
+    <t>Prashanth Bharadwaj</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/prashanth-bharadwaj-7a67b950/</t>
+  </si>
+  <si>
+    <t>Cheruku Sabarish</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/cherukusabarish/</t>
+  </si>
+  <si>
+    <t>Samatha Krishna</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/samatha-krishna-91a3b3175/</t>
+  </si>
+  <si>
+    <t>Deepthi Nandina</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/deepthi-nandina-10226a164/</t>
+  </si>
+  <si>
+    <t>Nikitha Lingaraju</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/nikitha-lingaraju-966903172/</t>
+  </si>
+  <si>
+    <t>Khushbu Roy</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/khushbu-roy-2209/</t>
+  </si>
+  <si>
+    <t>Puja rajak</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/puja-rajak-98b14914a/</t>
+  </si>
+  <si>
+    <t>Kundan Yadav</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/kundan-yadav-6a490984/</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/nikhita-singh-a8423878</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/preethi-kumar-533603145</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/aishwarya-bp-37a059103</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/shruthi-abbar-47685a177</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/rivin-mathew-0a64b0135</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/aarthi-raju-792a0b197</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/smitha-h-3672a2155</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/sonal-ranjit-a77ba8164</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/parul-narayan-b551391a4</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/natasha-castelino-92590b7b</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/lalit-4bba7924a</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/kavyashreeav</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/shwetha-s-l-7904a924</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/harshith-k-455a3224b</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/hemant-s-0a1a481b7</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/aarthirecruitergoogle</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/ankita-goel-007ab5147</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/srinath-m-546651244</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/vidyahj</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/anuraag-mandanna-a06b75158</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/ramya-d-b7310b106</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/apeksha3</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/samreen-jabbar-220239172</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/asthahanda</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/preethika-gk-b60144140</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/sananda-basu-666a3358</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/luzanna-virgina-barretto-b170401a2</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/athiba-syed-432923176</t>
+  </si>
+  <si>
+    <t>Aiyappa B R</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/aiyappa-b-r-195a9b17</t>
+  </si>
+  <si>
+    <t>Monica Lokare</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/monica-lokare-9549a3146</t>
+  </si>
+  <si>
+    <t>Swetha Shivakumar</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/swetha-shivakumar-3284b213</t>
+  </si>
+  <si>
+    <t>Asha Rani D M</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/asha-rani-d-m-a070521b6</t>
+  </si>
+  <si>
+    <t>Sweta Yadav</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/iamswetayadav</t>
+  </si>
+  <si>
+    <t>Chitranshi Saxena</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/chitranshi-saxena-274b7015a</t>
+  </si>
+  <si>
+    <t>Keerthana Balasubramaniam</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/keerthana-balasubramaniam</t>
+  </si>
+  <si>
+    <t>Abhirami Sivan</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/abhirami-sivan-07822615b</t>
+  </si>
+  <si>
+    <t>Udaya Bhaskar</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/udayabhaskar</t>
+  </si>
+  <si>
+    <t>Debaroti Roy</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/debaroti-roy-b0a68479</t>
+  </si>
+  <si>
+    <t>Lekha Sree D</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/lekha-sree-d-77761724a</t>
+  </si>
+  <si>
+    <t>Abirami Manoharan</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/abirami-manoharan-a919bb196</t>
+  </si>
+  <si>
+    <t>Bhavana Arya</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/bhavana-arya-72515a170</t>
+  </si>
+  <si>
+    <t>Gayathri Anbumathi</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/gayathri-anbumathi-3a399423b</t>
+  </si>
+  <si>
+    <t>Akash T</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/akash-t-392897248</t>
+  </si>
+  <si>
+    <t>Ramya Chendaluru</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/ramya-chendaluru-a6383a153</t>
+  </si>
+  <si>
+    <t>Abishai c</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/abishai-c-721816246</t>
+  </si>
+  <si>
+    <t>Bhakti Choudhari</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/bhakti-choudhari-0b75b4247</t>
+  </si>
+  <si>
+    <t>Mamta Nanda</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/mamta-nanda-0a9b7a23a</t>
   </si>
 </sst>
 </file>
@@ -609,7 +951,7 @@
   <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -695,7 +1037,7 @@
         <v>44831.957442129627</v>
       </c>
       <c r="F4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -715,7 +1057,7 @@
         <v>44831.959918981483</v>
       </c>
       <c r="F5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -728,6 +1070,15 @@
       <c r="C6" t="s">
         <v>12</v>
       </c>
+      <c r="D6">
+        <v>2</v>
+      </c>
+      <c r="E6" s="1">
+        <v>44833.883576388886</v>
+      </c>
+      <c r="F6" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
@@ -738,6 +1089,15 @@
       </c>
       <c r="C7" t="s">
         <v>12</v>
+      </c>
+      <c r="D7">
+        <v>2</v>
+      </c>
+      <c r="E7" s="1">
+        <v>44833.88616898148</v>
+      </c>
+      <c r="F7" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
@@ -781,11 +1141,9 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:G29"/>
+  <dimension ref="A1:H85"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -795,9 +1153,10 @@
     <col min="5" max="5" width="10.28515625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="15.5703125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="12" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="20" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -817,12 +1176,15 @@
         <v>24</v>
       </c>
       <c r="G1" t="s">
+        <v>58</v>
+      </c>
+      <c r="H1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>25</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>26</v>
       </c>
       <c r="B2" t="s">
         <v>11</v>
@@ -831,18 +1193,18 @@
         <v>12</v>
       </c>
       <c r="D2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E2" t="s">
-        <v>28</v>
+        <v>135</v>
       </c>
       <c r="F2" s="1">
         <v>44830.40488425926</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B3" t="s">
         <v>11</v>
@@ -851,18 +1213,18 @@
         <v>12</v>
       </c>
       <c r="D3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E3" t="s">
-        <v>31</v>
+        <v>136</v>
       </c>
       <c r="F3" s="1">
         <v>44830.404988425929</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B4" t="s">
         <v>11</v>
@@ -871,18 +1233,18 @@
         <v>12</v>
       </c>
       <c r="D4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E4" t="s">
-        <v>33</v>
+        <v>137</v>
       </c>
       <c r="F4" s="1">
         <v>44830.40525462963</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="B5" t="s">
         <v>11</v>
@@ -891,18 +1253,18 @@
         <v>12</v>
       </c>
       <c r="D5" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="E5" t="s">
-        <v>36</v>
+        <v>138</v>
       </c>
       <c r="F5" s="1">
         <v>44830.405300925922</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="B6" t="s">
         <v>11</v>
@@ -911,18 +1273,18 @@
         <v>12</v>
       </c>
       <c r="D6" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="E6" t="s">
-        <v>38</v>
+        <v>139</v>
       </c>
       <c r="F6" s="1">
         <v>44830.405347222222</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="B7" t="s">
         <v>11</v>
@@ -931,18 +1293,18 @@
         <v>12</v>
       </c>
       <c r="D7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E7" t="s">
-        <v>40</v>
+        <v>140</v>
       </c>
       <c r="F7" s="1">
         <v>44830.437939814816</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="B8" t="s">
         <v>11</v>
@@ -951,18 +1313,18 @@
         <v>12</v>
       </c>
       <c r="D8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E8" t="s">
-        <v>42</v>
+        <v>141</v>
       </c>
       <c r="F8" s="1">
         <v>44830.438217592593</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="B9" t="s">
         <v>11</v>
@@ -971,18 +1333,18 @@
         <v>12</v>
       </c>
       <c r="D9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E9" t="s">
-        <v>44</v>
+        <v>142</v>
       </c>
       <c r="F9" s="1">
         <v>44830.43849537037</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="B10" t="s">
         <v>11</v>
@@ -991,18 +1353,18 @@
         <v>12</v>
       </c>
       <c r="D10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E10" t="s">
-        <v>46</v>
+        <v>143</v>
       </c>
       <c r="F10" s="1">
         <v>44830.438761574071</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="B11" t="s">
         <v>11</v>
@@ -1011,18 +1373,18 @@
         <v>12</v>
       </c>
       <c r="D11" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="E11" t="s">
-        <v>48</v>
+        <v>144</v>
       </c>
       <c r="F11" s="1">
         <v>44830.438807870371</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="B12" t="s">
         <v>16</v>
@@ -1031,18 +1393,18 @@
         <v>12</v>
       </c>
       <c r="D12" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="E12" t="s">
-        <v>50</v>
+        <v>145</v>
       </c>
       <c r="F12" s="1">
         <v>44831.956238425926</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="B13" t="s">
         <v>16</v>
@@ -1051,18 +1413,18 @@
         <v>12</v>
       </c>
       <c r="D13" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="E13" t="s">
-        <v>52</v>
+        <v>146</v>
       </c>
       <c r="F13" s="1">
         <v>44831.956284722219</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>53</v>
+        <v>40</v>
       </c>
       <c r="B14" t="s">
         <v>16</v>
@@ -1071,18 +1433,24 @@
         <v>12</v>
       </c>
       <c r="D14" t="s">
-        <v>54</v>
+        <v>41</v>
       </c>
       <c r="E14" t="s">
-        <v>55</v>
+        <v>147</v>
       </c>
       <c r="F14" s="1">
         <v>44831.956284722219</v>
       </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G14" t="s">
+        <v>62</v>
+      </c>
+      <c r="H14" s="1">
+        <v>44833.857303240744</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>56</v>
+        <v>42</v>
       </c>
       <c r="B15" t="s">
         <v>16</v>
@@ -1091,18 +1459,18 @@
         <v>12</v>
       </c>
       <c r="D15" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E15" t="s">
-        <v>57</v>
+        <v>148</v>
       </c>
       <c r="F15" s="1">
         <v>44831.95653935185</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>58</v>
+        <v>43</v>
       </c>
       <c r="B16" t="s">
         <v>16</v>
@@ -1111,18 +1479,18 @@
         <v>12</v>
       </c>
       <c r="D16" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="E16" t="s">
-        <v>59</v>
+        <v>149</v>
       </c>
       <c r="F16" s="1">
         <v>44831.956585648149</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>60</v>
+        <v>44</v>
       </c>
       <c r="B17" t="s">
         <v>16</v>
@@ -1131,18 +1499,18 @@
         <v>12</v>
       </c>
       <c r="D17" t="s">
-        <v>61</v>
+        <v>45</v>
       </c>
       <c r="E17" t="s">
-        <v>62</v>
+        <v>150</v>
       </c>
       <c r="F17" s="1">
         <v>44831.95684027778</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>63</v>
+        <v>46</v>
       </c>
       <c r="B18" t="s">
         <v>16</v>
@@ -1151,18 +1519,18 @@
         <v>12</v>
       </c>
       <c r="D18" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E18" t="s">
-        <v>64</v>
+        <v>151</v>
       </c>
       <c r="F18" s="1">
         <v>44831.957083333335</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>65</v>
+        <v>47</v>
       </c>
       <c r="B19" t="s">
         <v>16</v>
@@ -1171,18 +1539,18 @@
         <v>12</v>
       </c>
       <c r="D19" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E19" t="s">
-        <v>66</v>
+        <v>152</v>
       </c>
       <c r="F19" s="1">
         <v>44831.957326388889</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>67</v>
+        <v>48</v>
       </c>
       <c r="B20" t="s">
         <v>16</v>
@@ -1191,18 +1559,18 @@
         <v>12</v>
       </c>
       <c r="D20" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="E20" t="s">
-        <v>68</v>
+        <v>153</v>
       </c>
       <c r="F20" s="1">
         <v>44831.957372685189</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>69</v>
+        <v>49</v>
       </c>
       <c r="B21" t="s">
         <v>17</v>
@@ -1211,18 +1579,18 @@
         <v>12</v>
       </c>
       <c r="D21" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E21" t="s">
-        <v>70</v>
+        <v>154</v>
       </c>
       <c r="F21" s="1">
         <v>44831.958101851851</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>71</v>
+        <v>50</v>
       </c>
       <c r="B22" t="s">
         <v>17</v>
@@ -1231,18 +1599,18 @@
         <v>12</v>
       </c>
       <c r="D22" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E22" t="s">
-        <v>72</v>
+        <v>155</v>
       </c>
       <c r="F22" s="1">
         <v>44831.958333333336</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>73</v>
+        <v>51</v>
       </c>
       <c r="B23" t="s">
         <v>17</v>
@@ -1251,18 +1619,18 @@
         <v>12</v>
       </c>
       <c r="D23" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E23" t="s">
-        <v>74</v>
+        <v>156</v>
       </c>
       <c r="F23" s="1">
         <v>44831.958599537036</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>75</v>
+        <v>52</v>
       </c>
       <c r="B24" t="s">
         <v>17</v>
@@ -1271,18 +1639,18 @@
         <v>12</v>
       </c>
       <c r="D24" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E24" t="s">
-        <v>76</v>
+        <v>157</v>
       </c>
       <c r="F24" s="1">
         <v>44831.95884259259</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>77</v>
+        <v>53</v>
       </c>
       <c r="B25" t="s">
         <v>17</v>
@@ -1291,18 +1659,18 @@
         <v>12</v>
       </c>
       <c r="D25" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E25" t="s">
-        <v>78</v>
+        <v>158</v>
       </c>
       <c r="F25" s="1">
         <v>44831.959097222221</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>79</v>
+        <v>54</v>
       </c>
       <c r="B26" t="s">
         <v>17</v>
@@ -1311,18 +1679,18 @@
         <v>12</v>
       </c>
       <c r="D26" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E26" t="s">
-        <v>80</v>
+        <v>159</v>
       </c>
       <c r="F26" s="1">
         <v>44831.959340277775</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>81</v>
+        <v>55</v>
       </c>
       <c r="B27" t="s">
         <v>17</v>
@@ -1331,18 +1699,18 @@
         <v>12</v>
       </c>
       <c r="D27" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E27" t="s">
-        <v>82</v>
+        <v>160</v>
       </c>
       <c r="F27" s="1">
         <v>44831.95957175926</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>83</v>
+        <v>56</v>
       </c>
       <c r="B28" t="s">
         <v>17</v>
@@ -1351,18 +1719,18 @@
         <v>12</v>
       </c>
       <c r="D28" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="E28" t="s">
-        <v>84</v>
+        <v>161</v>
       </c>
       <c r="F28" s="1">
         <v>44831.959618055553</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>85</v>
+        <v>57</v>
       </c>
       <c r="B29" t="s">
         <v>17</v>
@@ -1371,13 +1739,911 @@
         <v>12</v>
       </c>
       <c r="D29" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E29" t="s">
-        <v>86</v>
+        <v>162</v>
       </c>
       <c r="F29" s="1">
         <v>44831.959872685184</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>60</v>
+      </c>
+      <c r="E30" t="s">
+        <v>61</v>
+      </c>
+      <c r="G30" t="s">
+        <v>62</v>
+      </c>
+      <c r="H30" s="1">
+        <v>44833.855821759258</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>63</v>
+      </c>
+      <c r="E31" t="s">
+        <v>64</v>
+      </c>
+      <c r="G31" t="s">
+        <v>62</v>
+      </c>
+      <c r="H31" s="1">
+        <v>44833.856261574074</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>65</v>
+      </c>
+      <c r="E32" t="s">
+        <v>66</v>
+      </c>
+      <c r="G32" t="s">
+        <v>62</v>
+      </c>
+      <c r="H32" s="1">
+        <v>44833.856956018521</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>67</v>
+      </c>
+      <c r="E33" t="s">
+        <v>68</v>
+      </c>
+      <c r="G33" t="s">
+        <v>62</v>
+      </c>
+      <c r="H33" s="1">
+        <v>44833.85701388889</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>69</v>
+      </c>
+      <c r="E34" t="s">
+        <v>70</v>
+      </c>
+      <c r="G34" t="s">
+        <v>62</v>
+      </c>
+      <c r="H34" s="1">
+        <v>44833.857071759259</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>71</v>
+      </c>
+      <c r="E35" t="s">
+        <v>72</v>
+      </c>
+      <c r="G35" t="s">
+        <v>62</v>
+      </c>
+      <c r="H35" s="1">
+        <v>44833.857129629629</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>73</v>
+      </c>
+      <c r="E36" t="s">
+        <v>74</v>
+      </c>
+      <c r="G36" t="s">
+        <v>62</v>
+      </c>
+      <c r="H36" s="1">
+        <v>44833.857187499998</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>75</v>
+      </c>
+      <c r="E37" t="s">
+        <v>76</v>
+      </c>
+      <c r="G37" t="s">
+        <v>62</v>
+      </c>
+      <c r="H37" s="1">
+        <v>44833.857245370367</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>77</v>
+      </c>
+      <c r="E38" t="s">
+        <v>78</v>
+      </c>
+      <c r="G38" t="s">
+        <v>62</v>
+      </c>
+      <c r="H38" s="1">
+        <v>44833.857581018521</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>79</v>
+      </c>
+      <c r="E39" t="s">
+        <v>80</v>
+      </c>
+      <c r="G39" t="s">
+        <v>62</v>
+      </c>
+      <c r="H39" s="1">
+        <v>44833.857638888891</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>81</v>
+      </c>
+      <c r="E40" t="s">
+        <v>82</v>
+      </c>
+      <c r="G40" t="s">
+        <v>62</v>
+      </c>
+      <c r="H40" s="1">
+        <v>44833.85769675926</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>83</v>
+      </c>
+      <c r="E41" t="s">
+        <v>84</v>
+      </c>
+      <c r="G41" t="s">
+        <v>62</v>
+      </c>
+      <c r="H41" s="1">
+        <v>44833.857754629629</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>85</v>
+      </c>
+      <c r="E42" t="s">
+        <v>86</v>
+      </c>
+      <c r="G42" t="s">
+        <v>62</v>
+      </c>
+      <c r="H42" s="1">
+        <v>44833.857812499999</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>87</v>
+      </c>
+      <c r="E43" t="s">
+        <v>88</v>
+      </c>
+      <c r="G43" t="s">
+        <v>62</v>
+      </c>
+      <c r="H43" s="1">
+        <v>44833.857870370368</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>89</v>
+      </c>
+      <c r="E44" t="s">
+        <v>90</v>
+      </c>
+      <c r="G44" t="s">
+        <v>62</v>
+      </c>
+      <c r="H44" s="1">
+        <v>44833.857928240737</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>91</v>
+      </c>
+      <c r="E45" t="s">
+        <v>92</v>
+      </c>
+      <c r="G45" t="s">
+        <v>62</v>
+      </c>
+      <c r="H45" s="1">
+        <v>44833.857986111114</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>93</v>
+      </c>
+      <c r="E46" t="s">
+        <v>94</v>
+      </c>
+      <c r="G46" t="s">
+        <v>62</v>
+      </c>
+      <c r="H46" s="1">
+        <v>44833.858043981483</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>95</v>
+      </c>
+      <c r="E47" t="s">
+        <v>96</v>
+      </c>
+      <c r="G47" t="s">
+        <v>62</v>
+      </c>
+      <c r="H47" s="1">
+        <v>44833.858101851853</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>97</v>
+      </c>
+      <c r="E48" t="s">
+        <v>98</v>
+      </c>
+      <c r="G48" t="s">
+        <v>62</v>
+      </c>
+      <c r="H48" s="1">
+        <v>44833.858159722222</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>99</v>
+      </c>
+      <c r="E49" t="s">
+        <v>100</v>
+      </c>
+      <c r="G49" t="s">
+        <v>62</v>
+      </c>
+      <c r="H49" s="1">
+        <v>44833.858217592591</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>101</v>
+      </c>
+      <c r="E50" t="s">
+        <v>102</v>
+      </c>
+      <c r="G50" t="s">
+        <v>62</v>
+      </c>
+      <c r="H50" s="1">
+        <v>44833.858275462961</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>103</v>
+      </c>
+      <c r="E51" t="s">
+        <v>104</v>
+      </c>
+      <c r="G51" t="s">
+        <v>62</v>
+      </c>
+      <c r="H51" s="1">
+        <v>44833.85833333333</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>105</v>
+      </c>
+      <c r="E52" t="s">
+        <v>106</v>
+      </c>
+      <c r="G52" t="s">
+        <v>62</v>
+      </c>
+      <c r="H52" s="1">
+        <v>44833.858391203707</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>107</v>
+      </c>
+      <c r="E53" t="s">
+        <v>108</v>
+      </c>
+      <c r="G53" t="s">
+        <v>62</v>
+      </c>
+      <c r="H53" s="1">
+        <v>44833.858449074076</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>109</v>
+      </c>
+      <c r="E54" t="s">
+        <v>110</v>
+      </c>
+      <c r="G54" t="s">
+        <v>62</v>
+      </c>
+      <c r="H54" s="1">
+        <v>44833.858506944445</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>111</v>
+      </c>
+      <c r="E55" t="s">
+        <v>112</v>
+      </c>
+      <c r="G55" t="s">
+        <v>62</v>
+      </c>
+      <c r="H55" s="1">
+        <v>44833.858564814815</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>113</v>
+      </c>
+      <c r="E56" t="s">
+        <v>114</v>
+      </c>
+      <c r="G56" t="s">
+        <v>62</v>
+      </c>
+      <c r="H56" s="1">
+        <v>44833.858622685184</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>115</v>
+      </c>
+      <c r="E57" t="s">
+        <v>116</v>
+      </c>
+      <c r="G57" t="s">
+        <v>62</v>
+      </c>
+      <c r="H57" s="1">
+        <v>44833.858680555553</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>117</v>
+      </c>
+      <c r="E58" t="s">
+        <v>118</v>
+      </c>
+      <c r="G58" t="s">
+        <v>62</v>
+      </c>
+      <c r="H58" s="1">
+        <v>44833.858738425923</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>119</v>
+      </c>
+      <c r="E59" t="s">
+        <v>120</v>
+      </c>
+      <c r="G59" t="s">
+        <v>62</v>
+      </c>
+      <c r="H59" s="1">
+        <v>44833.858796296299</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>121</v>
+      </c>
+      <c r="E60" t="s">
+        <v>122</v>
+      </c>
+      <c r="G60" t="s">
+        <v>62</v>
+      </c>
+      <c r="H60" s="1">
+        <v>44833.858854166669</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>123</v>
+      </c>
+      <c r="E61" t="s">
+        <v>124</v>
+      </c>
+      <c r="G61" t="s">
+        <v>62</v>
+      </c>
+      <c r="H61" s="1">
+        <v>44833.858912037038</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>125</v>
+      </c>
+      <c r="E62" t="s">
+        <v>126</v>
+      </c>
+      <c r="G62" t="s">
+        <v>62</v>
+      </c>
+      <c r="H62" s="1">
+        <v>44833.858969907407</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>127</v>
+      </c>
+      <c r="E63" t="s">
+        <v>128</v>
+      </c>
+      <c r="G63" t="s">
+        <v>62</v>
+      </c>
+      <c r="H63" s="1">
+        <v>44833.859027777777</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>129</v>
+      </c>
+      <c r="E64" t="s">
+        <v>130</v>
+      </c>
+      <c r="G64" t="s">
+        <v>62</v>
+      </c>
+      <c r="H64" s="1">
+        <v>44833.859085648146</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>131</v>
+      </c>
+      <c r="E65" t="s">
+        <v>132</v>
+      </c>
+      <c r="G65" t="s">
+        <v>62</v>
+      </c>
+      <c r="H65" s="1">
+        <v>44833.859143518515</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>133</v>
+      </c>
+      <c r="E66" t="s">
+        <v>134</v>
+      </c>
+      <c r="G66" t="s">
+        <v>62</v>
+      </c>
+      <c r="H66" s="1">
+        <v>44833.859189814815</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>163</v>
+      </c>
+      <c r="B67" t="s">
+        <v>19</v>
+      </c>
+      <c r="C67" t="s">
+        <v>12</v>
+      </c>
+      <c r="D67" t="s">
+        <v>45</v>
+      </c>
+      <c r="E67" t="s">
+        <v>164</v>
+      </c>
+      <c r="F67" s="1">
+        <v>44833.882372685184</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>165</v>
+      </c>
+      <c r="B68" t="s">
+        <v>19</v>
+      </c>
+      <c r="C68" t="s">
+        <v>12</v>
+      </c>
+      <c r="D68" t="s">
+        <v>26</v>
+      </c>
+      <c r="E68" t="s">
+        <v>166</v>
+      </c>
+      <c r="F68" s="1">
+        <v>44833.882638888892</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>167</v>
+      </c>
+      <c r="B69" t="s">
+        <v>19</v>
+      </c>
+      <c r="C69" t="s">
+        <v>12</v>
+      </c>
+      <c r="D69" t="s">
+        <v>31</v>
+      </c>
+      <c r="E69" t="s">
+        <v>168</v>
+      </c>
+      <c r="F69" s="1">
+        <v>44833.882708333331</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>169</v>
+      </c>
+      <c r="B70" t="s">
+        <v>19</v>
+      </c>
+      <c r="C70" t="s">
+        <v>12</v>
+      </c>
+      <c r="D70" t="s">
+        <v>31</v>
+      </c>
+      <c r="E70" t="s">
+        <v>170</v>
+      </c>
+      <c r="F70" s="1">
+        <v>44833.882777777777</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>171</v>
+      </c>
+      <c r="B71" t="s">
+        <v>19</v>
+      </c>
+      <c r="C71" t="s">
+        <v>12</v>
+      </c>
+      <c r="D71" t="s">
+        <v>31</v>
+      </c>
+      <c r="E71" t="s">
+        <v>172</v>
+      </c>
+      <c r="F71" s="1">
+        <v>44833.882835648146</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>173</v>
+      </c>
+      <c r="B72" t="s">
+        <v>19</v>
+      </c>
+      <c r="C72" t="s">
+        <v>12</v>
+      </c>
+      <c r="D72" t="s">
+        <v>26</v>
+      </c>
+      <c r="E72" t="s">
+        <v>174</v>
+      </c>
+      <c r="F72" s="1">
+        <v>44833.883113425924</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>175</v>
+      </c>
+      <c r="B73" t="s">
+        <v>19</v>
+      </c>
+      <c r="C73" t="s">
+        <v>12</v>
+      </c>
+      <c r="D73" t="s">
+        <v>31</v>
+      </c>
+      <c r="E73" t="s">
+        <v>176</v>
+      </c>
+      <c r="F73" s="1">
+        <v>44833.88318287037</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>177</v>
+      </c>
+      <c r="B74" t="s">
+        <v>19</v>
+      </c>
+      <c r="C74" t="s">
+        <v>12</v>
+      </c>
+      <c r="D74" t="s">
+        <v>26</v>
+      </c>
+      <c r="E74" t="s">
+        <v>178</v>
+      </c>
+      <c r="F74" s="1">
+        <v>44833.883449074077</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>179</v>
+      </c>
+      <c r="B75" t="s">
+        <v>19</v>
+      </c>
+      <c r="C75" t="s">
+        <v>12</v>
+      </c>
+      <c r="D75" t="s">
+        <v>31</v>
+      </c>
+      <c r="E75" t="s">
+        <v>180</v>
+      </c>
+      <c r="F75" s="1">
+        <v>44833.883518518516</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>181</v>
+      </c>
+      <c r="B76" t="s">
+        <v>20</v>
+      </c>
+      <c r="C76" t="s">
+        <v>12</v>
+      </c>
+      <c r="D76" t="s">
+        <v>31</v>
+      </c>
+      <c r="E76" t="s">
+        <v>182</v>
+      </c>
+      <c r="F76" s="1">
+        <v>44833.884085648147</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>183</v>
+      </c>
+      <c r="B77" t="s">
+        <v>20</v>
+      </c>
+      <c r="C77" t="s">
+        <v>12</v>
+      </c>
+      <c r="D77" t="s">
+        <v>26</v>
+      </c>
+      <c r="E77" t="s">
+        <v>184</v>
+      </c>
+      <c r="F77" s="1">
+        <v>44833.884351851855</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>185</v>
+      </c>
+      <c r="B78" t="s">
+        <v>20</v>
+      </c>
+      <c r="C78" t="s">
+        <v>12</v>
+      </c>
+      <c r="D78" t="s">
+        <v>31</v>
+      </c>
+      <c r="E78" t="s">
+        <v>186</v>
+      </c>
+      <c r="F78" s="1">
+        <v>44833.884421296294</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>187</v>
+      </c>
+      <c r="B79" t="s">
+        <v>20</v>
+      </c>
+      <c r="C79" t="s">
+        <v>12</v>
+      </c>
+      <c r="D79" t="s">
+        <v>31</v>
+      </c>
+      <c r="E79" t="s">
+        <v>188</v>
+      </c>
+      <c r="F79" s="1">
+        <v>44833.88449074074</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>189</v>
+      </c>
+      <c r="B80" t="s">
+        <v>20</v>
+      </c>
+      <c r="C80" t="s">
+        <v>12</v>
+      </c>
+      <c r="D80" t="s">
+        <v>31</v>
+      </c>
+      <c r="E80" t="s">
+        <v>190</v>
+      </c>
+      <c r="F80" s="1">
+        <v>44833.884560185186</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>191</v>
+      </c>
+      <c r="B81" t="s">
+        <v>20</v>
+      </c>
+      <c r="C81" t="s">
+        <v>12</v>
+      </c>
+      <c r="D81" t="s">
+        <v>26</v>
+      </c>
+      <c r="E81" t="s">
+        <v>192</v>
+      </c>
+      <c r="F81" s="1">
+        <v>44833.884814814817</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>193</v>
+      </c>
+      <c r="B82" t="s">
+        <v>20</v>
+      </c>
+      <c r="C82" t="s">
+        <v>12</v>
+      </c>
+      <c r="D82" t="s">
+        <v>31</v>
+      </c>
+      <c r="E82" t="s">
+        <v>194</v>
+      </c>
+      <c r="F82" s="1">
+        <v>44833.884884259256</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>195</v>
+      </c>
+      <c r="B83" t="s">
+        <v>20</v>
+      </c>
+      <c r="C83" t="s">
+        <v>12</v>
+      </c>
+      <c r="D83" t="s">
+        <v>26</v>
+      </c>
+      <c r="E83" t="s">
+        <v>196</v>
+      </c>
+      <c r="F83" s="1">
+        <v>44833.885150462964</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>197</v>
+      </c>
+      <c r="B84" t="s">
+        <v>20</v>
+      </c>
+      <c r="C84" t="s">
+        <v>12</v>
+      </c>
+      <c r="D84" t="s">
+        <v>45</v>
+      </c>
+      <c r="E84" t="s">
+        <v>198</v>
+      </c>
+      <c r="F84" s="1">
+        <v>44833.885833333334</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>199</v>
+      </c>
+      <c r="B85" t="s">
+        <v>20</v>
+      </c>
+      <c r="C85" t="s">
+        <v>12</v>
+      </c>
+      <c r="D85" t="s">
+        <v>26</v>
+      </c>
+      <c r="E85" t="s">
+        <v>200</v>
+      </c>
+      <c r="F85" s="1">
+        <v>44833.886087962965</v>
       </c>
     </row>
   </sheetData>

--- a/Docs/Prashant Mewada.xlsx
+++ b/Docs/Prashant Mewada.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25629"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Prashant\Documents\UiPath\LinkedInBot\Docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDDBD838-739E-4CFE-813B-CAC03A4D3226}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E22547B-EB89-4BFB-88E3-F27CAAFA2F61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4035" yWindow="3840" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3345" yWindow="3150" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="403" uniqueCount="201">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="475" uniqueCount="229">
   <si>
     <t>Name</t>
   </si>
@@ -630,6 +630,90 @@
   </si>
   <si>
     <t>https://www.linkedin.com/in/mamta-nanda-0a9b7a23a</t>
+  </si>
+  <si>
+    <t>Jyothi Pillai</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/jyothi-pillai-959194238</t>
+  </si>
+  <si>
+    <t>Suvitha Karnan</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/suvitha-karnan-9bb41815b</t>
+  </si>
+  <si>
+    <t>Dishaa B</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/dishaa-b-689638250</t>
+  </si>
+  <si>
+    <t>Neha Verma</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/neha-verma-069533143</t>
+  </si>
+  <si>
+    <t>Heena M.</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/heena-m-88b10223a</t>
+  </si>
+  <si>
+    <t>Suresh Matam</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/suresh-matam-a3193b240</t>
+  </si>
+  <si>
+    <t>Thejaswini BG</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/thejaswini-bg-b2463a214</t>
+  </si>
+  <si>
+    <t>Parul Agarwal</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/parulka</t>
+  </si>
+  <si>
+    <t>Kavita Naik</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/kavita-naik-6b8558239</t>
+  </si>
+  <si>
+    <t>Deepti Trivedi Joshi</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/deepti-trivedi-joshi-004674247</t>
+  </si>
+  <si>
+    <t>Nawaz Daai</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/nawaz-daai-193a21246</t>
+  </si>
+  <si>
+    <t>Zoram L.</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/zoram-l-942330247</t>
+  </si>
+  <si>
+    <t>Yashaswi Gowda</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/yashaswi-gowda-a52a55241</t>
+  </si>
+  <si>
+    <t>Suresh Pudari</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/suresh-pudari-234605248</t>
   </si>
 </sst>
 </file>
@@ -951,7 +1035,7 @@
   <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="F5" sqref="F5:F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1077,7 +1161,7 @@
         <v>44833.883576388886</v>
       </c>
       <c r="F6" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -1097,7 +1181,7 @@
         <v>44833.88616898148</v>
       </c>
       <c r="F7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
@@ -1110,6 +1194,15 @@
       <c r="C8" t="s">
         <v>12</v>
       </c>
+      <c r="D8">
+        <v>2</v>
+      </c>
+      <c r="E8" s="1">
+        <v>44833.982766203706</v>
+      </c>
+      <c r="F8" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
@@ -1120,6 +1213,15 @@
       </c>
       <c r="C9" t="s">
         <v>12</v>
+      </c>
+      <c r="D9">
+        <v>2</v>
+      </c>
+      <c r="E9" s="1">
+        <v>44833.984293981484</v>
+      </c>
+      <c r="F9" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
@@ -1141,7 +1243,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:H85"/>
+  <dimension ref="A1:H99"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2644,6 +2746,286 @@
       </c>
       <c r="F85" s="1">
         <v>44833.886087962965</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>201</v>
+      </c>
+      <c r="B86" t="s">
+        <v>21</v>
+      </c>
+      <c r="C86" t="s">
+        <v>12</v>
+      </c>
+      <c r="D86" t="s">
+        <v>26</v>
+      </c>
+      <c r="E86" t="s">
+        <v>202</v>
+      </c>
+      <c r="F86" s="1">
+        <v>44833.981099537035</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>203</v>
+      </c>
+      <c r="B87" t="s">
+        <v>21</v>
+      </c>
+      <c r="C87" t="s">
+        <v>12</v>
+      </c>
+      <c r="D87" t="s">
+        <v>31</v>
+      </c>
+      <c r="E87" t="s">
+        <v>204</v>
+      </c>
+      <c r="F87" s="1">
+        <v>44833.981168981481</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>205</v>
+      </c>
+      <c r="B88" t="s">
+        <v>21</v>
+      </c>
+      <c r="C88" t="s">
+        <v>12</v>
+      </c>
+      <c r="D88" t="s">
+        <v>45</v>
+      </c>
+      <c r="E88" t="s">
+        <v>206</v>
+      </c>
+      <c r="F88" s="1">
+        <v>44833.981493055559</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>207</v>
+      </c>
+      <c r="B89" t="s">
+        <v>21</v>
+      </c>
+      <c r="C89" t="s">
+        <v>12</v>
+      </c>
+      <c r="D89" t="s">
+        <v>26</v>
+      </c>
+      <c r="E89" t="s">
+        <v>208</v>
+      </c>
+      <c r="F89" s="1">
+        <v>44833.981817129628</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>209</v>
+      </c>
+      <c r="B90" t="s">
+        <v>21</v>
+      </c>
+      <c r="C90" t="s">
+        <v>12</v>
+      </c>
+      <c r="D90" t="s">
+        <v>31</v>
+      </c>
+      <c r="E90" t="s">
+        <v>210</v>
+      </c>
+      <c r="F90" s="1">
+        <v>44833.981886574074</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>211</v>
+      </c>
+      <c r="B91" t="s">
+        <v>21</v>
+      </c>
+      <c r="C91" t="s">
+        <v>12</v>
+      </c>
+      <c r="D91" t="s">
+        <v>26</v>
+      </c>
+      <c r="E91" t="s">
+        <v>212</v>
+      </c>
+      <c r="F91" s="1">
+        <v>44833.982210648152</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>213</v>
+      </c>
+      <c r="B92" t="s">
+        <v>21</v>
+      </c>
+      <c r="C92" t="s">
+        <v>12</v>
+      </c>
+      <c r="D92" t="s">
+        <v>26</v>
+      </c>
+      <c r="E92" t="s">
+        <v>214</v>
+      </c>
+      <c r="F92" s="1">
+        <v>44833.982534722221</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>215</v>
+      </c>
+      <c r="B93" t="s">
+        <v>21</v>
+      </c>
+      <c r="C93" t="s">
+        <v>12</v>
+      </c>
+      <c r="D93" t="s">
+        <v>31</v>
+      </c>
+      <c r="E93" t="s">
+        <v>216</v>
+      </c>
+      <c r="F93" s="1">
+        <v>44833.982604166667</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>217</v>
+      </c>
+      <c r="B94" t="s">
+        <v>21</v>
+      </c>
+      <c r="C94" t="s">
+        <v>12</v>
+      </c>
+      <c r="D94" t="s">
+        <v>31</v>
+      </c>
+      <c r="E94" t="s">
+        <v>218</v>
+      </c>
+      <c r="F94" s="1">
+        <v>44833.982662037037</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>219</v>
+      </c>
+      <c r="B95" t="s">
+        <v>22</v>
+      </c>
+      <c r="C95" t="s">
+        <v>12</v>
+      </c>
+      <c r="D95" t="s">
+        <v>31</v>
+      </c>
+      <c r="E95" t="s">
+        <v>220</v>
+      </c>
+      <c r="F95" s="1">
+        <v>44833.983194444445</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>221</v>
+      </c>
+      <c r="B96" t="s">
+        <v>22</v>
+      </c>
+      <c r="C96" t="s">
+        <v>12</v>
+      </c>
+      <c r="D96" t="s">
+        <v>45</v>
+      </c>
+      <c r="E96" t="s">
+        <v>222</v>
+      </c>
+      <c r="F96" s="1">
+        <v>44833.983518518522</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>223</v>
+      </c>
+      <c r="B97" t="s">
+        <v>22</v>
+      </c>
+      <c r="C97" t="s">
+        <v>12</v>
+      </c>
+      <c r="D97" t="s">
+        <v>31</v>
+      </c>
+      <c r="E97" t="s">
+        <v>224</v>
+      </c>
+      <c r="F97" s="1">
+        <v>44833.983576388891</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>225</v>
+      </c>
+      <c r="B98" t="s">
+        <v>22</v>
+      </c>
+      <c r="C98" t="s">
+        <v>12</v>
+      </c>
+      <c r="D98" t="s">
+        <v>26</v>
+      </c>
+      <c r="E98" t="s">
+        <v>226</v>
+      </c>
+      <c r="F98" s="1">
+        <v>44833.983900462961</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>227</v>
+      </c>
+      <c r="B99" t="s">
+        <v>22</v>
+      </c>
+      <c r="C99" t="s">
+        <v>12</v>
+      </c>
+      <c r="D99" t="s">
+        <v>26</v>
+      </c>
+      <c r="E99" t="s">
+        <v>228</v>
+      </c>
+      <c r="F99" s="1">
+        <v>44833.984224537038</v>
       </c>
     </row>
   </sheetData>

--- a/Docs/Prashant Mewada.xlsx
+++ b/Docs/Prashant Mewada.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Prashant\Documents\UiPath\LinkedInBot\Docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E22547B-EB89-4BFB-88E3-F27CAAFA2F61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F3EDA1B-7C03-43BE-B2A7-850547FEBF64}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3345" yWindow="3150" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="475" uniqueCount="229">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="269">
   <si>
     <t>Name</t>
   </si>
@@ -714,6 +714,126 @@
   </si>
   <si>
     <t>https://www.linkedin.com/in/suresh-pudari-234605248</t>
+  </si>
+  <si>
+    <t>Arohi Mathur</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/arohi-mathur-21a5987b</t>
+  </si>
+  <si>
+    <t>Ramandeep kaur</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/ramanboparai</t>
+  </si>
+  <si>
+    <t>Tejaswi Das</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/tejaswidas</t>
+  </si>
+  <si>
+    <t>Shilpa Khadatkar</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/shilpa-khadatkar-3446847</t>
+  </si>
+  <si>
+    <t>Mohamed S.</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/mohamed-masood</t>
+  </si>
+  <si>
+    <t>Supriya E</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/supriya-e-194315235</t>
+  </si>
+  <si>
+    <t>Lokesh R</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/lokesh-r-130106192</t>
+  </si>
+  <si>
+    <t>Gopal Namdeo</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/gopal-namdeo-4625275a</t>
+  </si>
+  <si>
+    <t>Sashi Damodharan</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/sashi-damodharan-11744338</t>
+  </si>
+  <si>
+    <t>Manasi Ghosh</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/manasi-ghosh-1b5841197</t>
+  </si>
+  <si>
+    <t>Naveen s</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/naveen-s-87462a159</t>
+  </si>
+  <si>
+    <t>Aruna P.</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/aruna-p-876817158</t>
+  </si>
+  <si>
+    <t>Sudha :)</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/sudha-9858a858</t>
+  </si>
+  <si>
+    <t>Anuj Mishra</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/anuj-mishra-985257219</t>
+  </si>
+  <si>
+    <t>Panduga Parameshwari</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/panduga-parameshwari-3235321b6</t>
+  </si>
+  <si>
+    <t>Pooja Singh</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/pooja-singh-92500b137</t>
+  </si>
+  <si>
+    <t>Sugura Fathima</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/sugura-fathima-30a829169</t>
+  </si>
+  <si>
+    <t>Madhu S V</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/madhu-s-v-b930a2228</t>
+  </si>
+  <si>
+    <t>Ashwini Wilson</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/ashwini-wilson</t>
+  </si>
+  <si>
+    <t>Nayana v</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/nayana-v-40a6491b4</t>
   </si>
 </sst>
 </file>
@@ -1035,7 +1155,7 @@
   <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5:F7"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1095,10 +1215,10 @@
         <v>12</v>
       </c>
       <c r="D3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E3" s="1">
-        <v>44830.43886574074</v>
+        <v>44838.008356481485</v>
       </c>
       <c r="F3" t="s">
         <v>15</v>
@@ -1201,7 +1321,7 @@
         <v>44833.982766203706</v>
       </c>
       <c r="F8" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
@@ -1221,7 +1341,7 @@
         <v>44833.984293981484</v>
       </c>
       <c r="F9" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
@@ -1233,6 +1353,15 @@
       </c>
       <c r="C10" t="s">
         <v>12</v>
+      </c>
+      <c r="D10">
+        <v>2</v>
+      </c>
+      <c r="E10" s="1">
+        <v>44838.011990740742</v>
+      </c>
+      <c r="F10" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>
@@ -1243,9 +1372,9 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:H99"/>
+  <dimension ref="A1:H119"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A94" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -3026,6 +3155,406 @@
       </c>
       <c r="F99" s="1">
         <v>44833.984224537038</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>229</v>
+      </c>
+      <c r="B100" t="s">
+        <v>11</v>
+      </c>
+      <c r="C100" t="s">
+        <v>12</v>
+      </c>
+      <c r="D100" t="s">
+        <v>31</v>
+      </c>
+      <c r="E100" t="s">
+        <v>230</v>
+      </c>
+      <c r="F100" s="1">
+        <v>44838.006655092591</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>231</v>
+      </c>
+      <c r="B101" t="s">
+        <v>11</v>
+      </c>
+      <c r="C101" t="s">
+        <v>12</v>
+      </c>
+      <c r="D101" t="s">
+        <v>45</v>
+      </c>
+      <c r="E101" t="s">
+        <v>232</v>
+      </c>
+      <c r="F101" s="1">
+        <v>44838.006979166668</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>233</v>
+      </c>
+      <c r="B102" t="s">
+        <v>11</v>
+      </c>
+      <c r="C102" t="s">
+        <v>12</v>
+      </c>
+      <c r="D102" t="s">
+        <v>31</v>
+      </c>
+      <c r="E102" t="s">
+        <v>234</v>
+      </c>
+      <c r="F102" s="1">
+        <v>44838.007048611114</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>235</v>
+      </c>
+      <c r="B103" t="s">
+        <v>11</v>
+      </c>
+      <c r="C103" t="s">
+        <v>12</v>
+      </c>
+      <c r="D103" t="s">
+        <v>31</v>
+      </c>
+      <c r="E103" t="s">
+        <v>236</v>
+      </c>
+      <c r="F103" s="1">
+        <v>44838.007106481484</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>237</v>
+      </c>
+      <c r="B104" t="s">
+        <v>11</v>
+      </c>
+      <c r="C104" t="s">
+        <v>12</v>
+      </c>
+      <c r="D104" t="s">
+        <v>31</v>
+      </c>
+      <c r="E104" t="s">
+        <v>238</v>
+      </c>
+      <c r="F104" s="1">
+        <v>44838.007175925923</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>239</v>
+      </c>
+      <c r="B105" t="s">
+        <v>11</v>
+      </c>
+      <c r="C105" t="s">
+        <v>12</v>
+      </c>
+      <c r="D105" t="s">
+        <v>45</v>
+      </c>
+      <c r="E105" t="s">
+        <v>240</v>
+      </c>
+      <c r="F105" s="1">
+        <v>44838.0075</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
+        <v>241</v>
+      </c>
+      <c r="B106" t="s">
+        <v>11</v>
+      </c>
+      <c r="C106" t="s">
+        <v>12</v>
+      </c>
+      <c r="D106" t="s">
+        <v>26</v>
+      </c>
+      <c r="E106" t="s">
+        <v>242</v>
+      </c>
+      <c r="F106" s="1">
+        <v>44838.007824074077</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
+        <v>243</v>
+      </c>
+      <c r="B107" t="s">
+        <v>11</v>
+      </c>
+      <c r="C107" t="s">
+        <v>12</v>
+      </c>
+      <c r="D107" t="s">
+        <v>26</v>
+      </c>
+      <c r="E107" t="s">
+        <v>244</v>
+      </c>
+      <c r="F107" s="1">
+        <v>44838.008148148147</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A108" t="s">
+        <v>245</v>
+      </c>
+      <c r="B108" t="s">
+        <v>11</v>
+      </c>
+      <c r="C108" t="s">
+        <v>12</v>
+      </c>
+      <c r="D108" t="s">
+        <v>31</v>
+      </c>
+      <c r="E108" t="s">
+        <v>246</v>
+      </c>
+      <c r="F108" s="1">
+        <v>44838.008217592593</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
+        <v>247</v>
+      </c>
+      <c r="B109" t="s">
+        <v>11</v>
+      </c>
+      <c r="C109" t="s">
+        <v>12</v>
+      </c>
+      <c r="D109" t="s">
+        <v>31</v>
+      </c>
+      <c r="E109" t="s">
+        <v>248</v>
+      </c>
+      <c r="F109" s="1">
+        <v>44838.008275462962</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A110" t="s">
+        <v>249</v>
+      </c>
+      <c r="B110" t="s">
+        <v>23</v>
+      </c>
+      <c r="C110" t="s">
+        <v>12</v>
+      </c>
+      <c r="D110" t="s">
+        <v>31</v>
+      </c>
+      <c r="E110" t="s">
+        <v>250</v>
+      </c>
+      <c r="F110" s="1">
+        <v>44838.00886574074</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A111" t="s">
+        <v>251</v>
+      </c>
+      <c r="B111" t="s">
+        <v>23</v>
+      </c>
+      <c r="C111" t="s">
+        <v>12</v>
+      </c>
+      <c r="D111" t="s">
+        <v>26</v>
+      </c>
+      <c r="E111" t="s">
+        <v>252</v>
+      </c>
+      <c r="F111" s="1">
+        <v>44838.009571759256</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A112" t="s">
+        <v>253</v>
+      </c>
+      <c r="B112" t="s">
+        <v>23</v>
+      </c>
+      <c r="C112" t="s">
+        <v>12</v>
+      </c>
+      <c r="D112" t="s">
+        <v>31</v>
+      </c>
+      <c r="E112" t="s">
+        <v>254</v>
+      </c>
+      <c r="F112" s="1">
+        <v>44838.011458333334</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A113" t="s">
+        <v>255</v>
+      </c>
+      <c r="B113" t="s">
+        <v>23</v>
+      </c>
+      <c r="C113" t="s">
+        <v>12</v>
+      </c>
+      <c r="D113" t="s">
+        <v>31</v>
+      </c>
+      <c r="E113" t="s">
+        <v>256</v>
+      </c>
+      <c r="F113" s="1">
+        <v>44838.01152777778</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A114" t="s">
+        <v>257</v>
+      </c>
+      <c r="B114" t="s">
+        <v>23</v>
+      </c>
+      <c r="C114" t="s">
+        <v>12</v>
+      </c>
+      <c r="D114" t="s">
+        <v>31</v>
+      </c>
+      <c r="E114" t="s">
+        <v>258</v>
+      </c>
+      <c r="F114" s="1">
+        <v>44838.011597222219</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A115" t="s">
+        <v>259</v>
+      </c>
+      <c r="B115" t="s">
+        <v>23</v>
+      </c>
+      <c r="C115" t="s">
+        <v>12</v>
+      </c>
+      <c r="D115" t="s">
+        <v>31</v>
+      </c>
+      <c r="E115" t="s">
+        <v>260</v>
+      </c>
+      <c r="F115" s="1">
+        <v>44838.011666666665</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A116" t="s">
+        <v>261</v>
+      </c>
+      <c r="B116" t="s">
+        <v>23</v>
+      </c>
+      <c r="C116" t="s">
+        <v>12</v>
+      </c>
+      <c r="D116" t="s">
+        <v>31</v>
+      </c>
+      <c r="E116" t="s">
+        <v>262</v>
+      </c>
+      <c r="F116" s="1">
+        <v>44838.011724537035</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A117" t="s">
+        <v>263</v>
+      </c>
+      <c r="B117" t="s">
+        <v>23</v>
+      </c>
+      <c r="C117" t="s">
+        <v>12</v>
+      </c>
+      <c r="D117" t="s">
+        <v>31</v>
+      </c>
+      <c r="E117" t="s">
+        <v>264</v>
+      </c>
+      <c r="F117" s="1">
+        <v>44838.011793981481</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A118" t="s">
+        <v>265</v>
+      </c>
+      <c r="B118" t="s">
+        <v>23</v>
+      </c>
+      <c r="C118" t="s">
+        <v>12</v>
+      </c>
+      <c r="D118" t="s">
+        <v>31</v>
+      </c>
+      <c r="E118" t="s">
+        <v>266</v>
+      </c>
+      <c r="F118" s="1">
+        <v>44838.011863425927</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A119" t="s">
+        <v>267</v>
+      </c>
+      <c r="B119" t="s">
+        <v>23</v>
+      </c>
+      <c r="C119" t="s">
+        <v>12</v>
+      </c>
+      <c r="D119" t="s">
+        <v>31</v>
+      </c>
+      <c r="E119" t="s">
+        <v>268</v>
+      </c>
+      <c r="F119" s="1">
+        <v>44838.011921296296</v>
       </c>
     </row>
   </sheetData>

--- a/Docs/Prashant Mewada.xlsx
+++ b/Docs/Prashant Mewada.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Prashant\Documents\UiPath\LinkedInBot\Docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F3EDA1B-7C03-43BE-B2A7-850547FEBF64}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6567A271-5143-41CF-BC39-196067AEFF58}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3345" yWindow="3150" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3705" yWindow="4185" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="269">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="678" uniqueCount="311">
   <si>
     <t>Name</t>
   </si>
@@ -71,769 +71,895 @@
     <t>Active</t>
   </si>
   <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>technical recruiter</t>
+  </si>
+  <si>
+    <t>Human Resource</t>
+  </si>
+  <si>
+    <t>Keywords</t>
+  </si>
+  <si>
+    <t>HR Executive</t>
+  </si>
+  <si>
+    <t>Recruitment Specialist</t>
+  </si>
+  <si>
+    <t>IT recruiter</t>
+  </si>
+  <si>
+    <t>Information Technology recruiter</t>
+  </si>
+  <si>
+    <t>HR recruiter</t>
+  </si>
+  <si>
+    <t>DataTimestamp</t>
+  </si>
+  <si>
+    <t>Nikhita Singh</t>
+  </si>
+  <si>
+    <t>Message - Sent</t>
+  </si>
+  <si>
+    <t>preethi kumar</t>
+  </si>
+  <si>
+    <t>Message - Already Sent</t>
+  </si>
+  <si>
+    <t>Aishwarya BP</t>
+  </si>
+  <si>
+    <t>Shruthi Abbar</t>
+  </si>
+  <si>
+    <t>Connect - Sent</t>
+  </si>
+  <si>
+    <t>RIVIN MATHEW</t>
+  </si>
+  <si>
+    <t>Aarthi Raju</t>
+  </si>
+  <si>
+    <t>Smitha H</t>
+  </si>
+  <si>
+    <t>Sonal Ranjit</t>
+  </si>
+  <si>
+    <t>Parul Narayan</t>
+  </si>
+  <si>
+    <t>Natasha Castelino</t>
+  </si>
+  <si>
+    <t>Lalit ..</t>
+  </si>
+  <si>
+    <t>Kavya Shree</t>
+  </si>
+  <si>
+    <t>Shwetha S L</t>
+  </si>
+  <si>
+    <t>Pending - Already Sent</t>
+  </si>
+  <si>
+    <t>Harshith K</t>
+  </si>
+  <si>
+    <t>Hemant S</t>
+  </si>
+  <si>
+    <t>R Aarthi She/Her</t>
+  </si>
+  <si>
+    <t>Follow - Sent</t>
+  </si>
+  <si>
+    <t>Ankita Goel</t>
+  </si>
+  <si>
+    <t>Srinath M</t>
+  </si>
+  <si>
+    <t>Vidya hj</t>
+  </si>
+  <si>
+    <t>Anuraag Mandanna</t>
+  </si>
+  <si>
+    <t>Ramya D</t>
+  </si>
+  <si>
+    <t>Apeksha .</t>
+  </si>
+  <si>
+    <t>Samreen Jabbar</t>
+  </si>
+  <si>
+    <t>Astha Handa</t>
+  </si>
+  <si>
+    <t>Preethika gk</t>
+  </si>
+  <si>
+    <t>Sananda Basu</t>
+  </si>
+  <si>
+    <t>Luzanna Virgina Barretto</t>
+  </si>
+  <si>
+    <t>Athiba Syed</t>
+  </si>
+  <si>
+    <t>Withdrawn</t>
+  </si>
+  <si>
+    <t>WithdrawTimeStamp</t>
+  </si>
+  <si>
+    <t>Srinivasulu Neeruganti</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/srinivasulu-neeruganti-632386b/</t>
+  </si>
+  <si>
+    <t>Withdraw</t>
+  </si>
+  <si>
+    <t>Philomena Lincy</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/philomena-lincy-2b7a4610/</t>
+  </si>
+  <si>
+    <t>Antarikhya Deka</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/antarikhya-deka-ab0ba169/</t>
+  </si>
+  <si>
+    <t>Sangram Guha</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/sangram-guha-6ba27634/</t>
+  </si>
+  <si>
+    <t>Khushboo Sinha</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/khushboo-sinha-74252338/</t>
+  </si>
+  <si>
+    <t>Snigdha Mukherjee</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/snigdha-mukherjee-7998b4154/</t>
+  </si>
+  <si>
+    <t>Sandhya Tiwari</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/sandhya-tiwari-27838a56/</t>
+  </si>
+  <si>
+    <t>Soma Dutta</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/soma-dutta-b6b343194/</t>
+  </si>
+  <si>
+    <t>Revathi D.</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/revathi-d-64807a6/</t>
+  </si>
+  <si>
+    <t>Manushi Sharma</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/manushi-sharma-56923a120/</t>
+  </si>
+  <si>
+    <t>Vishnu Arumugam</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/vishnu-arumugam-a470216a/</t>
+  </si>
+  <si>
+    <t>Srushti Shah</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/srushtishah-leadership-hiring/</t>
+  </si>
+  <si>
+    <t>Apoorv Katiyar</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/apoorv-katiyar-82776118b/</t>
+  </si>
+  <si>
+    <t>Gangadhar Salimath</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/gangadharsalimath/</t>
+  </si>
+  <si>
+    <t>Rakhi Chadaga</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/rakhi-chadaga-a9539120/</t>
+  </si>
+  <si>
+    <t>Reuben R.</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/reubenrraj/</t>
+  </si>
+  <si>
+    <t>Mahjabin Fatma</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/mahjabinfatma/</t>
+  </si>
+  <si>
+    <t>Rubi Kumar</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/rubi-kumar-17a20242/</t>
+  </si>
+  <si>
+    <t>Steve Bulls ~ Skilled RPA and Excel VBA Programmer</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/steve-bulls/</t>
+  </si>
+  <si>
+    <t>Priya Rajput</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/priya-rajput-2729ba224/</t>
+  </si>
+  <si>
+    <t>Anisha Sahu</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/anishasahu96/</t>
+  </si>
+  <si>
+    <t>Payel Biswas</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/payel-biswas-17ab53119/</t>
+  </si>
+  <si>
+    <t>Harshitha Raju</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/harshitha-raju/</t>
+  </si>
+  <si>
+    <t>Kajal Dash</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/kajal-dash-7574a2103/</t>
+  </si>
+  <si>
+    <t>Chanchala Ugra</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/chanchala-ugra-a44029145/</t>
+  </si>
+  <si>
+    <t>Akashdeep Bhowal</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/akashdeep-bhowal-b43b51104/</t>
+  </si>
+  <si>
+    <t>AMULYA V R.</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/amulyavrao/</t>
+  </si>
+  <si>
+    <t>Niveditha Rao</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/niveditha-rao-b5b9881a3/</t>
+  </si>
+  <si>
+    <t>Trishita K.</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/trishita-k-9666891ab/</t>
+  </si>
+  <si>
+    <t>Prashanth Bharadwaj</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/prashanth-bharadwaj-7a67b950/</t>
+  </si>
+  <si>
+    <t>Cheruku Sabarish</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/cherukusabarish/</t>
+  </si>
+  <si>
+    <t>Samatha Krishna</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/samatha-krishna-91a3b3175/</t>
+  </si>
+  <si>
+    <t>Deepthi Nandina</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/deepthi-nandina-10226a164/</t>
+  </si>
+  <si>
+    <t>Nikitha Lingaraju</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/nikitha-lingaraju-966903172/</t>
+  </si>
+  <si>
+    <t>Khushbu Roy</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/khushbu-roy-2209/</t>
+  </si>
+  <si>
+    <t>Puja rajak</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/puja-rajak-98b14914a/</t>
+  </si>
+  <si>
+    <t>Kundan Yadav</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/kundan-yadav-6a490984/</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/nikhita-singh-a8423878</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/preethi-kumar-533603145</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/aishwarya-bp-37a059103</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/shruthi-abbar-47685a177</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/rivin-mathew-0a64b0135</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/aarthi-raju-792a0b197</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/smitha-h-3672a2155</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/sonal-ranjit-a77ba8164</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/parul-narayan-b551391a4</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/natasha-castelino-92590b7b</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/lalit-4bba7924a</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/kavyashreeav</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/shwetha-s-l-7904a924</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/harshith-k-455a3224b</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/hemant-s-0a1a481b7</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/aarthirecruitergoogle</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/ankita-goel-007ab5147</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/srinath-m-546651244</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/vidyahj</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/anuraag-mandanna-a06b75158</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/ramya-d-b7310b106</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/apeksha3</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/samreen-jabbar-220239172</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/asthahanda</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/preethika-gk-b60144140</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/sananda-basu-666a3358</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/luzanna-virgina-barretto-b170401a2</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/athiba-syed-432923176</t>
+  </si>
+  <si>
+    <t>Aiyappa B R</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/aiyappa-b-r-195a9b17</t>
+  </si>
+  <si>
+    <t>Monica Lokare</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/monica-lokare-9549a3146</t>
+  </si>
+  <si>
+    <t>Swetha Shivakumar</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/swetha-shivakumar-3284b213</t>
+  </si>
+  <si>
+    <t>Asha Rani D M</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/asha-rani-d-m-a070521b6</t>
+  </si>
+  <si>
+    <t>Sweta Yadav</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/iamswetayadav</t>
+  </si>
+  <si>
+    <t>Chitranshi Saxena</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/chitranshi-saxena-274b7015a</t>
+  </si>
+  <si>
+    <t>Keerthana Balasubramaniam</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/keerthana-balasubramaniam</t>
+  </si>
+  <si>
+    <t>Abhirami Sivan</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/abhirami-sivan-07822615b</t>
+  </si>
+  <si>
+    <t>Udaya Bhaskar</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/udayabhaskar</t>
+  </si>
+  <si>
+    <t>Debaroti Roy</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/debaroti-roy-b0a68479</t>
+  </si>
+  <si>
+    <t>Lekha Sree D</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/lekha-sree-d-77761724a</t>
+  </si>
+  <si>
+    <t>Abirami Manoharan</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/abirami-manoharan-a919bb196</t>
+  </si>
+  <si>
+    <t>Bhavana Arya</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/bhavana-arya-72515a170</t>
+  </si>
+  <si>
+    <t>Gayathri Anbumathi</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/gayathri-anbumathi-3a399423b</t>
+  </si>
+  <si>
+    <t>Akash T</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/akash-t-392897248</t>
+  </si>
+  <si>
+    <t>Ramya Chendaluru</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/ramya-chendaluru-a6383a153</t>
+  </si>
+  <si>
+    <t>Abishai c</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/abishai-c-721816246</t>
+  </si>
+  <si>
+    <t>Bhakti Choudhari</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/bhakti-choudhari-0b75b4247</t>
+  </si>
+  <si>
+    <t>Mamta Nanda</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/mamta-nanda-0a9b7a23a</t>
+  </si>
+  <si>
+    <t>Jyothi Pillai</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/jyothi-pillai-959194238</t>
+  </si>
+  <si>
+    <t>Suvitha Karnan</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/suvitha-karnan-9bb41815b</t>
+  </si>
+  <si>
+    <t>Dishaa B</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/dishaa-b-689638250</t>
+  </si>
+  <si>
+    <t>Neha Verma</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/neha-verma-069533143</t>
+  </si>
+  <si>
+    <t>Heena M.</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/heena-m-88b10223a</t>
+  </si>
+  <si>
+    <t>Suresh Matam</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/suresh-matam-a3193b240</t>
+  </si>
+  <si>
+    <t>Thejaswini BG</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/thejaswini-bg-b2463a214</t>
+  </si>
+  <si>
+    <t>Parul Agarwal</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/parulka</t>
+  </si>
+  <si>
+    <t>Kavita Naik</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/kavita-naik-6b8558239</t>
+  </si>
+  <si>
+    <t>Deepti Trivedi Joshi</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/deepti-trivedi-joshi-004674247</t>
+  </si>
+  <si>
+    <t>Nawaz Daai</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/nawaz-daai-193a21246</t>
+  </si>
+  <si>
+    <t>Zoram L.</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/zoram-l-942330247</t>
+  </si>
+  <si>
+    <t>Yashaswi Gowda</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/yashaswi-gowda-a52a55241</t>
+  </si>
+  <si>
+    <t>Suresh Pudari</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/suresh-pudari-234605248</t>
+  </si>
+  <si>
+    <t>Arohi Mathur</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/arohi-mathur-21a5987b</t>
+  </si>
+  <si>
+    <t>Ramandeep kaur</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/ramanboparai</t>
+  </si>
+  <si>
+    <t>Tejaswi Das</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/tejaswidas</t>
+  </si>
+  <si>
+    <t>Shilpa Khadatkar</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/shilpa-khadatkar-3446847</t>
+  </si>
+  <si>
+    <t>Mohamed S.</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/mohamed-masood</t>
+  </si>
+  <si>
+    <t>Supriya E</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/supriya-e-194315235</t>
+  </si>
+  <si>
+    <t>Lokesh R</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/lokesh-r-130106192</t>
+  </si>
+  <si>
+    <t>Gopal Namdeo</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/gopal-namdeo-4625275a</t>
+  </si>
+  <si>
+    <t>Sashi Damodharan</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/sashi-damodharan-11744338</t>
+  </si>
+  <si>
+    <t>Manasi Ghosh</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/manasi-ghosh-1b5841197</t>
+  </si>
+  <si>
+    <t>Naveen s</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/naveen-s-87462a159</t>
+  </si>
+  <si>
+    <t>Aruna P.</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/aruna-p-876817158</t>
+  </si>
+  <si>
+    <t>Sudha :)</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/sudha-9858a858</t>
+  </si>
+  <si>
+    <t>Anuj Mishra</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/anuj-mishra-985257219</t>
+  </si>
+  <si>
+    <t>Panduga Parameshwari</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/panduga-parameshwari-3235321b6</t>
+  </si>
+  <si>
+    <t>Pooja Singh</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/pooja-singh-92500b137</t>
+  </si>
+  <si>
+    <t>Sugura Fathima</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/sugura-fathima-30a829169</t>
+  </si>
+  <si>
+    <t>Madhu S V</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/madhu-s-v-b930a2228</t>
+  </si>
+  <si>
+    <t>Ashwini Wilson</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/ashwini-wilson</t>
+  </si>
+  <si>
+    <t>Nayana v</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/nayana-v-40a6491b4</t>
+  </si>
+  <si>
+    <t>Hiring talents</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> HR Associate</t>
+  </si>
+  <si>
     <t>Yes</t>
   </si>
   <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>technical recruiter</t>
-  </si>
-  <si>
-    <t>Human Resource</t>
-  </si>
-  <si>
-    <t>Keywords</t>
-  </si>
-  <si>
-    <t>HR Executive</t>
-  </si>
-  <si>
-    <t>Recruitment Specialist</t>
-  </si>
-  <si>
-    <t>IT recruiter</t>
-  </si>
-  <si>
-    <t>Information Technology recruiter</t>
-  </si>
-  <si>
-    <t>HR recruiter</t>
-  </si>
-  <si>
-    <t>DataTimestamp</t>
-  </si>
-  <si>
-    <t>Nikhita Singh</t>
-  </si>
-  <si>
-    <t>Message - Sent</t>
-  </si>
-  <si>
-    <t>preethi kumar</t>
-  </si>
-  <si>
-    <t>Message - Already Sent</t>
-  </si>
-  <si>
-    <t>Aishwarya BP</t>
-  </si>
-  <si>
-    <t>Shruthi Abbar</t>
-  </si>
-  <si>
-    <t>Connect - Sent</t>
-  </si>
-  <si>
-    <t>RIVIN MATHEW</t>
-  </si>
-  <si>
-    <t>Aarthi Raju</t>
-  </si>
-  <si>
-    <t>Smitha H</t>
-  </si>
-  <si>
-    <t>Sonal Ranjit</t>
-  </si>
-  <si>
-    <t>Parul Narayan</t>
-  </si>
-  <si>
-    <t>Natasha Castelino</t>
-  </si>
-  <si>
-    <t>Lalit ..</t>
-  </si>
-  <si>
-    <t>Kavya Shree</t>
-  </si>
-  <si>
-    <t>Shwetha S L</t>
-  </si>
-  <si>
-    <t>Pending - Already Sent</t>
-  </si>
-  <si>
-    <t>Harshith K</t>
-  </si>
-  <si>
-    <t>Hemant S</t>
-  </si>
-  <si>
-    <t>R Aarthi She/Her</t>
-  </si>
-  <si>
-    <t>Follow - Sent</t>
-  </si>
-  <si>
-    <t>Ankita Goel</t>
-  </si>
-  <si>
-    <t>Srinath M</t>
-  </si>
-  <si>
-    <t>Vidya hj</t>
-  </si>
-  <si>
-    <t>Anuraag Mandanna</t>
-  </si>
-  <si>
-    <t>Ramya D</t>
-  </si>
-  <si>
-    <t>Apeksha .</t>
-  </si>
-  <si>
-    <t>Samreen Jabbar</t>
-  </si>
-  <si>
-    <t>Astha Handa</t>
-  </si>
-  <si>
-    <t>Preethika gk</t>
-  </si>
-  <si>
-    <t>Sananda Basu</t>
-  </si>
-  <si>
-    <t>Luzanna Virgina Barretto</t>
-  </si>
-  <si>
-    <t>Athiba Syed</t>
-  </si>
-  <si>
-    <t>Withdrawn</t>
-  </si>
-  <si>
-    <t>WithdrawTimeStamp</t>
-  </si>
-  <si>
-    <t>Srinivasulu Neeruganti</t>
-  </si>
-  <si>
-    <t>https://www.linkedin.com/in/srinivasulu-neeruganti-632386b/</t>
-  </si>
-  <si>
-    <t>Withdraw</t>
-  </si>
-  <si>
-    <t>Philomena Lincy</t>
-  </si>
-  <si>
-    <t>https://www.linkedin.com/in/philomena-lincy-2b7a4610/</t>
-  </si>
-  <si>
-    <t>Antarikhya Deka</t>
-  </si>
-  <si>
-    <t>https://www.linkedin.com/in/antarikhya-deka-ab0ba169/</t>
-  </si>
-  <si>
-    <t>Sangram Guha</t>
-  </si>
-  <si>
-    <t>https://www.linkedin.com/in/sangram-guha-6ba27634/</t>
-  </si>
-  <si>
-    <t>Khushboo Sinha</t>
-  </si>
-  <si>
-    <t>https://www.linkedin.com/in/khushboo-sinha-74252338/</t>
-  </si>
-  <si>
-    <t>Snigdha Mukherjee</t>
-  </si>
-  <si>
-    <t>https://www.linkedin.com/in/snigdha-mukherjee-7998b4154/</t>
-  </si>
-  <si>
-    <t>Sandhya Tiwari</t>
-  </si>
-  <si>
-    <t>https://www.linkedin.com/in/sandhya-tiwari-27838a56/</t>
-  </si>
-  <si>
-    <t>Soma Dutta</t>
-  </si>
-  <si>
-    <t>https://www.linkedin.com/in/soma-dutta-b6b343194/</t>
-  </si>
-  <si>
-    <t>Revathi D.</t>
-  </si>
-  <si>
-    <t>https://www.linkedin.com/in/revathi-d-64807a6/</t>
-  </si>
-  <si>
-    <t>Manushi Sharma</t>
-  </si>
-  <si>
-    <t>https://www.linkedin.com/in/manushi-sharma-56923a120/</t>
-  </si>
-  <si>
-    <t>Vishnu Arumugam</t>
-  </si>
-  <si>
-    <t>https://www.linkedin.com/in/vishnu-arumugam-a470216a/</t>
-  </si>
-  <si>
-    <t>Srushti Shah</t>
-  </si>
-  <si>
-    <t>https://www.linkedin.com/in/srushtishah-leadership-hiring/</t>
-  </si>
-  <si>
-    <t>Apoorv Katiyar</t>
-  </si>
-  <si>
-    <t>https://www.linkedin.com/in/apoorv-katiyar-82776118b/</t>
-  </si>
-  <si>
-    <t>Gangadhar Salimath</t>
-  </si>
-  <si>
-    <t>https://www.linkedin.com/in/gangadharsalimath/</t>
-  </si>
-  <si>
-    <t>Rakhi Chadaga</t>
-  </si>
-  <si>
-    <t>https://www.linkedin.com/in/rakhi-chadaga-a9539120/</t>
-  </si>
-  <si>
-    <t>Reuben R.</t>
-  </si>
-  <si>
-    <t>https://www.linkedin.com/in/reubenrraj/</t>
-  </si>
-  <si>
-    <t>Mahjabin Fatma</t>
-  </si>
-  <si>
-    <t>https://www.linkedin.com/in/mahjabinfatma/</t>
-  </si>
-  <si>
-    <t>Rubi Kumar</t>
-  </si>
-  <si>
-    <t>https://www.linkedin.com/in/rubi-kumar-17a20242/</t>
-  </si>
-  <si>
-    <t>Steve Bulls ~ Skilled RPA and Excel VBA Programmer</t>
-  </si>
-  <si>
-    <t>https://www.linkedin.com/in/steve-bulls/</t>
-  </si>
-  <si>
-    <t>Priya Rajput</t>
-  </si>
-  <si>
-    <t>https://www.linkedin.com/in/priya-rajput-2729ba224/</t>
-  </si>
-  <si>
-    <t>Anisha Sahu</t>
-  </si>
-  <si>
-    <t>https://www.linkedin.com/in/anishasahu96/</t>
-  </si>
-  <si>
-    <t>Payel Biswas</t>
-  </si>
-  <si>
-    <t>https://www.linkedin.com/in/payel-biswas-17ab53119/</t>
-  </si>
-  <si>
-    <t>Harshitha Raju</t>
-  </si>
-  <si>
-    <t>https://www.linkedin.com/in/harshitha-raju/</t>
-  </si>
-  <si>
-    <t>Kajal Dash</t>
-  </si>
-  <si>
-    <t>https://www.linkedin.com/in/kajal-dash-7574a2103/</t>
-  </si>
-  <si>
-    <t>Chanchala Ugra</t>
-  </si>
-  <si>
-    <t>https://www.linkedin.com/in/chanchala-ugra-a44029145/</t>
-  </si>
-  <si>
-    <t>Akashdeep Bhowal</t>
-  </si>
-  <si>
-    <t>https://www.linkedin.com/in/akashdeep-bhowal-b43b51104/</t>
-  </si>
-  <si>
-    <t>AMULYA V R.</t>
-  </si>
-  <si>
-    <t>https://www.linkedin.com/in/amulyavrao/</t>
-  </si>
-  <si>
-    <t>Niveditha Rao</t>
-  </si>
-  <si>
-    <t>https://www.linkedin.com/in/niveditha-rao-b5b9881a3/</t>
-  </si>
-  <si>
-    <t>Trishita K.</t>
-  </si>
-  <si>
-    <t>https://www.linkedin.com/in/trishita-k-9666891ab/</t>
-  </si>
-  <si>
-    <t>Prashanth Bharadwaj</t>
-  </si>
-  <si>
-    <t>https://www.linkedin.com/in/prashanth-bharadwaj-7a67b950/</t>
-  </si>
-  <si>
-    <t>Cheruku Sabarish</t>
-  </si>
-  <si>
-    <t>https://www.linkedin.com/in/cherukusabarish/</t>
-  </si>
-  <si>
-    <t>Samatha Krishna</t>
-  </si>
-  <si>
-    <t>https://www.linkedin.com/in/samatha-krishna-91a3b3175/</t>
-  </si>
-  <si>
-    <t>Deepthi Nandina</t>
-  </si>
-  <si>
-    <t>https://www.linkedin.com/in/deepthi-nandina-10226a164/</t>
-  </si>
-  <si>
-    <t>Nikitha Lingaraju</t>
-  </si>
-  <si>
-    <t>https://www.linkedin.com/in/nikitha-lingaraju-966903172/</t>
-  </si>
-  <si>
-    <t>Khushbu Roy</t>
-  </si>
-  <si>
-    <t>https://www.linkedin.com/in/khushbu-roy-2209/</t>
-  </si>
-  <si>
-    <t>Puja rajak</t>
-  </si>
-  <si>
-    <t>https://www.linkedin.com/in/puja-rajak-98b14914a/</t>
-  </si>
-  <si>
-    <t>Kundan Yadav</t>
-  </si>
-  <si>
-    <t>https://www.linkedin.com/in/kundan-yadav-6a490984/</t>
-  </si>
-  <si>
-    <t>https://www.linkedin.com/in/nikhita-singh-a8423878</t>
-  </si>
-  <si>
-    <t>https://www.linkedin.com/in/preethi-kumar-533603145</t>
-  </si>
-  <si>
-    <t>https://www.linkedin.com/in/aishwarya-bp-37a059103</t>
-  </si>
-  <si>
-    <t>https://www.linkedin.com/in/shruthi-abbar-47685a177</t>
-  </si>
-  <si>
-    <t>https://www.linkedin.com/in/rivin-mathew-0a64b0135</t>
-  </si>
-  <si>
-    <t>https://www.linkedin.com/in/aarthi-raju-792a0b197</t>
-  </si>
-  <si>
-    <t>https://www.linkedin.com/in/smitha-h-3672a2155</t>
-  </si>
-  <si>
-    <t>https://www.linkedin.com/in/sonal-ranjit-a77ba8164</t>
-  </si>
-  <si>
-    <t>https://www.linkedin.com/in/parul-narayan-b551391a4</t>
-  </si>
-  <si>
-    <t>https://www.linkedin.com/in/natasha-castelino-92590b7b</t>
-  </si>
-  <si>
-    <t>https://www.linkedin.com/in/lalit-4bba7924a</t>
-  </si>
-  <si>
-    <t>https://www.linkedin.com/in/kavyashreeav</t>
-  </si>
-  <si>
-    <t>https://www.linkedin.com/in/shwetha-s-l-7904a924</t>
-  </si>
-  <si>
-    <t>https://www.linkedin.com/in/harshith-k-455a3224b</t>
-  </si>
-  <si>
-    <t>https://www.linkedin.com/in/hemant-s-0a1a481b7</t>
-  </si>
-  <si>
-    <t>https://www.linkedin.com/in/aarthirecruitergoogle</t>
-  </si>
-  <si>
-    <t>https://www.linkedin.com/in/ankita-goel-007ab5147</t>
-  </si>
-  <si>
-    <t>https://www.linkedin.com/in/srinath-m-546651244</t>
-  </si>
-  <si>
-    <t>https://www.linkedin.com/in/vidyahj</t>
-  </si>
-  <si>
-    <t>https://www.linkedin.com/in/anuraag-mandanna-a06b75158</t>
-  </si>
-  <si>
-    <t>https://www.linkedin.com/in/ramya-d-b7310b106</t>
-  </si>
-  <si>
-    <t>https://www.linkedin.com/in/apeksha3</t>
-  </si>
-  <si>
-    <t>https://www.linkedin.com/in/samreen-jabbar-220239172</t>
-  </si>
-  <si>
-    <t>https://www.linkedin.com/in/asthahanda</t>
-  </si>
-  <si>
-    <t>https://www.linkedin.com/in/preethika-gk-b60144140</t>
-  </si>
-  <si>
-    <t>https://www.linkedin.com/in/sananda-basu-666a3358</t>
-  </si>
-  <si>
-    <t>https://www.linkedin.com/in/luzanna-virgina-barretto-b170401a2</t>
-  </si>
-  <si>
-    <t>https://www.linkedin.com/in/athiba-syed-432923176</t>
-  </si>
-  <si>
-    <t>Aiyappa B R</t>
-  </si>
-  <si>
-    <t>https://www.linkedin.com/in/aiyappa-b-r-195a9b17</t>
-  </si>
-  <si>
-    <t>Monica Lokare</t>
-  </si>
-  <si>
-    <t>https://www.linkedin.com/in/monica-lokare-9549a3146</t>
-  </si>
-  <si>
-    <t>Swetha Shivakumar</t>
-  </si>
-  <si>
-    <t>https://www.linkedin.com/in/swetha-shivakumar-3284b213</t>
-  </si>
-  <si>
-    <t>Asha Rani D M</t>
-  </si>
-  <si>
-    <t>https://www.linkedin.com/in/asha-rani-d-m-a070521b6</t>
-  </si>
-  <si>
-    <t>Sweta Yadav</t>
-  </si>
-  <si>
-    <t>https://www.linkedin.com/in/iamswetayadav</t>
-  </si>
-  <si>
-    <t>Chitranshi Saxena</t>
-  </si>
-  <si>
-    <t>https://www.linkedin.com/in/chitranshi-saxena-274b7015a</t>
-  </si>
-  <si>
-    <t>Keerthana Balasubramaniam</t>
-  </si>
-  <si>
-    <t>https://www.linkedin.com/in/keerthana-balasubramaniam</t>
-  </si>
-  <si>
-    <t>Abhirami Sivan</t>
-  </si>
-  <si>
-    <t>https://www.linkedin.com/in/abhirami-sivan-07822615b</t>
-  </si>
-  <si>
-    <t>Udaya Bhaskar</t>
-  </si>
-  <si>
-    <t>https://www.linkedin.com/in/udayabhaskar</t>
-  </si>
-  <si>
-    <t>Debaroti Roy</t>
-  </si>
-  <si>
-    <t>https://www.linkedin.com/in/debaroti-roy-b0a68479</t>
-  </si>
-  <si>
-    <t>Lekha Sree D</t>
-  </si>
-  <si>
-    <t>https://www.linkedin.com/in/lekha-sree-d-77761724a</t>
-  </si>
-  <si>
-    <t>Abirami Manoharan</t>
-  </si>
-  <si>
-    <t>https://www.linkedin.com/in/abirami-manoharan-a919bb196</t>
-  </si>
-  <si>
-    <t>Bhavana Arya</t>
-  </si>
-  <si>
-    <t>https://www.linkedin.com/in/bhavana-arya-72515a170</t>
-  </si>
-  <si>
-    <t>Gayathri Anbumathi</t>
-  </si>
-  <si>
-    <t>https://www.linkedin.com/in/gayathri-anbumathi-3a399423b</t>
-  </si>
-  <si>
-    <t>Akash T</t>
-  </si>
-  <si>
-    <t>https://www.linkedin.com/in/akash-t-392897248</t>
-  </si>
-  <si>
-    <t>Ramya Chendaluru</t>
-  </si>
-  <si>
-    <t>https://www.linkedin.com/in/ramya-chendaluru-a6383a153</t>
-  </si>
-  <si>
-    <t>Abishai c</t>
-  </si>
-  <si>
-    <t>https://www.linkedin.com/in/abishai-c-721816246</t>
-  </si>
-  <si>
-    <t>Bhakti Choudhari</t>
-  </si>
-  <si>
-    <t>https://www.linkedin.com/in/bhakti-choudhari-0b75b4247</t>
-  </si>
-  <si>
-    <t>Mamta Nanda</t>
-  </si>
-  <si>
-    <t>https://www.linkedin.com/in/mamta-nanda-0a9b7a23a</t>
-  </si>
-  <si>
-    <t>Jyothi Pillai</t>
-  </si>
-  <si>
-    <t>https://www.linkedin.com/in/jyothi-pillai-959194238</t>
-  </si>
-  <si>
-    <t>Suvitha Karnan</t>
-  </si>
-  <si>
-    <t>https://www.linkedin.com/in/suvitha-karnan-9bb41815b</t>
-  </si>
-  <si>
-    <t>Dishaa B</t>
-  </si>
-  <si>
-    <t>https://www.linkedin.com/in/dishaa-b-689638250</t>
-  </si>
-  <si>
-    <t>Neha Verma</t>
-  </si>
-  <si>
-    <t>https://www.linkedin.com/in/neha-verma-069533143</t>
-  </si>
-  <si>
-    <t>Heena M.</t>
-  </si>
-  <si>
-    <t>https://www.linkedin.com/in/heena-m-88b10223a</t>
-  </si>
-  <si>
-    <t>Suresh Matam</t>
-  </si>
-  <si>
-    <t>https://www.linkedin.com/in/suresh-matam-a3193b240</t>
-  </si>
-  <si>
-    <t>Thejaswini BG</t>
-  </si>
-  <si>
-    <t>https://www.linkedin.com/in/thejaswini-bg-b2463a214</t>
-  </si>
-  <si>
-    <t>Parul Agarwal</t>
-  </si>
-  <si>
-    <t>https://www.linkedin.com/in/parulka</t>
-  </si>
-  <si>
-    <t>Kavita Naik</t>
-  </si>
-  <si>
-    <t>https://www.linkedin.com/in/kavita-naik-6b8558239</t>
-  </si>
-  <si>
-    <t>Deepti Trivedi Joshi</t>
-  </si>
-  <si>
-    <t>https://www.linkedin.com/in/deepti-trivedi-joshi-004674247</t>
-  </si>
-  <si>
-    <t>Nawaz Daai</t>
-  </si>
-  <si>
-    <t>https://www.linkedin.com/in/nawaz-daai-193a21246</t>
-  </si>
-  <si>
-    <t>Zoram L.</t>
-  </si>
-  <si>
-    <t>https://www.linkedin.com/in/zoram-l-942330247</t>
-  </si>
-  <si>
-    <t>Yashaswi Gowda</t>
-  </si>
-  <si>
-    <t>https://www.linkedin.com/in/yashaswi-gowda-a52a55241</t>
-  </si>
-  <si>
-    <t>Suresh Pudari</t>
-  </si>
-  <si>
-    <t>https://www.linkedin.com/in/suresh-pudari-234605248</t>
-  </si>
-  <si>
-    <t>Arohi Mathur</t>
-  </si>
-  <si>
-    <t>https://www.linkedin.com/in/arohi-mathur-21a5987b</t>
-  </si>
-  <si>
-    <t>Ramandeep kaur</t>
-  </si>
-  <si>
-    <t>https://www.linkedin.com/in/ramanboparai</t>
-  </si>
-  <si>
-    <t>Tejaswi Das</t>
-  </si>
-  <si>
-    <t>https://www.linkedin.com/in/tejaswidas</t>
-  </si>
-  <si>
-    <t>Shilpa Khadatkar</t>
-  </si>
-  <si>
-    <t>https://www.linkedin.com/in/shilpa-khadatkar-3446847</t>
-  </si>
-  <si>
-    <t>Mohamed S.</t>
-  </si>
-  <si>
-    <t>https://www.linkedin.com/in/mohamed-masood</t>
-  </si>
-  <si>
-    <t>Supriya E</t>
-  </si>
-  <si>
-    <t>https://www.linkedin.com/in/supriya-e-194315235</t>
-  </si>
-  <si>
-    <t>Lokesh R</t>
-  </si>
-  <si>
-    <t>https://www.linkedin.com/in/lokesh-r-130106192</t>
-  </si>
-  <si>
-    <t>Gopal Namdeo</t>
-  </si>
-  <si>
-    <t>https://www.linkedin.com/in/gopal-namdeo-4625275a</t>
-  </si>
-  <si>
-    <t>Sashi Damodharan</t>
-  </si>
-  <si>
-    <t>https://www.linkedin.com/in/sashi-damodharan-11744338</t>
-  </si>
-  <si>
-    <t>Manasi Ghosh</t>
-  </si>
-  <si>
-    <t>https://www.linkedin.com/in/manasi-ghosh-1b5841197</t>
-  </si>
-  <si>
-    <t>Naveen s</t>
-  </si>
-  <si>
-    <t>https://www.linkedin.com/in/naveen-s-87462a159</t>
-  </si>
-  <si>
-    <t>Aruna P.</t>
-  </si>
-  <si>
-    <t>https://www.linkedin.com/in/aruna-p-876817158</t>
-  </si>
-  <si>
-    <t>Sudha :)</t>
-  </si>
-  <si>
-    <t>https://www.linkedin.com/in/sudha-9858a858</t>
-  </si>
-  <si>
-    <t>Anuj Mishra</t>
-  </si>
-  <si>
-    <t>https://www.linkedin.com/in/anuj-mishra-985257219</t>
-  </si>
-  <si>
-    <t>Panduga Parameshwari</t>
-  </si>
-  <si>
-    <t>https://www.linkedin.com/in/panduga-parameshwari-3235321b6</t>
-  </si>
-  <si>
-    <t>Pooja Singh</t>
-  </si>
-  <si>
-    <t>https://www.linkedin.com/in/pooja-singh-92500b137</t>
-  </si>
-  <si>
-    <t>Sugura Fathima</t>
-  </si>
-  <si>
-    <t>https://www.linkedin.com/in/sugura-fathima-30a829169</t>
-  </si>
-  <si>
-    <t>Madhu S V</t>
-  </si>
-  <si>
-    <t>https://www.linkedin.com/in/madhu-s-v-b930a2228</t>
-  </si>
-  <si>
-    <t>Ashwini Wilson</t>
-  </si>
-  <si>
-    <t>https://www.linkedin.com/in/ashwini-wilson</t>
-  </si>
-  <si>
-    <t>Nayana v</t>
-  </si>
-  <si>
-    <t>https://www.linkedin.com/in/nayana-v-40a6491b4</t>
+    <t>Ashwin Kollaje</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/ashwin-kollaje-3b5b1939</t>
+  </si>
+  <si>
+    <t>Shince Peter MS</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/shince-peter-ms-b087132a</t>
+  </si>
+  <si>
+    <t>Nishma Cauvery C M</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/nishma-cauvery-c-m-b473611b6</t>
+  </si>
+  <si>
+    <t>Dr. Kavitha B.H</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/dr-kavitha-b-h-177b4827</t>
+  </si>
+  <si>
+    <t>Sangeeta Ballurgi</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/sangeetaballurgi</t>
+  </si>
+  <si>
+    <t>Nagdev Bindiganavale</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/nagdev-bindiganavale-585a3b1</t>
+  </si>
+  <si>
+    <t>Asha Shereen</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/ashashereen</t>
+  </si>
+  <si>
+    <t>Sarah Abraham</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/sarah-abraham-53172ba1</t>
+  </si>
+  <si>
+    <t>Umapathi M</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/umurugappan</t>
+  </si>
+  <si>
+    <t>Veena N</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/veena-n-bb053424</t>
+  </si>
+  <si>
+    <t>Ashutosh K</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/ashutosh-k-5ba75b197</t>
+  </si>
+  <si>
+    <t>Yashwanth Pappu</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/yashwanth-pappu-08497b7a</t>
+  </si>
+  <si>
+    <t>Suriya K.</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/suriyakala</t>
+  </si>
+  <si>
+    <t>Punitha P.V</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/punitha-p-v-680968237</t>
+  </si>
+  <si>
+    <t>Somashekhar Shanthapur</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/somashekhar-shanthapur-331ba9179</t>
+  </si>
+  <si>
+    <t>Jagadish Kumar</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/jagadish-kumar-5610b6237</t>
+  </si>
+  <si>
+    <t>Anitha N</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/anitha-n-bb9206107</t>
+  </si>
+  <si>
+    <t>Subalakshmi Ravikumar</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/subalakshmi-ravikumar-8301a050</t>
+  </si>
+  <si>
+    <t>Divya MS</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/divya-ms-2b5290250</t>
+  </si>
+  <si>
+    <t>Divya C</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/divya-c-50b448227</t>
   </si>
 </sst>
 </file>
@@ -1201,7 +1327,7 @@
         <v>44828.880567129629</v>
       </c>
       <c r="F2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -1215,13 +1341,13 @@
         <v>12</v>
       </c>
       <c r="D3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E3" s="1">
-        <v>44838.008356481485</v>
+        <v>44839.886736111112</v>
       </c>
       <c r="F3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -1229,19 +1355,19 @@
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C4" t="s">
         <v>12</v>
       </c>
       <c r="D4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E4" s="1">
-        <v>44831.957442129627</v>
+        <v>44839.894606481481</v>
       </c>
       <c r="F4" t="s">
-        <v>15</v>
+        <v>270</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -1249,7 +1375,7 @@
         <v>1</v>
       </c>
       <c r="B5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C5" t="s">
         <v>12</v>
@@ -1261,7 +1387,7 @@
         <v>44831.959918981483</v>
       </c>
       <c r="F5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -1269,7 +1395,7 @@
         <v>1</v>
       </c>
       <c r="B6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C6" t="s">
         <v>12</v>
@@ -1281,7 +1407,7 @@
         <v>44833.883576388886</v>
       </c>
       <c r="F6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -1289,7 +1415,7 @@
         <v>1</v>
       </c>
       <c r="B7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C7" t="s">
         <v>12</v>
@@ -1301,7 +1427,7 @@
         <v>44833.88616898148</v>
       </c>
       <c r="F7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
@@ -1309,7 +1435,7 @@
         <v>1</v>
       </c>
       <c r="B8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C8" t="s">
         <v>12</v>
@@ -1321,7 +1447,7 @@
         <v>44833.982766203706</v>
       </c>
       <c r="F8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
@@ -1329,7 +1455,7 @@
         <v>1</v>
       </c>
       <c r="B9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C9" t="s">
         <v>12</v>
@@ -1341,7 +1467,7 @@
         <v>44833.984293981484</v>
       </c>
       <c r="F9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
@@ -1349,7 +1475,7 @@
         <v>1</v>
       </c>
       <c r="B10" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C10" t="s">
         <v>12</v>
@@ -1372,7 +1498,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:H119"/>
+  <dimension ref="A1:H139"/>
   <sheetViews>
     <sheetView topLeftCell="A94" workbookViewId="0"/>
   </sheetViews>
@@ -1404,18 +1530,18 @@
         <v>6</v>
       </c>
       <c r="F1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G1" t="s">
+        <v>57</v>
+      </c>
+      <c r="H1" t="s">
         <v>58</v>
-      </c>
-      <c r="H1" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B2" t="s">
         <v>11</v>
@@ -1424,10 +1550,10 @@
         <v>12</v>
       </c>
       <c r="D2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="F2" s="1">
         <v>44830.40488425926</v>
@@ -1435,7 +1561,7 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B3" t="s">
         <v>11</v>
@@ -1444,10 +1570,10 @@
         <v>12</v>
       </c>
       <c r="D3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E3" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F3" s="1">
         <v>44830.404988425929</v>
@@ -1455,7 +1581,7 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B4" t="s">
         <v>11</v>
@@ -1464,10 +1590,10 @@
         <v>12</v>
       </c>
       <c r="D4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E4" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F4" s="1">
         <v>44830.40525462963</v>
@@ -1475,7 +1601,7 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B5" t="s">
         <v>11</v>
@@ -1484,10 +1610,10 @@
         <v>12</v>
       </c>
       <c r="D5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E5" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F5" s="1">
         <v>44830.405300925922</v>
@@ -1495,7 +1621,7 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B6" t="s">
         <v>11</v>
@@ -1504,10 +1630,10 @@
         <v>12</v>
       </c>
       <c r="D6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E6" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="F6" s="1">
         <v>44830.405347222222</v>
@@ -1515,7 +1641,7 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B7" t="s">
         <v>11</v>
@@ -1524,10 +1650,10 @@
         <v>12</v>
       </c>
       <c r="D7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E7" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F7" s="1">
         <v>44830.437939814816</v>
@@ -1535,7 +1661,7 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B8" t="s">
         <v>11</v>
@@ -1544,10 +1670,10 @@
         <v>12</v>
       </c>
       <c r="D8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E8" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F8" s="1">
         <v>44830.438217592593</v>
@@ -1555,7 +1681,7 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B9" t="s">
         <v>11</v>
@@ -1564,10 +1690,10 @@
         <v>12</v>
       </c>
       <c r="D9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E9" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F9" s="1">
         <v>44830.43849537037</v>
@@ -1575,7 +1701,7 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B10" t="s">
         <v>11</v>
@@ -1584,10 +1710,10 @@
         <v>12</v>
       </c>
       <c r="D10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E10" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F10" s="1">
         <v>44830.438761574071</v>
@@ -1595,7 +1721,7 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B11" t="s">
         <v>11</v>
@@ -1604,10 +1730,10 @@
         <v>12</v>
       </c>
       <c r="D11" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E11" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="F11" s="1">
         <v>44830.438807870371</v>
@@ -1615,19 +1741,19 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B12" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C12" t="s">
         <v>12</v>
       </c>
       <c r="D12" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E12" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F12" s="1">
         <v>44831.956238425926</v>
@@ -1635,19 +1761,19 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B13" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C13" t="s">
         <v>12</v>
       </c>
       <c r="D13" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E13" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F13" s="1">
         <v>44831.956284722219</v>
@@ -1655,25 +1781,25 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
+        <v>39</v>
+      </c>
+      <c r="B14" t="s">
+        <v>15</v>
+      </c>
+      <c r="C14" t="s">
+        <v>12</v>
+      </c>
+      <c r="D14" t="s">
         <v>40</v>
       </c>
-      <c r="B14" t="s">
-        <v>16</v>
-      </c>
-      <c r="C14" t="s">
-        <v>12</v>
-      </c>
-      <c r="D14" t="s">
-        <v>41</v>
-      </c>
       <c r="E14" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F14" s="1">
         <v>44831.956284722219</v>
       </c>
       <c r="G14" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H14" s="1">
         <v>44833.857303240744</v>
@@ -1681,19 +1807,19 @@
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B15" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C15" t="s">
         <v>12</v>
       </c>
       <c r="D15" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E15" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F15" s="1">
         <v>44831.95653935185</v>
@@ -1701,19 +1827,19 @@
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B16" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C16" t="s">
         <v>12</v>
       </c>
       <c r="D16" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E16" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F16" s="1">
         <v>44831.956585648149</v>
@@ -1721,19 +1847,19 @@
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
+        <v>43</v>
+      </c>
+      <c r="B17" t="s">
+        <v>15</v>
+      </c>
+      <c r="C17" t="s">
+        <v>12</v>
+      </c>
+      <c r="D17" t="s">
         <v>44</v>
       </c>
-      <c r="B17" t="s">
-        <v>16</v>
-      </c>
-      <c r="C17" t="s">
-        <v>12</v>
-      </c>
-      <c r="D17" t="s">
-        <v>45</v>
-      </c>
       <c r="E17" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="F17" s="1">
         <v>44831.95684027778</v>
@@ -1741,19 +1867,19 @@
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B18" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C18" t="s">
         <v>12</v>
       </c>
       <c r="D18" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E18" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="F18" s="1">
         <v>44831.957083333335</v>
@@ -1761,19 +1887,19 @@
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B19" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C19" t="s">
         <v>12</v>
       </c>
       <c r="D19" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E19" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="F19" s="1">
         <v>44831.957326388889</v>
@@ -1781,19 +1907,19 @@
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B20" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C20" t="s">
         <v>12</v>
       </c>
       <c r="D20" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E20" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="F20" s="1">
         <v>44831.957372685189</v>
@@ -1801,19 +1927,19 @@
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B21" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C21" t="s">
         <v>12</v>
       </c>
       <c r="D21" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E21" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="F21" s="1">
         <v>44831.958101851851</v>
@@ -1821,19 +1947,19 @@
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B22" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C22" t="s">
         <v>12</v>
       </c>
       <c r="D22" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E22" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="F22" s="1">
         <v>44831.958333333336</v>
@@ -1841,19 +1967,19 @@
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B23" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C23" t="s">
         <v>12</v>
       </c>
       <c r="D23" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E23" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="F23" s="1">
         <v>44831.958599537036</v>
@@ -1861,19 +1987,19 @@
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B24" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C24" t="s">
         <v>12</v>
       </c>
       <c r="D24" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E24" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="F24" s="1">
         <v>44831.95884259259</v>
@@ -1881,19 +2007,19 @@
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B25" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C25" t="s">
         <v>12</v>
       </c>
       <c r="D25" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E25" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="F25" s="1">
         <v>44831.959097222221</v>
@@ -1901,19 +2027,19 @@
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B26" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C26" t="s">
         <v>12</v>
       </c>
       <c r="D26" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E26" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F26" s="1">
         <v>44831.959340277775</v>
@@ -1921,19 +2047,19 @@
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B27" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C27" t="s">
         <v>12</v>
       </c>
       <c r="D27" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E27" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F27" s="1">
         <v>44831.95957175926</v>
@@ -1941,19 +2067,19 @@
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B28" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C28" t="s">
         <v>12</v>
       </c>
       <c r="D28" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E28" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F28" s="1">
         <v>44831.959618055553</v>
@@ -1961,19 +2087,19 @@
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B29" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C29" t="s">
         <v>12</v>
       </c>
       <c r="D29" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E29" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F29" s="1">
         <v>44831.959872685184</v>
@@ -1981,13 +2107,13 @@
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
+        <v>59</v>
+      </c>
+      <c r="E30" t="s">
         <v>60</v>
       </c>
-      <c r="E30" t="s">
+      <c r="G30" t="s">
         <v>61</v>
-      </c>
-      <c r="G30" t="s">
-        <v>62</v>
       </c>
       <c r="H30" s="1">
         <v>44833.855821759258</v>
@@ -1995,13 +2121,13 @@
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
+        <v>62</v>
+      </c>
+      <c r="E31" t="s">
         <v>63</v>
       </c>
-      <c r="E31" t="s">
-        <v>64</v>
-      </c>
       <c r="G31" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H31" s="1">
         <v>44833.856261574074</v>
@@ -2009,13 +2135,13 @@
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
+        <v>64</v>
+      </c>
+      <c r="E32" t="s">
         <v>65</v>
       </c>
-      <c r="E32" t="s">
-        <v>66</v>
-      </c>
       <c r="G32" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H32" s="1">
         <v>44833.856956018521</v>
@@ -2023,13 +2149,13 @@
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
+        <v>66</v>
+      </c>
+      <c r="E33" t="s">
         <v>67</v>
       </c>
-      <c r="E33" t="s">
-        <v>68</v>
-      </c>
       <c r="G33" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H33" s="1">
         <v>44833.85701388889</v>
@@ -2037,13 +2163,13 @@
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
+        <v>68</v>
+      </c>
+      <c r="E34" t="s">
         <v>69</v>
       </c>
-      <c r="E34" t="s">
-        <v>70</v>
-      </c>
       <c r="G34" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H34" s="1">
         <v>44833.857071759259</v>
@@ -2051,13 +2177,13 @@
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
+        <v>70</v>
+      </c>
+      <c r="E35" t="s">
         <v>71</v>
       </c>
-      <c r="E35" t="s">
-        <v>72</v>
-      </c>
       <c r="G35" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H35" s="1">
         <v>44833.857129629629</v>
@@ -2065,13 +2191,13 @@
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
+        <v>72</v>
+      </c>
+      <c r="E36" t="s">
         <v>73</v>
       </c>
-      <c r="E36" t="s">
-        <v>74</v>
-      </c>
       <c r="G36" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H36" s="1">
         <v>44833.857187499998</v>
@@ -2079,13 +2205,13 @@
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
+        <v>74</v>
+      </c>
+      <c r="E37" t="s">
         <v>75</v>
       </c>
-      <c r="E37" t="s">
-        <v>76</v>
-      </c>
       <c r="G37" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H37" s="1">
         <v>44833.857245370367</v>
@@ -2093,13 +2219,13 @@
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
+        <v>76</v>
+      </c>
+      <c r="E38" t="s">
         <v>77</v>
       </c>
-      <c r="E38" t="s">
-        <v>78</v>
-      </c>
       <c r="G38" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H38" s="1">
         <v>44833.857581018521</v>
@@ -2107,13 +2233,13 @@
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
+        <v>78</v>
+      </c>
+      <c r="E39" t="s">
         <v>79</v>
       </c>
-      <c r="E39" t="s">
-        <v>80</v>
-      </c>
       <c r="G39" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H39" s="1">
         <v>44833.857638888891</v>
@@ -2121,13 +2247,13 @@
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
+        <v>80</v>
+      </c>
+      <c r="E40" t="s">
         <v>81</v>
       </c>
-      <c r="E40" t="s">
-        <v>82</v>
-      </c>
       <c r="G40" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H40" s="1">
         <v>44833.85769675926</v>
@@ -2135,13 +2261,13 @@
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
+        <v>82</v>
+      </c>
+      <c r="E41" t="s">
         <v>83</v>
       </c>
-      <c r="E41" t="s">
-        <v>84</v>
-      </c>
       <c r="G41" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H41" s="1">
         <v>44833.857754629629</v>
@@ -2149,13 +2275,13 @@
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
+        <v>84</v>
+      </c>
+      <c r="E42" t="s">
         <v>85</v>
       </c>
-      <c r="E42" t="s">
-        <v>86</v>
-      </c>
       <c r="G42" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H42" s="1">
         <v>44833.857812499999</v>
@@ -2163,13 +2289,13 @@
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
+        <v>86</v>
+      </c>
+      <c r="E43" t="s">
         <v>87</v>
       </c>
-      <c r="E43" t="s">
-        <v>88</v>
-      </c>
       <c r="G43" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H43" s="1">
         <v>44833.857870370368</v>
@@ -2177,13 +2303,13 @@
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
+        <v>88</v>
+      </c>
+      <c r="E44" t="s">
         <v>89</v>
       </c>
-      <c r="E44" t="s">
-        <v>90</v>
-      </c>
       <c r="G44" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H44" s="1">
         <v>44833.857928240737</v>
@@ -2191,13 +2317,13 @@
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
+        <v>90</v>
+      </c>
+      <c r="E45" t="s">
         <v>91</v>
       </c>
-      <c r="E45" t="s">
-        <v>92</v>
-      </c>
       <c r="G45" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H45" s="1">
         <v>44833.857986111114</v>
@@ -2205,13 +2331,13 @@
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
+        <v>92</v>
+      </c>
+      <c r="E46" t="s">
         <v>93</v>
       </c>
-      <c r="E46" t="s">
-        <v>94</v>
-      </c>
       <c r="G46" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H46" s="1">
         <v>44833.858043981483</v>
@@ -2219,13 +2345,13 @@
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
+        <v>94</v>
+      </c>
+      <c r="E47" t="s">
         <v>95</v>
       </c>
-      <c r="E47" t="s">
-        <v>96</v>
-      </c>
       <c r="G47" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H47" s="1">
         <v>44833.858101851853</v>
@@ -2233,13 +2359,13 @@
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
+        <v>96</v>
+      </c>
+      <c r="E48" t="s">
         <v>97</v>
       </c>
-      <c r="E48" t="s">
-        <v>98</v>
-      </c>
       <c r="G48" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H48" s="1">
         <v>44833.858159722222</v>
@@ -2247,13 +2373,13 @@
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
+        <v>98</v>
+      </c>
+      <c r="E49" t="s">
         <v>99</v>
       </c>
-      <c r="E49" t="s">
-        <v>100</v>
-      </c>
       <c r="G49" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H49" s="1">
         <v>44833.858217592591</v>
@@ -2261,13 +2387,13 @@
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
+        <v>100</v>
+      </c>
+      <c r="E50" t="s">
         <v>101</v>
       </c>
-      <c r="E50" t="s">
-        <v>102</v>
-      </c>
       <c r="G50" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H50" s="1">
         <v>44833.858275462961</v>
@@ -2275,13 +2401,13 @@
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
+        <v>102</v>
+      </c>
+      <c r="E51" t="s">
         <v>103</v>
       </c>
-      <c r="E51" t="s">
-        <v>104</v>
-      </c>
       <c r="G51" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H51" s="1">
         <v>44833.85833333333</v>
@@ -2289,13 +2415,13 @@
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
+        <v>104</v>
+      </c>
+      <c r="E52" t="s">
         <v>105</v>
       </c>
-      <c r="E52" t="s">
-        <v>106</v>
-      </c>
       <c r="G52" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H52" s="1">
         <v>44833.858391203707</v>
@@ -2303,13 +2429,13 @@
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
+        <v>106</v>
+      </c>
+      <c r="E53" t="s">
         <v>107</v>
       </c>
-      <c r="E53" t="s">
-        <v>108</v>
-      </c>
       <c r="G53" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H53" s="1">
         <v>44833.858449074076</v>
@@ -2317,13 +2443,13 @@
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
+        <v>108</v>
+      </c>
+      <c r="E54" t="s">
         <v>109</v>
       </c>
-      <c r="E54" t="s">
-        <v>110</v>
-      </c>
       <c r="G54" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H54" s="1">
         <v>44833.858506944445</v>
@@ -2331,13 +2457,13 @@
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
+        <v>110</v>
+      </c>
+      <c r="E55" t="s">
         <v>111</v>
       </c>
-      <c r="E55" t="s">
-        <v>112</v>
-      </c>
       <c r="G55" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H55" s="1">
         <v>44833.858564814815</v>
@@ -2345,13 +2471,13 @@
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
+        <v>112</v>
+      </c>
+      <c r="E56" t="s">
         <v>113</v>
       </c>
-      <c r="E56" t="s">
-        <v>114</v>
-      </c>
       <c r="G56" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H56" s="1">
         <v>44833.858622685184</v>
@@ -2359,13 +2485,13 @@
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
+        <v>114</v>
+      </c>
+      <c r="E57" t="s">
         <v>115</v>
       </c>
-      <c r="E57" t="s">
-        <v>116</v>
-      </c>
       <c r="G57" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H57" s="1">
         <v>44833.858680555553</v>
@@ -2373,13 +2499,13 @@
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
+        <v>116</v>
+      </c>
+      <c r="E58" t="s">
         <v>117</v>
       </c>
-      <c r="E58" t="s">
-        <v>118</v>
-      </c>
       <c r="G58" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H58" s="1">
         <v>44833.858738425923</v>
@@ -2387,13 +2513,13 @@
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
+        <v>118</v>
+      </c>
+      <c r="E59" t="s">
         <v>119</v>
       </c>
-      <c r="E59" t="s">
-        <v>120</v>
-      </c>
       <c r="G59" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H59" s="1">
         <v>44833.858796296299</v>
@@ -2401,13 +2527,13 @@
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
+        <v>120</v>
+      </c>
+      <c r="E60" t="s">
         <v>121</v>
       </c>
-      <c r="E60" t="s">
-        <v>122</v>
-      </c>
       <c r="G60" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H60" s="1">
         <v>44833.858854166669</v>
@@ -2415,13 +2541,13 @@
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
+        <v>122</v>
+      </c>
+      <c r="E61" t="s">
         <v>123</v>
       </c>
-      <c r="E61" t="s">
-        <v>124</v>
-      </c>
       <c r="G61" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H61" s="1">
         <v>44833.858912037038</v>
@@ -2429,13 +2555,13 @@
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
+        <v>124</v>
+      </c>
+      <c r="E62" t="s">
         <v>125</v>
       </c>
-      <c r="E62" t="s">
-        <v>126</v>
-      </c>
       <c r="G62" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H62" s="1">
         <v>44833.858969907407</v>
@@ -2443,13 +2569,13 @@
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
+        <v>126</v>
+      </c>
+      <c r="E63" t="s">
         <v>127</v>
       </c>
-      <c r="E63" t="s">
-        <v>128</v>
-      </c>
       <c r="G63" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H63" s="1">
         <v>44833.859027777777</v>
@@ -2457,13 +2583,13 @@
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
+        <v>128</v>
+      </c>
+      <c r="E64" t="s">
         <v>129</v>
       </c>
-      <c r="E64" t="s">
-        <v>130</v>
-      </c>
       <c r="G64" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H64" s="1">
         <v>44833.859085648146</v>
@@ -2471,13 +2597,13 @@
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
+        <v>130</v>
+      </c>
+      <c r="E65" t="s">
         <v>131</v>
       </c>
-      <c r="E65" t="s">
-        <v>132</v>
-      </c>
       <c r="G65" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H65" s="1">
         <v>44833.859143518515</v>
@@ -2485,13 +2611,13 @@
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
+        <v>132</v>
+      </c>
+      <c r="E66" t="s">
         <v>133</v>
       </c>
-      <c r="E66" t="s">
-        <v>134</v>
-      </c>
       <c r="G66" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H66" s="1">
         <v>44833.859189814815</v>
@@ -2499,19 +2625,19 @@
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
+        <v>162</v>
+      </c>
+      <c r="B67" t="s">
+        <v>18</v>
+      </c>
+      <c r="C67" t="s">
+        <v>12</v>
+      </c>
+      <c r="D67" t="s">
+        <v>44</v>
+      </c>
+      <c r="E67" t="s">
         <v>163</v>
-      </c>
-      <c r="B67" t="s">
-        <v>19</v>
-      </c>
-      <c r="C67" t="s">
-        <v>12</v>
-      </c>
-      <c r="D67" t="s">
-        <v>45</v>
-      </c>
-      <c r="E67" t="s">
-        <v>164</v>
       </c>
       <c r="F67" s="1">
         <v>44833.882372685184</v>
@@ -2519,19 +2645,19 @@
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
+        <v>164</v>
+      </c>
+      <c r="B68" t="s">
+        <v>18</v>
+      </c>
+      <c r="C68" t="s">
+        <v>12</v>
+      </c>
+      <c r="D68" t="s">
+        <v>25</v>
+      </c>
+      <c r="E68" t="s">
         <v>165</v>
-      </c>
-      <c r="B68" t="s">
-        <v>19</v>
-      </c>
-      <c r="C68" t="s">
-        <v>12</v>
-      </c>
-      <c r="D68" t="s">
-        <v>26</v>
-      </c>
-      <c r="E68" t="s">
-        <v>166</v>
       </c>
       <c r="F68" s="1">
         <v>44833.882638888892</v>
@@ -2539,19 +2665,19 @@
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
+        <v>166</v>
+      </c>
+      <c r="B69" t="s">
+        <v>18</v>
+      </c>
+      <c r="C69" t="s">
+        <v>12</v>
+      </c>
+      <c r="D69" t="s">
+        <v>30</v>
+      </c>
+      <c r="E69" t="s">
         <v>167</v>
-      </c>
-      <c r="B69" t="s">
-        <v>19</v>
-      </c>
-      <c r="C69" t="s">
-        <v>12</v>
-      </c>
-      <c r="D69" t="s">
-        <v>31</v>
-      </c>
-      <c r="E69" t="s">
-        <v>168</v>
       </c>
       <c r="F69" s="1">
         <v>44833.882708333331</v>
@@ -2559,19 +2685,19 @@
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
+        <v>168</v>
+      </c>
+      <c r="B70" t="s">
+        <v>18</v>
+      </c>
+      <c r="C70" t="s">
+        <v>12</v>
+      </c>
+      <c r="D70" t="s">
+        <v>30</v>
+      </c>
+      <c r="E70" t="s">
         <v>169</v>
-      </c>
-      <c r="B70" t="s">
-        <v>19</v>
-      </c>
-      <c r="C70" t="s">
-        <v>12</v>
-      </c>
-      <c r="D70" t="s">
-        <v>31</v>
-      </c>
-      <c r="E70" t="s">
-        <v>170</v>
       </c>
       <c r="F70" s="1">
         <v>44833.882777777777</v>
@@ -2579,19 +2705,19 @@
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
+        <v>170</v>
+      </c>
+      <c r="B71" t="s">
+        <v>18</v>
+      </c>
+      <c r="C71" t="s">
+        <v>12</v>
+      </c>
+      <c r="D71" t="s">
+        <v>30</v>
+      </c>
+      <c r="E71" t="s">
         <v>171</v>
-      </c>
-      <c r="B71" t="s">
-        <v>19</v>
-      </c>
-      <c r="C71" t="s">
-        <v>12</v>
-      </c>
-      <c r="D71" t="s">
-        <v>31</v>
-      </c>
-      <c r="E71" t="s">
-        <v>172</v>
       </c>
       <c r="F71" s="1">
         <v>44833.882835648146</v>
@@ -2599,19 +2725,19 @@
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
+        <v>172</v>
+      </c>
+      <c r="B72" t="s">
+        <v>18</v>
+      </c>
+      <c r="C72" t="s">
+        <v>12</v>
+      </c>
+      <c r="D72" t="s">
+        <v>25</v>
+      </c>
+      <c r="E72" t="s">
         <v>173</v>
-      </c>
-      <c r="B72" t="s">
-        <v>19</v>
-      </c>
-      <c r="C72" t="s">
-        <v>12</v>
-      </c>
-      <c r="D72" t="s">
-        <v>26</v>
-      </c>
-      <c r="E72" t="s">
-        <v>174</v>
       </c>
       <c r="F72" s="1">
         <v>44833.883113425924</v>
@@ -2619,19 +2745,19 @@
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
+        <v>174</v>
+      </c>
+      <c r="B73" t="s">
+        <v>18</v>
+      </c>
+      <c r="C73" t="s">
+        <v>12</v>
+      </c>
+      <c r="D73" t="s">
+        <v>30</v>
+      </c>
+      <c r="E73" t="s">
         <v>175</v>
-      </c>
-      <c r="B73" t="s">
-        <v>19</v>
-      </c>
-      <c r="C73" t="s">
-        <v>12</v>
-      </c>
-      <c r="D73" t="s">
-        <v>31</v>
-      </c>
-      <c r="E73" t="s">
-        <v>176</v>
       </c>
       <c r="F73" s="1">
         <v>44833.88318287037</v>
@@ -2639,19 +2765,19 @@
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
+        <v>176</v>
+      </c>
+      <c r="B74" t="s">
+        <v>18</v>
+      </c>
+      <c r="C74" t="s">
+        <v>12</v>
+      </c>
+      <c r="D74" t="s">
+        <v>25</v>
+      </c>
+      <c r="E74" t="s">
         <v>177</v>
-      </c>
-      <c r="B74" t="s">
-        <v>19</v>
-      </c>
-      <c r="C74" t="s">
-        <v>12</v>
-      </c>
-      <c r="D74" t="s">
-        <v>26</v>
-      </c>
-      <c r="E74" t="s">
-        <v>178</v>
       </c>
       <c r="F74" s="1">
         <v>44833.883449074077</v>
@@ -2659,19 +2785,19 @@
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
+        <v>178</v>
+      </c>
+      <c r="B75" t="s">
+        <v>18</v>
+      </c>
+      <c r="C75" t="s">
+        <v>12</v>
+      </c>
+      <c r="D75" t="s">
+        <v>30</v>
+      </c>
+      <c r="E75" t="s">
         <v>179</v>
-      </c>
-      <c r="B75" t="s">
-        <v>19</v>
-      </c>
-      <c r="C75" t="s">
-        <v>12</v>
-      </c>
-      <c r="D75" t="s">
-        <v>31</v>
-      </c>
-      <c r="E75" t="s">
-        <v>180</v>
       </c>
       <c r="F75" s="1">
         <v>44833.883518518516</v>
@@ -2679,19 +2805,19 @@
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
+        <v>180</v>
+      </c>
+      <c r="B76" t="s">
+        <v>19</v>
+      </c>
+      <c r="C76" t="s">
+        <v>12</v>
+      </c>
+      <c r="D76" t="s">
+        <v>30</v>
+      </c>
+      <c r="E76" t="s">
         <v>181</v>
-      </c>
-      <c r="B76" t="s">
-        <v>20</v>
-      </c>
-      <c r="C76" t="s">
-        <v>12</v>
-      </c>
-      <c r="D76" t="s">
-        <v>31</v>
-      </c>
-      <c r="E76" t="s">
-        <v>182</v>
       </c>
       <c r="F76" s="1">
         <v>44833.884085648147</v>
@@ -2699,19 +2825,19 @@
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
+        <v>182</v>
+      </c>
+      <c r="B77" t="s">
+        <v>19</v>
+      </c>
+      <c r="C77" t="s">
+        <v>12</v>
+      </c>
+      <c r="D77" t="s">
+        <v>25</v>
+      </c>
+      <c r="E77" t="s">
         <v>183</v>
-      </c>
-      <c r="B77" t="s">
-        <v>20</v>
-      </c>
-      <c r="C77" t="s">
-        <v>12</v>
-      </c>
-      <c r="D77" t="s">
-        <v>26</v>
-      </c>
-      <c r="E77" t="s">
-        <v>184</v>
       </c>
       <c r="F77" s="1">
         <v>44833.884351851855</v>
@@ -2719,19 +2845,19 @@
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
+        <v>184</v>
+      </c>
+      <c r="B78" t="s">
+        <v>19</v>
+      </c>
+      <c r="C78" t="s">
+        <v>12</v>
+      </c>
+      <c r="D78" t="s">
+        <v>30</v>
+      </c>
+      <c r="E78" t="s">
         <v>185</v>
-      </c>
-      <c r="B78" t="s">
-        <v>20</v>
-      </c>
-      <c r="C78" t="s">
-        <v>12</v>
-      </c>
-      <c r="D78" t="s">
-        <v>31</v>
-      </c>
-      <c r="E78" t="s">
-        <v>186</v>
       </c>
       <c r="F78" s="1">
         <v>44833.884421296294</v>
@@ -2739,19 +2865,19 @@
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
+        <v>186</v>
+      </c>
+      <c r="B79" t="s">
+        <v>19</v>
+      </c>
+      <c r="C79" t="s">
+        <v>12</v>
+      </c>
+      <c r="D79" t="s">
+        <v>30</v>
+      </c>
+      <c r="E79" t="s">
         <v>187</v>
-      </c>
-      <c r="B79" t="s">
-        <v>20</v>
-      </c>
-      <c r="C79" t="s">
-        <v>12</v>
-      </c>
-      <c r="D79" t="s">
-        <v>31</v>
-      </c>
-      <c r="E79" t="s">
-        <v>188</v>
       </c>
       <c r="F79" s="1">
         <v>44833.88449074074</v>
@@ -2759,19 +2885,19 @@
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
+        <v>188</v>
+      </c>
+      <c r="B80" t="s">
+        <v>19</v>
+      </c>
+      <c r="C80" t="s">
+        <v>12</v>
+      </c>
+      <c r="D80" t="s">
+        <v>30</v>
+      </c>
+      <c r="E80" t="s">
         <v>189</v>
-      </c>
-      <c r="B80" t="s">
-        <v>20</v>
-      </c>
-      <c r="C80" t="s">
-        <v>12</v>
-      </c>
-      <c r="D80" t="s">
-        <v>31</v>
-      </c>
-      <c r="E80" t="s">
-        <v>190</v>
       </c>
       <c r="F80" s="1">
         <v>44833.884560185186</v>
@@ -2779,19 +2905,19 @@
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
+        <v>190</v>
+      </c>
+      <c r="B81" t="s">
+        <v>19</v>
+      </c>
+      <c r="C81" t="s">
+        <v>12</v>
+      </c>
+      <c r="D81" t="s">
+        <v>25</v>
+      </c>
+      <c r="E81" t="s">
         <v>191</v>
-      </c>
-      <c r="B81" t="s">
-        <v>20</v>
-      </c>
-      <c r="C81" t="s">
-        <v>12</v>
-      </c>
-      <c r="D81" t="s">
-        <v>26</v>
-      </c>
-      <c r="E81" t="s">
-        <v>192</v>
       </c>
       <c r="F81" s="1">
         <v>44833.884814814817</v>
@@ -2799,19 +2925,19 @@
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
+        <v>192</v>
+      </c>
+      <c r="B82" t="s">
+        <v>19</v>
+      </c>
+      <c r="C82" t="s">
+        <v>12</v>
+      </c>
+      <c r="D82" t="s">
+        <v>30</v>
+      </c>
+      <c r="E82" t="s">
         <v>193</v>
-      </c>
-      <c r="B82" t="s">
-        <v>20</v>
-      </c>
-      <c r="C82" t="s">
-        <v>12</v>
-      </c>
-      <c r="D82" t="s">
-        <v>31</v>
-      </c>
-      <c r="E82" t="s">
-        <v>194</v>
       </c>
       <c r="F82" s="1">
         <v>44833.884884259256</v>
@@ -2819,19 +2945,19 @@
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
+        <v>194</v>
+      </c>
+      <c r="B83" t="s">
+        <v>19</v>
+      </c>
+      <c r="C83" t="s">
+        <v>12</v>
+      </c>
+      <c r="D83" t="s">
+        <v>25</v>
+      </c>
+      <c r="E83" t="s">
         <v>195</v>
-      </c>
-      <c r="B83" t="s">
-        <v>20</v>
-      </c>
-      <c r="C83" t="s">
-        <v>12</v>
-      </c>
-      <c r="D83" t="s">
-        <v>26</v>
-      </c>
-      <c r="E83" t="s">
-        <v>196</v>
       </c>
       <c r="F83" s="1">
         <v>44833.885150462964</v>
@@ -2839,19 +2965,19 @@
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
+        <v>196</v>
+      </c>
+      <c r="B84" t="s">
+        <v>19</v>
+      </c>
+      <c r="C84" t="s">
+        <v>12</v>
+      </c>
+      <c r="D84" t="s">
+        <v>44</v>
+      </c>
+      <c r="E84" t="s">
         <v>197</v>
-      </c>
-      <c r="B84" t="s">
-        <v>20</v>
-      </c>
-      <c r="C84" t="s">
-        <v>12</v>
-      </c>
-      <c r="D84" t="s">
-        <v>45</v>
-      </c>
-      <c r="E84" t="s">
-        <v>198</v>
       </c>
       <c r="F84" s="1">
         <v>44833.885833333334</v>
@@ -2859,19 +2985,19 @@
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
+        <v>198</v>
+      </c>
+      <c r="B85" t="s">
+        <v>19</v>
+      </c>
+      <c r="C85" t="s">
+        <v>12</v>
+      </c>
+      <c r="D85" t="s">
+        <v>25</v>
+      </c>
+      <c r="E85" t="s">
         <v>199</v>
-      </c>
-      <c r="B85" t="s">
-        <v>20</v>
-      </c>
-      <c r="C85" t="s">
-        <v>12</v>
-      </c>
-      <c r="D85" t="s">
-        <v>26</v>
-      </c>
-      <c r="E85" t="s">
-        <v>200</v>
       </c>
       <c r="F85" s="1">
         <v>44833.886087962965</v>
@@ -2879,19 +3005,19 @@
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
+        <v>200</v>
+      </c>
+      <c r="B86" t="s">
+        <v>20</v>
+      </c>
+      <c r="C86" t="s">
+        <v>12</v>
+      </c>
+      <c r="D86" t="s">
+        <v>25</v>
+      </c>
+      <c r="E86" t="s">
         <v>201</v>
-      </c>
-      <c r="B86" t="s">
-        <v>21</v>
-      </c>
-      <c r="C86" t="s">
-        <v>12</v>
-      </c>
-      <c r="D86" t="s">
-        <v>26</v>
-      </c>
-      <c r="E86" t="s">
-        <v>202</v>
       </c>
       <c r="F86" s="1">
         <v>44833.981099537035</v>
@@ -2899,19 +3025,19 @@
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
+        <v>202</v>
+      </c>
+      <c r="B87" t="s">
+        <v>20</v>
+      </c>
+      <c r="C87" t="s">
+        <v>12</v>
+      </c>
+      <c r="D87" t="s">
+        <v>30</v>
+      </c>
+      <c r="E87" t="s">
         <v>203</v>
-      </c>
-      <c r="B87" t="s">
-        <v>21</v>
-      </c>
-      <c r="C87" t="s">
-        <v>12</v>
-      </c>
-      <c r="D87" t="s">
-        <v>31</v>
-      </c>
-      <c r="E87" t="s">
-        <v>204</v>
       </c>
       <c r="F87" s="1">
         <v>44833.981168981481</v>
@@ -2919,19 +3045,19 @@
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
+        <v>204</v>
+      </c>
+      <c r="B88" t="s">
+        <v>20</v>
+      </c>
+      <c r="C88" t="s">
+        <v>12</v>
+      </c>
+      <c r="D88" t="s">
+        <v>44</v>
+      </c>
+      <c r="E88" t="s">
         <v>205</v>
-      </c>
-      <c r="B88" t="s">
-        <v>21</v>
-      </c>
-      <c r="C88" t="s">
-        <v>12</v>
-      </c>
-      <c r="D88" t="s">
-        <v>45</v>
-      </c>
-      <c r="E88" t="s">
-        <v>206</v>
       </c>
       <c r="F88" s="1">
         <v>44833.981493055559</v>
@@ -2939,19 +3065,19 @@
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
+        <v>206</v>
+      </c>
+      <c r="B89" t="s">
+        <v>20</v>
+      </c>
+      <c r="C89" t="s">
+        <v>12</v>
+      </c>
+      <c r="D89" t="s">
+        <v>25</v>
+      </c>
+      <c r="E89" t="s">
         <v>207</v>
-      </c>
-      <c r="B89" t="s">
-        <v>21</v>
-      </c>
-      <c r="C89" t="s">
-        <v>12</v>
-      </c>
-      <c r="D89" t="s">
-        <v>26</v>
-      </c>
-      <c r="E89" t="s">
-        <v>208</v>
       </c>
       <c r="F89" s="1">
         <v>44833.981817129628</v>
@@ -2959,19 +3085,19 @@
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
+        <v>208</v>
+      </c>
+      <c r="B90" t="s">
+        <v>20</v>
+      </c>
+      <c r="C90" t="s">
+        <v>12</v>
+      </c>
+      <c r="D90" t="s">
+        <v>30</v>
+      </c>
+      <c r="E90" t="s">
         <v>209</v>
-      </c>
-      <c r="B90" t="s">
-        <v>21</v>
-      </c>
-      <c r="C90" t="s">
-        <v>12</v>
-      </c>
-      <c r="D90" t="s">
-        <v>31</v>
-      </c>
-      <c r="E90" t="s">
-        <v>210</v>
       </c>
       <c r="F90" s="1">
         <v>44833.981886574074</v>
@@ -2979,19 +3105,19 @@
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
+        <v>210</v>
+      </c>
+      <c r="B91" t="s">
+        <v>20</v>
+      </c>
+      <c r="C91" t="s">
+        <v>12</v>
+      </c>
+      <c r="D91" t="s">
+        <v>25</v>
+      </c>
+      <c r="E91" t="s">
         <v>211</v>
-      </c>
-      <c r="B91" t="s">
-        <v>21</v>
-      </c>
-      <c r="C91" t="s">
-        <v>12</v>
-      </c>
-      <c r="D91" t="s">
-        <v>26</v>
-      </c>
-      <c r="E91" t="s">
-        <v>212</v>
       </c>
       <c r="F91" s="1">
         <v>44833.982210648152</v>
@@ -2999,19 +3125,19 @@
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
+        <v>212</v>
+      </c>
+      <c r="B92" t="s">
+        <v>20</v>
+      </c>
+      <c r="C92" t="s">
+        <v>12</v>
+      </c>
+      <c r="D92" t="s">
+        <v>25</v>
+      </c>
+      <c r="E92" t="s">
         <v>213</v>
-      </c>
-      <c r="B92" t="s">
-        <v>21</v>
-      </c>
-      <c r="C92" t="s">
-        <v>12</v>
-      </c>
-      <c r="D92" t="s">
-        <v>26</v>
-      </c>
-      <c r="E92" t="s">
-        <v>214</v>
       </c>
       <c r="F92" s="1">
         <v>44833.982534722221</v>
@@ -3019,19 +3145,19 @@
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
+        <v>214</v>
+      </c>
+      <c r="B93" t="s">
+        <v>20</v>
+      </c>
+      <c r="C93" t="s">
+        <v>12</v>
+      </c>
+      <c r="D93" t="s">
+        <v>30</v>
+      </c>
+      <c r="E93" t="s">
         <v>215</v>
-      </c>
-      <c r="B93" t="s">
-        <v>21</v>
-      </c>
-      <c r="C93" t="s">
-        <v>12</v>
-      </c>
-      <c r="D93" t="s">
-        <v>31</v>
-      </c>
-      <c r="E93" t="s">
-        <v>216</v>
       </c>
       <c r="F93" s="1">
         <v>44833.982604166667</v>
@@ -3039,19 +3165,19 @@
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
+        <v>216</v>
+      </c>
+      <c r="B94" t="s">
+        <v>20</v>
+      </c>
+      <c r="C94" t="s">
+        <v>12</v>
+      </c>
+      <c r="D94" t="s">
+        <v>30</v>
+      </c>
+      <c r="E94" t="s">
         <v>217</v>
-      </c>
-      <c r="B94" t="s">
-        <v>21</v>
-      </c>
-      <c r="C94" t="s">
-        <v>12</v>
-      </c>
-      <c r="D94" t="s">
-        <v>31</v>
-      </c>
-      <c r="E94" t="s">
-        <v>218</v>
       </c>
       <c r="F94" s="1">
         <v>44833.982662037037</v>
@@ -3059,19 +3185,19 @@
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
+        <v>218</v>
+      </c>
+      <c r="B95" t="s">
+        <v>21</v>
+      </c>
+      <c r="C95" t="s">
+        <v>12</v>
+      </c>
+      <c r="D95" t="s">
+        <v>30</v>
+      </c>
+      <c r="E95" t="s">
         <v>219</v>
-      </c>
-      <c r="B95" t="s">
-        <v>22</v>
-      </c>
-      <c r="C95" t="s">
-        <v>12</v>
-      </c>
-      <c r="D95" t="s">
-        <v>31</v>
-      </c>
-      <c r="E95" t="s">
-        <v>220</v>
       </c>
       <c r="F95" s="1">
         <v>44833.983194444445</v>
@@ -3079,19 +3205,19 @@
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
+        <v>220</v>
+      </c>
+      <c r="B96" t="s">
+        <v>21</v>
+      </c>
+      <c r="C96" t="s">
+        <v>12</v>
+      </c>
+      <c r="D96" t="s">
+        <v>44</v>
+      </c>
+      <c r="E96" t="s">
         <v>221</v>
-      </c>
-      <c r="B96" t="s">
-        <v>22</v>
-      </c>
-      <c r="C96" t="s">
-        <v>12</v>
-      </c>
-      <c r="D96" t="s">
-        <v>45</v>
-      </c>
-      <c r="E96" t="s">
-        <v>222</v>
       </c>
       <c r="F96" s="1">
         <v>44833.983518518522</v>
@@ -3099,19 +3225,19 @@
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
+        <v>222</v>
+      </c>
+      <c r="B97" t="s">
+        <v>21</v>
+      </c>
+      <c r="C97" t="s">
+        <v>12</v>
+      </c>
+      <c r="D97" t="s">
+        <v>30</v>
+      </c>
+      <c r="E97" t="s">
         <v>223</v>
-      </c>
-      <c r="B97" t="s">
-        <v>22</v>
-      </c>
-      <c r="C97" t="s">
-        <v>12</v>
-      </c>
-      <c r="D97" t="s">
-        <v>31</v>
-      </c>
-      <c r="E97" t="s">
-        <v>224</v>
       </c>
       <c r="F97" s="1">
         <v>44833.983576388891</v>
@@ -3119,19 +3245,19 @@
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
+        <v>224</v>
+      </c>
+      <c r="B98" t="s">
+        <v>21</v>
+      </c>
+      <c r="C98" t="s">
+        <v>12</v>
+      </c>
+      <c r="D98" t="s">
+        <v>25</v>
+      </c>
+      <c r="E98" t="s">
         <v>225</v>
-      </c>
-      <c r="B98" t="s">
-        <v>22</v>
-      </c>
-      <c r="C98" t="s">
-        <v>12</v>
-      </c>
-      <c r="D98" t="s">
-        <v>26</v>
-      </c>
-      <c r="E98" t="s">
-        <v>226</v>
       </c>
       <c r="F98" s="1">
         <v>44833.983900462961</v>
@@ -3139,19 +3265,19 @@
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
+        <v>226</v>
+      </c>
+      <c r="B99" t="s">
+        <v>21</v>
+      </c>
+      <c r="C99" t="s">
+        <v>12</v>
+      </c>
+      <c r="D99" t="s">
+        <v>25</v>
+      </c>
+      <c r="E99" t="s">
         <v>227</v>
-      </c>
-      <c r="B99" t="s">
-        <v>22</v>
-      </c>
-      <c r="C99" t="s">
-        <v>12</v>
-      </c>
-      <c r="D99" t="s">
-        <v>26</v>
-      </c>
-      <c r="E99" t="s">
-        <v>228</v>
       </c>
       <c r="F99" s="1">
         <v>44833.984224537038</v>
@@ -3159,7 +3285,7 @@
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B100" t="s">
         <v>11</v>
@@ -3168,10 +3294,10 @@
         <v>12</v>
       </c>
       <c r="D100" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E100" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="F100" s="1">
         <v>44838.006655092591</v>
@@ -3179,7 +3305,7 @@
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B101" t="s">
         <v>11</v>
@@ -3188,10 +3314,10 @@
         <v>12</v>
       </c>
       <c r="D101" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E101" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="F101" s="1">
         <v>44838.006979166668</v>
@@ -3199,7 +3325,7 @@
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B102" t="s">
         <v>11</v>
@@ -3208,10 +3334,10 @@
         <v>12</v>
       </c>
       <c r="D102" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E102" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="F102" s="1">
         <v>44838.007048611114</v>
@@ -3219,7 +3345,7 @@
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B103" t="s">
         <v>11</v>
@@ -3228,10 +3354,10 @@
         <v>12</v>
       </c>
       <c r="D103" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E103" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="F103" s="1">
         <v>44838.007106481484</v>
@@ -3239,7 +3365,7 @@
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B104" t="s">
         <v>11</v>
@@ -3248,10 +3374,10 @@
         <v>12</v>
       </c>
       <c r="D104" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E104" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="F104" s="1">
         <v>44838.007175925923</v>
@@ -3259,7 +3385,7 @@
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B105" t="s">
         <v>11</v>
@@ -3268,10 +3394,10 @@
         <v>12</v>
       </c>
       <c r="D105" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E105" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="F105" s="1">
         <v>44838.0075</v>
@@ -3279,7 +3405,7 @@
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B106" t="s">
         <v>11</v>
@@ -3288,10 +3414,10 @@
         <v>12</v>
       </c>
       <c r="D106" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E106" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="F106" s="1">
         <v>44838.007824074077</v>
@@ -3299,7 +3425,7 @@
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B107" t="s">
         <v>11</v>
@@ -3308,10 +3434,10 @@
         <v>12</v>
       </c>
       <c r="D107" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E107" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="F107" s="1">
         <v>44838.008148148147</v>
@@ -3319,7 +3445,7 @@
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B108" t="s">
         <v>11</v>
@@ -3328,10 +3454,10 @@
         <v>12</v>
       </c>
       <c r="D108" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E108" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="F108" s="1">
         <v>44838.008217592593</v>
@@ -3339,7 +3465,7 @@
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B109" t="s">
         <v>11</v>
@@ -3348,10 +3474,10 @@
         <v>12</v>
       </c>
       <c r="D109" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E109" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="F109" s="1">
         <v>44838.008275462962</v>
@@ -3359,19 +3485,19 @@
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
+        <v>248</v>
+      </c>
+      <c r="B110" t="s">
+        <v>22</v>
+      </c>
+      <c r="C110" t="s">
+        <v>12</v>
+      </c>
+      <c r="D110" t="s">
+        <v>30</v>
+      </c>
+      <c r="E110" t="s">
         <v>249</v>
-      </c>
-      <c r="B110" t="s">
-        <v>23</v>
-      </c>
-      <c r="C110" t="s">
-        <v>12</v>
-      </c>
-      <c r="D110" t="s">
-        <v>31</v>
-      </c>
-      <c r="E110" t="s">
-        <v>250</v>
       </c>
       <c r="F110" s="1">
         <v>44838.00886574074</v>
@@ -3379,19 +3505,19 @@
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
+        <v>250</v>
+      </c>
+      <c r="B111" t="s">
+        <v>22</v>
+      </c>
+      <c r="C111" t="s">
+        <v>12</v>
+      </c>
+      <c r="D111" t="s">
+        <v>25</v>
+      </c>
+      <c r="E111" t="s">
         <v>251</v>
-      </c>
-      <c r="B111" t="s">
-        <v>23</v>
-      </c>
-      <c r="C111" t="s">
-        <v>12</v>
-      </c>
-      <c r="D111" t="s">
-        <v>26</v>
-      </c>
-      <c r="E111" t="s">
-        <v>252</v>
       </c>
       <c r="F111" s="1">
         <v>44838.009571759256</v>
@@ -3399,19 +3525,19 @@
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
+        <v>252</v>
+      </c>
+      <c r="B112" t="s">
+        <v>22</v>
+      </c>
+      <c r="C112" t="s">
+        <v>12</v>
+      </c>
+      <c r="D112" t="s">
+        <v>30</v>
+      </c>
+      <c r="E112" t="s">
         <v>253</v>
-      </c>
-      <c r="B112" t="s">
-        <v>23</v>
-      </c>
-      <c r="C112" t="s">
-        <v>12</v>
-      </c>
-      <c r="D112" t="s">
-        <v>31</v>
-      </c>
-      <c r="E112" t="s">
-        <v>254</v>
       </c>
       <c r="F112" s="1">
         <v>44838.011458333334</v>
@@ -3419,19 +3545,19 @@
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
+        <v>254</v>
+      </c>
+      <c r="B113" t="s">
+        <v>22</v>
+      </c>
+      <c r="C113" t="s">
+        <v>12</v>
+      </c>
+      <c r="D113" t="s">
+        <v>30</v>
+      </c>
+      <c r="E113" t="s">
         <v>255</v>
-      </c>
-      <c r="B113" t="s">
-        <v>23</v>
-      </c>
-      <c r="C113" t="s">
-        <v>12</v>
-      </c>
-      <c r="D113" t="s">
-        <v>31</v>
-      </c>
-      <c r="E113" t="s">
-        <v>256</v>
       </c>
       <c r="F113" s="1">
         <v>44838.01152777778</v>
@@ -3439,19 +3565,19 @@
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
+        <v>256</v>
+      </c>
+      <c r="B114" t="s">
+        <v>22</v>
+      </c>
+      <c r="C114" t="s">
+        <v>12</v>
+      </c>
+      <c r="D114" t="s">
+        <v>30</v>
+      </c>
+      <c r="E114" t="s">
         <v>257</v>
-      </c>
-      <c r="B114" t="s">
-        <v>23</v>
-      </c>
-      <c r="C114" t="s">
-        <v>12</v>
-      </c>
-      <c r="D114" t="s">
-        <v>31</v>
-      </c>
-      <c r="E114" t="s">
-        <v>258</v>
       </c>
       <c r="F114" s="1">
         <v>44838.011597222219</v>
@@ -3459,19 +3585,19 @@
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
+        <v>258</v>
+      </c>
+      <c r="B115" t="s">
+        <v>22</v>
+      </c>
+      <c r="C115" t="s">
+        <v>12</v>
+      </c>
+      <c r="D115" t="s">
+        <v>30</v>
+      </c>
+      <c r="E115" t="s">
         <v>259</v>
-      </c>
-      <c r="B115" t="s">
-        <v>23</v>
-      </c>
-      <c r="C115" t="s">
-        <v>12</v>
-      </c>
-      <c r="D115" t="s">
-        <v>31</v>
-      </c>
-      <c r="E115" t="s">
-        <v>260</v>
       </c>
       <c r="F115" s="1">
         <v>44838.011666666665</v>
@@ -3479,19 +3605,19 @@
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
+        <v>260</v>
+      </c>
+      <c r="B116" t="s">
+        <v>22</v>
+      </c>
+      <c r="C116" t="s">
+        <v>12</v>
+      </c>
+      <c r="D116" t="s">
+        <v>30</v>
+      </c>
+      <c r="E116" t="s">
         <v>261</v>
-      </c>
-      <c r="B116" t="s">
-        <v>23</v>
-      </c>
-      <c r="C116" t="s">
-        <v>12</v>
-      </c>
-      <c r="D116" t="s">
-        <v>31</v>
-      </c>
-      <c r="E116" t="s">
-        <v>262</v>
       </c>
       <c r="F116" s="1">
         <v>44838.011724537035</v>
@@ -3499,19 +3625,19 @@
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
+        <v>262</v>
+      </c>
+      <c r="B117" t="s">
+        <v>22</v>
+      </c>
+      <c r="C117" t="s">
+        <v>12</v>
+      </c>
+      <c r="D117" t="s">
+        <v>30</v>
+      </c>
+      <c r="E117" t="s">
         <v>263</v>
-      </c>
-      <c r="B117" t="s">
-        <v>23</v>
-      </c>
-      <c r="C117" t="s">
-        <v>12</v>
-      </c>
-      <c r="D117" t="s">
-        <v>31</v>
-      </c>
-      <c r="E117" t="s">
-        <v>264</v>
       </c>
       <c r="F117" s="1">
         <v>44838.011793981481</v>
@@ -3519,19 +3645,19 @@
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
+        <v>264</v>
+      </c>
+      <c r="B118" t="s">
+        <v>22</v>
+      </c>
+      <c r="C118" t="s">
+        <v>12</v>
+      </c>
+      <c r="D118" t="s">
+        <v>30</v>
+      </c>
+      <c r="E118" t="s">
         <v>265</v>
-      </c>
-      <c r="B118" t="s">
-        <v>23</v>
-      </c>
-      <c r="C118" t="s">
-        <v>12</v>
-      </c>
-      <c r="D118" t="s">
-        <v>31</v>
-      </c>
-      <c r="E118" t="s">
-        <v>266</v>
       </c>
       <c r="F118" s="1">
         <v>44838.011863425927</v>
@@ -3539,22 +3665,422 @@
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
+        <v>266</v>
+      </c>
+      <c r="B119" t="s">
+        <v>22</v>
+      </c>
+      <c r="C119" t="s">
+        <v>12</v>
+      </c>
+      <c r="D119" t="s">
+        <v>30</v>
+      </c>
+      <c r="E119" t="s">
         <v>267</v>
-      </c>
-      <c r="B119" t="s">
-        <v>23</v>
-      </c>
-      <c r="C119" t="s">
-        <v>12</v>
-      </c>
-      <c r="D119" t="s">
-        <v>31</v>
-      </c>
-      <c r="E119" t="s">
-        <v>268</v>
       </c>
       <c r="F119" s="1">
         <v>44838.011921296296</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A120" t="s">
+        <v>271</v>
+      </c>
+      <c r="B120" t="s">
+        <v>11</v>
+      </c>
+      <c r="C120" t="s">
+        <v>12</v>
+      </c>
+      <c r="D120" t="s">
+        <v>30</v>
+      </c>
+      <c r="E120" t="s">
+        <v>272</v>
+      </c>
+      <c r="F120" s="1">
+        <v>44839.885474537034</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A121" t="s">
+        <v>273</v>
+      </c>
+      <c r="B121" t="s">
+        <v>11</v>
+      </c>
+      <c r="C121" t="s">
+        <v>12</v>
+      </c>
+      <c r="D121" t="s">
+        <v>30</v>
+      </c>
+      <c r="E121" t="s">
+        <v>274</v>
+      </c>
+      <c r="F121" s="1">
+        <v>44839.88554398148</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A122" t="s">
+        <v>275</v>
+      </c>
+      <c r="B122" t="s">
+        <v>11</v>
+      </c>
+      <c r="C122" t="s">
+        <v>12</v>
+      </c>
+      <c r="D122" t="s">
+        <v>30</v>
+      </c>
+      <c r="E122" t="s">
+        <v>276</v>
+      </c>
+      <c r="F122" s="1">
+        <v>44839.885613425926</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A123" t="s">
+        <v>277</v>
+      </c>
+      <c r="B123" t="s">
+        <v>11</v>
+      </c>
+      <c r="C123" t="s">
+        <v>12</v>
+      </c>
+      <c r="D123" t="s">
+        <v>25</v>
+      </c>
+      <c r="E123" t="s">
+        <v>278</v>
+      </c>
+      <c r="F123" s="1">
+        <v>44839.885937500003</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A124" t="s">
+        <v>279</v>
+      </c>
+      <c r="B124" t="s">
+        <v>11</v>
+      </c>
+      <c r="C124" t="s">
+        <v>12</v>
+      </c>
+      <c r="D124" t="s">
+        <v>30</v>
+      </c>
+      <c r="E124" t="s">
+        <v>280</v>
+      </c>
+      <c r="F124" s="1">
+        <v>44839.885995370372</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A125" t="s">
+        <v>281</v>
+      </c>
+      <c r="B125" t="s">
+        <v>11</v>
+      </c>
+      <c r="C125" t="s">
+        <v>12</v>
+      </c>
+      <c r="D125" t="s">
+        <v>25</v>
+      </c>
+      <c r="E125" t="s">
+        <v>282</v>
+      </c>
+      <c r="F125" s="1">
+        <v>44839.886319444442</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A126" t="s">
+        <v>283</v>
+      </c>
+      <c r="B126" t="s">
+        <v>11</v>
+      </c>
+      <c r="C126" t="s">
+        <v>12</v>
+      </c>
+      <c r="D126" t="s">
+        <v>30</v>
+      </c>
+      <c r="E126" t="s">
+        <v>284</v>
+      </c>
+      <c r="F126" s="1">
+        <v>44839.886388888888</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A127" t="s">
+        <v>285</v>
+      </c>
+      <c r="B127" t="s">
+        <v>11</v>
+      </c>
+      <c r="C127" t="s">
+        <v>12</v>
+      </c>
+      <c r="D127" t="s">
+        <v>30</v>
+      </c>
+      <c r="E127" t="s">
+        <v>286</v>
+      </c>
+      <c r="F127" s="1">
+        <v>44839.886458333334</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A128" t="s">
+        <v>287</v>
+      </c>
+      <c r="B128" t="s">
+        <v>11</v>
+      </c>
+      <c r="C128" t="s">
+        <v>12</v>
+      </c>
+      <c r="D128" t="s">
+        <v>30</v>
+      </c>
+      <c r="E128" t="s">
+        <v>288</v>
+      </c>
+      <c r="F128" s="1">
+        <v>44839.886608796296</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A129" t="s">
+        <v>289</v>
+      </c>
+      <c r="B129" t="s">
+        <v>11</v>
+      </c>
+      <c r="C129" t="s">
+        <v>12</v>
+      </c>
+      <c r="D129" t="s">
+        <v>30</v>
+      </c>
+      <c r="E129" t="s">
+        <v>290</v>
+      </c>
+      <c r="F129" s="1">
+        <v>44839.886666666665</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A130" t="s">
+        <v>291</v>
+      </c>
+      <c r="B130" t="s">
+        <v>15</v>
+      </c>
+      <c r="C130" t="s">
+        <v>12</v>
+      </c>
+      <c r="D130" t="s">
+        <v>25</v>
+      </c>
+      <c r="E130" t="s">
+        <v>292</v>
+      </c>
+      <c r="F130" s="1">
+        <v>44839.89267361111</v>
+      </c>
+    </row>
+    <row r="131" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A131" t="s">
+        <v>293</v>
+      </c>
+      <c r="B131" t="s">
+        <v>15</v>
+      </c>
+      <c r="C131" t="s">
+        <v>12</v>
+      </c>
+      <c r="D131" t="s">
+        <v>30</v>
+      </c>
+      <c r="E131" t="s">
+        <v>294</v>
+      </c>
+      <c r="F131" s="1">
+        <v>44839.892743055556</v>
+      </c>
+    </row>
+    <row r="132" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A132" t="s">
+        <v>295</v>
+      </c>
+      <c r="B132" t="s">
+        <v>15</v>
+      </c>
+      <c r="C132" t="s">
+        <v>12</v>
+      </c>
+      <c r="D132" t="s">
+        <v>25</v>
+      </c>
+      <c r="E132" t="s">
+        <v>296</v>
+      </c>
+      <c r="F132" s="1">
+        <v>44839.893067129633</v>
+      </c>
+    </row>
+    <row r="133" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A133" t="s">
+        <v>297</v>
+      </c>
+      <c r="B133" t="s">
+        <v>15</v>
+      </c>
+      <c r="C133" t="s">
+        <v>12</v>
+      </c>
+      <c r="D133" t="s">
+        <v>30</v>
+      </c>
+      <c r="E133" t="s">
+        <v>298</v>
+      </c>
+      <c r="F133" s="1">
+        <v>44839.893125000002</v>
+      </c>
+    </row>
+    <row r="134" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A134" t="s">
+        <v>299</v>
+      </c>
+      <c r="B134" t="s">
+        <v>15</v>
+      </c>
+      <c r="C134" t="s">
+        <v>12</v>
+      </c>
+      <c r="D134" t="s">
+        <v>30</v>
+      </c>
+      <c r="E134" t="s">
+        <v>300</v>
+      </c>
+      <c r="F134" s="1">
+        <v>44839.893194444441</v>
+      </c>
+    </row>
+    <row r="135" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A135" t="s">
+        <v>301</v>
+      </c>
+      <c r="B135" t="s">
+        <v>15</v>
+      </c>
+      <c r="C135" t="s">
+        <v>12</v>
+      </c>
+      <c r="D135" t="s">
+        <v>25</v>
+      </c>
+      <c r="E135" t="s">
+        <v>302</v>
+      </c>
+      <c r="F135" s="1">
+        <v>44839.893518518518</v>
+      </c>
+    </row>
+    <row r="136" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A136" t="s">
+        <v>303</v>
+      </c>
+      <c r="B136" t="s">
+        <v>15</v>
+      </c>
+      <c r="C136" t="s">
+        <v>12</v>
+      </c>
+      <c r="D136" t="s">
+        <v>30</v>
+      </c>
+      <c r="E136" t="s">
+        <v>304</v>
+      </c>
+      <c r="F136" s="1">
+        <v>44839.893587962964</v>
+      </c>
+    </row>
+    <row r="137" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A137" t="s">
+        <v>305</v>
+      </c>
+      <c r="B137" t="s">
+        <v>15</v>
+      </c>
+      <c r="C137" t="s">
+        <v>12</v>
+      </c>
+      <c r="D137" t="s">
+        <v>30</v>
+      </c>
+      <c r="E137" t="s">
+        <v>306</v>
+      </c>
+      <c r="F137" s="1">
+        <v>44839.893645833334</v>
+      </c>
+    </row>
+    <row r="138" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A138" t="s">
+        <v>307</v>
+      </c>
+      <c r="B138" t="s">
+        <v>15</v>
+      </c>
+      <c r="C138" t="s">
+        <v>12</v>
+      </c>
+      <c r="D138" t="s">
+        <v>25</v>
+      </c>
+      <c r="E138" t="s">
+        <v>308</v>
+      </c>
+      <c r="F138" s="1">
+        <v>44839.893969907411</v>
+      </c>
+    </row>
+    <row r="139" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A139" t="s">
+        <v>309</v>
+      </c>
+      <c r="B139" t="s">
+        <v>15</v>
+      </c>
+      <c r="C139" t="s">
+        <v>12</v>
+      </c>
+      <c r="D139" t="s">
+        <v>25</v>
+      </c>
+      <c r="E139" t="s">
+        <v>310</v>
+      </c>
+      <c r="F139" s="1">
+        <v>44839.894293981481</v>
       </c>
     </row>
   </sheetData>
@@ -3564,10 +4090,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:A9"/>
+  <dimension ref="A1:A11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A9"/>
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3577,7 +4103,7 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
@@ -3587,37 +4113,47 @@
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>23</v>
+        <v>22</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>269</v>
       </c>
     </row>
   </sheetData>

--- a/Docs/Prashant Mewada.xlsx
+++ b/Docs/Prashant Mewada.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Prashant\Documents\UiPath\LinkedInBot\Docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6567A271-5143-41CF-BC39-196067AEFF58}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D83BB39-D5F3-468D-9383-DE6FFC5AC57C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3705" yWindow="4185" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="678" uniqueCount="311">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="773" uniqueCount="355">
   <si>
     <t>Name</t>
   </si>
@@ -960,6 +960,138 @@
   </si>
   <si>
     <t>https://www.linkedin.com/in/divya-c-50b448227</t>
+  </si>
+  <si>
+    <t>Priya Darshini</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/priya-darshini-850448232</t>
+  </si>
+  <si>
+    <t>Priyanka Dash</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/priyanka-dash-7340851a0</t>
+  </si>
+  <si>
+    <t>Pavithra Paritala</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/pavithra-paritala-8578ba250</t>
+  </si>
+  <si>
+    <t>IMRAN SHAIK</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/imran-shaik-4414a5138</t>
+  </si>
+  <si>
+    <t>Divya Dwivedi</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/divya-dwivedi-64a2411b9</t>
+  </si>
+  <si>
+    <t>Revathi Conch</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/revathi-conch-0a880323a</t>
+  </si>
+  <si>
+    <t>Naveen Kumar</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/naveen-kumar-234653b</t>
+  </si>
+  <si>
+    <t>chandrahasa nm</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/chandrahasa-nm-3b568696</t>
+  </si>
+  <si>
+    <t>Ramya Yerramilli</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/ramya-yerramilli-0b094918</t>
+  </si>
+  <si>
+    <t>UIPath MVP</t>
+  </si>
+  <si>
+    <t>United Kingdom</t>
+  </si>
+  <si>
+    <t>Katrina Y.</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/katrina-y-108294b3</t>
+  </si>
+  <si>
+    <t>Swetha K</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/swethahr</t>
+  </si>
+  <si>
+    <t>Julia Tylers</t>
+  </si>
+  <si>
+    <t>Connect - Not Sent - Connections - 13</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/julia-tylers-709a97213</t>
+  </si>
+  <si>
+    <t>Noor Oberoi</t>
+  </si>
+  <si>
+    <t>Connect - Not Sent - Connections - 39</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/noor-oberoi-01307473</t>
+  </si>
+  <si>
+    <t>Radhika Gowda</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/radhika-gowda-8376202b</t>
+  </si>
+  <si>
+    <t>Senthil Sekar</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/senthil-sekar-8547ba84</t>
+  </si>
+  <si>
+    <t>Divya Kumari K</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/divyanayak</t>
+  </si>
+  <si>
+    <t>Suchitra Balakrishna</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/suchitra-balakrishna-b1545426</t>
+  </si>
+  <si>
+    <t>Santhosh Ranganath</t>
+  </si>
+  <si>
+    <t>Connect - Not Sent - Connections - 311</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/santhosh-ranganath-57550151</t>
+  </si>
+  <si>
+    <t>Priyanka Malhotra</t>
+  </si>
+  <si>
+    <t>Connect - Not Sent - Connections - 168</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/priyanka-malhotra-756b8495</t>
   </si>
 </sst>
 </file>
@@ -1280,7 +1412,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
@@ -1341,13 +1473,13 @@
         <v>12</v>
       </c>
       <c r="D3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E3" s="1">
-        <v>44839.886736111112</v>
+        <v>44841.962175925924</v>
       </c>
       <c r="F3" t="s">
-        <v>14</v>
+        <v>270</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -1364,10 +1496,10 @@
         <v>3</v>
       </c>
       <c r="E4" s="1">
-        <v>44839.894606481481</v>
+        <v>44841.921180555553</v>
       </c>
       <c r="F4" t="s">
-        <v>270</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -1498,15 +1630,17 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:H139"/>
+  <dimension ref="A1:H158"/>
   <sheetViews>
-    <sheetView topLeftCell="A94" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A130" workbookViewId="0">
+      <selection activeCell="H141" sqref="H141"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="23.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="35.5703125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10.28515625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="15.5703125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="12" bestFit="1" customWidth="1"/>
@@ -4081,6 +4215,386 @@
       </c>
       <c r="F139" s="1">
         <v>44839.894293981481</v>
+      </c>
+    </row>
+    <row r="140" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A140" t="s">
+        <v>311</v>
+      </c>
+      <c r="B140" t="s">
+        <v>15</v>
+      </c>
+      <c r="C140" t="s">
+        <v>12</v>
+      </c>
+      <c r="D140" t="s">
+        <v>25</v>
+      </c>
+      <c r="E140" t="s">
+        <v>312</v>
+      </c>
+      <c r="F140" s="1">
+        <v>44841.917442129627</v>
+      </c>
+    </row>
+    <row r="141" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A141" t="s">
+        <v>313</v>
+      </c>
+      <c r="B141" t="s">
+        <v>15</v>
+      </c>
+      <c r="C141" t="s">
+        <v>12</v>
+      </c>
+      <c r="D141" t="s">
+        <v>27</v>
+      </c>
+      <c r="E141" t="s">
+        <v>314</v>
+      </c>
+      <c r="F141" s="1">
+        <v>44841.917685185188</v>
+      </c>
+    </row>
+    <row r="142" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A142" t="s">
+        <v>315</v>
+      </c>
+      <c r="B142" t="s">
+        <v>15</v>
+      </c>
+      <c r="C142" t="s">
+        <v>12</v>
+      </c>
+      <c r="D142" t="s">
+        <v>25</v>
+      </c>
+      <c r="E142" t="s">
+        <v>316</v>
+      </c>
+      <c r="F142" s="1">
+        <v>44841.918078703704</v>
+      </c>
+    </row>
+    <row r="143" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A143" t="s">
+        <v>317</v>
+      </c>
+      <c r="B143" t="s">
+        <v>15</v>
+      </c>
+      <c r="C143" t="s">
+        <v>12</v>
+      </c>
+      <c r="D143" t="s">
+        <v>27</v>
+      </c>
+      <c r="E143" t="s">
+        <v>318</v>
+      </c>
+      <c r="F143" s="1">
+        <v>44841.918599537035</v>
+      </c>
+    </row>
+    <row r="144" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A144" t="s">
+        <v>319</v>
+      </c>
+      <c r="B144" t="s">
+        <v>15</v>
+      </c>
+      <c r="C144" t="s">
+        <v>12</v>
+      </c>
+      <c r="D144" t="s">
+        <v>25</v>
+      </c>
+      <c r="E144" t="s">
+        <v>320</v>
+      </c>
+      <c r="F144" s="1">
+        <v>44841.918993055559</v>
+      </c>
+    </row>
+    <row r="145" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A145" t="s">
+        <v>321</v>
+      </c>
+      <c r="B145" t="s">
+        <v>15</v>
+      </c>
+      <c r="C145" t="s">
+        <v>12</v>
+      </c>
+      <c r="D145" t="s">
+        <v>25</v>
+      </c>
+      <c r="E145" t="s">
+        <v>322</v>
+      </c>
+      <c r="F145" s="1">
+        <v>44841.919421296298</v>
+      </c>
+    </row>
+    <row r="146" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A146" t="s">
+        <v>323</v>
+      </c>
+      <c r="B146" t="s">
+        <v>15</v>
+      </c>
+      <c r="C146" t="s">
+        <v>12</v>
+      </c>
+      <c r="D146" t="s">
+        <v>30</v>
+      </c>
+      <c r="E146" t="s">
+        <v>324</v>
+      </c>
+      <c r="F146" s="1">
+        <v>44841.919814814813</v>
+      </c>
+    </row>
+    <row r="147" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A147" t="s">
+        <v>325</v>
+      </c>
+      <c r="B147" t="s">
+        <v>15</v>
+      </c>
+      <c r="C147" t="s">
+        <v>12</v>
+      </c>
+      <c r="D147" t="s">
+        <v>30</v>
+      </c>
+      <c r="E147" t="s">
+        <v>326</v>
+      </c>
+      <c r="F147" s="1">
+        <v>44841.920173611114</v>
+      </c>
+    </row>
+    <row r="148" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A148" t="s">
+        <v>327</v>
+      </c>
+      <c r="B148" t="s">
+        <v>15</v>
+      </c>
+      <c r="C148" t="s">
+        <v>12</v>
+      </c>
+      <c r="D148" t="s">
+        <v>30</v>
+      </c>
+      <c r="E148" t="s">
+        <v>328</v>
+      </c>
+      <c r="F148" s="1">
+        <v>44841.920914351853</v>
+      </c>
+    </row>
+    <row r="149" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A149" t="s">
+        <v>331</v>
+      </c>
+      <c r="B149" t="s">
+        <v>329</v>
+      </c>
+      <c r="C149" t="s">
+        <v>330</v>
+      </c>
+      <c r="D149" t="s">
+        <v>44</v>
+      </c>
+      <c r="E149" t="s">
+        <v>332</v>
+      </c>
+      <c r="F149" s="1">
+        <v>44841.955740740741</v>
+      </c>
+    </row>
+    <row r="150" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A150" t="s">
+        <v>333</v>
+      </c>
+      <c r="B150" t="s">
+        <v>11</v>
+      </c>
+      <c r="C150" t="s">
+        <v>12</v>
+      </c>
+      <c r="D150" t="s">
+        <v>25</v>
+      </c>
+      <c r="E150" t="s">
+        <v>334</v>
+      </c>
+      <c r="F150" s="1">
+        <v>44841.960196759261</v>
+      </c>
+    </row>
+    <row r="151" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A151" t="s">
+        <v>335</v>
+      </c>
+      <c r="B151" t="s">
+        <v>11</v>
+      </c>
+      <c r="C151" t="s">
+        <v>12</v>
+      </c>
+      <c r="D151" t="s">
+        <v>336</v>
+      </c>
+      <c r="E151" t="s">
+        <v>337</v>
+      </c>
+      <c r="F151" s="1">
+        <v>44841.960312499999</v>
+      </c>
+    </row>
+    <row r="152" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A152" t="s">
+        <v>338</v>
+      </c>
+      <c r="B152" t="s">
+        <v>11</v>
+      </c>
+      <c r="C152" t="s">
+        <v>12</v>
+      </c>
+      <c r="D152" t="s">
+        <v>339</v>
+      </c>
+      <c r="E152" t="s">
+        <v>340</v>
+      </c>
+      <c r="F152" s="1">
+        <v>44841.960428240738</v>
+      </c>
+    </row>
+    <row r="153" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A153" t="s">
+        <v>341</v>
+      </c>
+      <c r="B153" t="s">
+        <v>11</v>
+      </c>
+      <c r="C153" t="s">
+        <v>12</v>
+      </c>
+      <c r="D153" t="s">
+        <v>30</v>
+      </c>
+      <c r="E153" t="s">
+        <v>342</v>
+      </c>
+      <c r="F153" s="1">
+        <v>44841.960752314815</v>
+      </c>
+    </row>
+    <row r="154" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A154" t="s">
+        <v>343</v>
+      </c>
+      <c r="B154" t="s">
+        <v>11</v>
+      </c>
+      <c r="C154" t="s">
+        <v>12</v>
+      </c>
+      <c r="D154" t="s">
+        <v>30</v>
+      </c>
+      <c r="E154" t="s">
+        <v>344</v>
+      </c>
+      <c r="F154" s="1">
+        <v>44841.961087962962</v>
+      </c>
+    </row>
+    <row r="155" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A155" t="s">
+        <v>345</v>
+      </c>
+      <c r="B155" t="s">
+        <v>11</v>
+      </c>
+      <c r="C155" t="s">
+        <v>12</v>
+      </c>
+      <c r="D155" t="s">
+        <v>30</v>
+      </c>
+      <c r="E155" t="s">
+        <v>346</v>
+      </c>
+      <c r="F155" s="1">
+        <v>44841.961435185185</v>
+      </c>
+    </row>
+    <row r="156" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A156" t="s">
+        <v>347</v>
+      </c>
+      <c r="B156" t="s">
+        <v>11</v>
+      </c>
+      <c r="C156" t="s">
+        <v>12</v>
+      </c>
+      <c r="D156" t="s">
+        <v>30</v>
+      </c>
+      <c r="E156" t="s">
+        <v>348</v>
+      </c>
+      <c r="F156" s="1">
+        <v>44841.961782407408</v>
+      </c>
+    </row>
+    <row r="157" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A157" t="s">
+        <v>349</v>
+      </c>
+      <c r="B157" t="s">
+        <v>11</v>
+      </c>
+      <c r="C157" t="s">
+        <v>12</v>
+      </c>
+      <c r="D157" t="s">
+        <v>350</v>
+      </c>
+      <c r="E157" t="s">
+        <v>351</v>
+      </c>
+      <c r="F157" s="1">
+        <v>44841.961898148147</v>
+      </c>
+    </row>
+    <row r="158" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A158" t="s">
+        <v>352</v>
+      </c>
+      <c r="B158" t="s">
+        <v>11</v>
+      </c>
+      <c r="C158" t="s">
+        <v>12</v>
+      </c>
+      <c r="D158" t="s">
+        <v>353</v>
+      </c>
+      <c r="E158" t="s">
+        <v>354</v>
+      </c>
+      <c r="F158" s="1">
+        <v>44841.962013888886</v>
       </c>
     </row>
   </sheetData>

--- a/Docs/Prashant Mewada.xlsx
+++ b/Docs/Prashant Mewada.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Prashant\Documents\UiPath\LinkedInBot\Docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3FF882B-B513-43CE-909B-DDBD7DDDD626}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5160BF12-1934-45D2-8C70-DEBC9057E17C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1995" yWindow="3660" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12700" uniqueCount="5421">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13352" uniqueCount="5678">
   <si>
     <t>Name</t>
   </si>
@@ -16290,6 +16290,777 @@
   </si>
   <si>
     <t>https://www.linkedin.com/in/ruby-singh-4a5b6625a</t>
+  </si>
+  <si>
+    <t>jayadeepa gudey</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/jayadeepa-gudey-364827100</t>
+  </si>
+  <si>
+    <t>Deepika Padmaraj</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/deepika-padmaraj-705b48105</t>
+  </si>
+  <si>
+    <t>Puneeth Sarkar</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/puneeth-sarkar-561a09b6</t>
+  </si>
+  <si>
+    <t>Ashwini Nasi</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/ashwini-nasi-89202aa</t>
+  </si>
+  <si>
+    <t>Akansha S</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/akansha-s-6474941ab</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/ashwini-nasi-15537350</t>
+  </si>
+  <si>
+    <t>Barnali Barman</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/barnali-barman-25380861</t>
+  </si>
+  <si>
+    <t>amruta dixit</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/amruta-dixit-77619019a</t>
+  </si>
+  <si>
+    <t>Rishabh Waghwani</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/rishabh-waghwani-841706129</t>
+  </si>
+  <si>
+    <t>sonal priya</t>
+  </si>
+  <si>
+    <t>Message - Not Sent - Connections - 435</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/sonal-priya-92465663</t>
+  </si>
+  <si>
+    <t>Richa Arora</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/richa-arora-550656237</t>
+  </si>
+  <si>
+    <t>Mayuri Thanki</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/mayuri-thanki-29b70726</t>
+  </si>
+  <si>
+    <t>Darshan T.</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/darshan-t-8439b4212</t>
+  </si>
+  <si>
+    <t>Sonali Singh</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/sonali-singh-9222a7217</t>
+  </si>
+  <si>
+    <t>Anjali Rathod</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/anjali-gawde-prof</t>
+  </si>
+  <si>
+    <t>Ayushi Dedhia</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/ayushi-dedhia-1849391b0</t>
+  </si>
+  <si>
+    <t>Nazneen Shaikh</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/nazneen-shaikh-007397235</t>
+  </si>
+  <si>
+    <t>Pooja .</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/pooja-bari</t>
+  </si>
+  <si>
+    <t>PRIYAL SHIVALKAR</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/priyal-shivalkar-62ba5b107</t>
+  </si>
+  <si>
+    <t>Archana Chauhan</t>
+  </si>
+  <si>
+    <t>Connect - Not Sent - Connections - 127</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/archana-chauhan-a82201238</t>
+  </si>
+  <si>
+    <t>Rupa Jha</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/rupa-jha-579955235</t>
+  </si>
+  <si>
+    <t>Sharon Barnes</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/sharon-dsouza-8208601a</t>
+  </si>
+  <si>
+    <t>Mehak Nayak</t>
+  </si>
+  <si>
+    <t>Message - Not Sent - Connections - 176</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/mehak-nayak-8b3b62257</t>
+  </si>
+  <si>
+    <t>Mohd Aslam</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/mohd-aslam-5186117b</t>
+  </si>
+  <si>
+    <t>Umesh Mishra</t>
+  </si>
+  <si>
+    <t>Follow - Not Sent - Connections - 264</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/umesh-mishra-4b3784255</t>
+  </si>
+  <si>
+    <t>Deepti Sharma</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/deepti-sharma-16914825b</t>
+  </si>
+  <si>
+    <t>Taimoor Gardezi</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/taimoor-gardezi-141250225</t>
+  </si>
+  <si>
+    <t>Farhana Bano</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/farhana-bano-743376243</t>
+  </si>
+  <si>
+    <t>Message - Not Sent - Connections - 442</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/mehvishahmad</t>
+  </si>
+  <si>
+    <t>Hardik Solanki</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/hardik-solanki-150850205</t>
+  </si>
+  <si>
+    <t>Umam Shaikh</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/umam-shaikh-98462a215</t>
+  </si>
+  <si>
+    <t>sheetal kaul</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/sheetal-kaul</t>
+  </si>
+  <si>
+    <t>Sejal Pednekar</t>
+  </si>
+  <si>
+    <t>Message - Not Sent - Connections - 188</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/sejal-pednekar-858632137</t>
+  </si>
+  <si>
+    <t>K Acharya</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/k-acharya-59688b3b</t>
+  </si>
+  <si>
+    <t>Aastha Salian</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/aastha-salian-63aa8b21a</t>
+  </si>
+  <si>
+    <t>Shruti Nikam</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/shruti-nikam-398331140</t>
+  </si>
+  <si>
+    <t>cresset kinny</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/cresset-kinny-95733b152</t>
+  </si>
+  <si>
+    <t>Anam Shamim</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/anam-shamim-a837bb147</t>
+  </si>
+  <si>
+    <t>Maureen D'souza</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/maureen-d-souza-4663b0203</t>
+  </si>
+  <si>
+    <t>Omkar Warang</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/omkar-warang-09299975</t>
+  </si>
+  <si>
+    <t>Tejaswini sutar</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/tejaswini-sutar-440125104</t>
+  </si>
+  <si>
+    <t>Gayatri Keny</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/gayatri-keny-743b34169</t>
+  </si>
+  <si>
+    <t>Neetu Kabra</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/neetu-kabra-40705417b</t>
+  </si>
+  <si>
+    <t>Shweta Sharma</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/shweta-sharma-588267a4</t>
+  </si>
+  <si>
+    <t>Mukesh Solanki</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/mukesh-solanki-557170249</t>
+  </si>
+  <si>
+    <t>ruki panigrahy</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/ruki-panigrahy-48a336240</t>
+  </si>
+  <si>
+    <t>Jui Avin</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/jui-avin-86a632241</t>
+  </si>
+  <si>
+    <t>Shreya Kajrolkar</t>
+  </si>
+  <si>
+    <t>Follow - Not Sent - Connections - 193</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/shreya-kajrolkar</t>
+  </si>
+  <si>
+    <t>Manisha Kadam</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/manisha-kadam-1534b2240</t>
+  </si>
+  <si>
+    <t>Nia Rai</t>
+  </si>
+  <si>
+    <t>Follow - Not Sent - Connections - 103</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/nia-rai</t>
+  </si>
+  <si>
+    <t>Kaneez Fatima Syed</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/kaneez-fatima-syed-758a04249</t>
+  </si>
+  <si>
+    <t>Amara Reddy</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/amara-reddy-74522a16a</t>
+  </si>
+  <si>
+    <t>Umashree M</t>
+  </si>
+  <si>
+    <t>Message - Not Sent - Connections - 138</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/umashree-m-574a1946</t>
+  </si>
+  <si>
+    <t>Christin Asha</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/christin-asha-7574bb12a</t>
+  </si>
+  <si>
+    <t>sania zainab</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/sania-zainab-625b1889</t>
+  </si>
+  <si>
+    <t>Durga Anjini Dokkada</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/durga-anjini-dokkada-a6092921</t>
+  </si>
+  <si>
+    <t>Soma Shaikh</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/soma-shaikh-5b426488</t>
+  </si>
+  <si>
+    <t>Manju Dhivar</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/manju-dhivar-8671886</t>
+  </si>
+  <si>
+    <t>Rutuja Divekar</t>
+  </si>
+  <si>
+    <t>Message - Not Sent - Connections - 100</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/rutuja-divekar-247ba942</t>
+  </si>
+  <si>
+    <t>Aayushi Sonawane</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/aayushi-sonawane-571672226</t>
+  </si>
+  <si>
+    <t>Ishita Roy</t>
+  </si>
+  <si>
+    <t>Message - Not Sent - Connections - 295</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/ishita-roy-262709230</t>
+  </si>
+  <si>
+    <t>Meghna Singh</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/meghna-singh-34b873226</t>
+  </si>
+  <si>
+    <t>Sara Khan</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/sara-khan-a1494821a</t>
+  </si>
+  <si>
+    <t>Kajal Singh</t>
+  </si>
+  <si>
+    <t>Connect - Not Sent - Connections - 223</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/kajal-singh-14b2bb205</t>
+  </si>
+  <si>
+    <t>Pravalika Kothakonda</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/pravalika-kothakonda-0387b8230</t>
+  </si>
+  <si>
+    <t>Atika Mirza</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/atika-mirza-257239234</t>
+  </si>
+  <si>
+    <t>Aishwarya Pagare</t>
+  </si>
+  <si>
+    <t>Connect - Not Sent - Connections - 308</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/aishwarya-pagare-a41447197</t>
+  </si>
+  <si>
+    <t>Udit Joiser</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/udit-joiser-1b5b2056</t>
+  </si>
+  <si>
+    <t>Saroj Gupta</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/saroj-gupta-927013239</t>
+  </si>
+  <si>
+    <t>Manasi K</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/manasi-k-0a5336244</t>
+  </si>
+  <si>
+    <t>Harikrishna D</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/harikrishna-d-286587244</t>
+  </si>
+  <si>
+    <t>Tejal Kambli</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/tejal-kambli-4a8307249</t>
+  </si>
+  <si>
+    <t>Pawan Thakare</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/pawan-thakare-945641254</t>
+  </si>
+  <si>
+    <t>Sanjay Das</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/sanjay-das-87b1b1239</t>
+  </si>
+  <si>
+    <t>Ashwini das</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/ashwini-das-29b85723b</t>
+  </si>
+  <si>
+    <t>Nandini D</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/nandini-d-0925a6249</t>
+  </si>
+  <si>
+    <t>Pooja Mehta</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/pooja-mehta-1ab5472a</t>
+  </si>
+  <si>
+    <t>Dilip Sinha</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/dilip-sinha-766364a</t>
+  </si>
+  <si>
+    <t>Samridhi Dutta</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/samridhi-dutta-142018145</t>
+  </si>
+  <si>
+    <t>Vaibhav Patel</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/vaibhav-patel-8814a9196</t>
+  </si>
+  <si>
+    <t>Swati Udupa</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/swati-udupa-924a5a124</t>
+  </si>
+  <si>
+    <t>ASMITA TAMBE</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/asmita-tambe-68773a169</t>
+  </si>
+  <si>
+    <t>Riya Singh</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/riya-singh-ab4787223</t>
+  </si>
+  <si>
+    <t>Muskaan .</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/muskaan-b35822231</t>
+  </si>
+  <si>
+    <t>Pranavi Gundeti</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/pranavi-gundeti-79414795</t>
+  </si>
+  <si>
+    <t>Santosh Bhuj</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/santosh-bhuj-04645a51</t>
+  </si>
+  <si>
+    <t>shivani mishra</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/shivani-mishra-609a5b129</t>
+  </si>
+  <si>
+    <t>Samia Patel</t>
+  </si>
+  <si>
+    <t>Connect - Not Sent - Connections - 379</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/samia-patel-03b982214</t>
+  </si>
+  <si>
+    <t>Bhavika More</t>
+  </si>
+  <si>
+    <t>Message - Not Sent - Connections - 110</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/bhavika-more-2b2a27166</t>
+  </si>
+  <si>
+    <t>Shalaka Naik</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/shalaka-naik-81106021</t>
+  </si>
+  <si>
+    <t>Snehal Chaudhari</t>
+  </si>
+  <si>
+    <t>Message - Not Sent - Connections - 114</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/snehal-chaudhari-018a47183</t>
+  </si>
+  <si>
+    <t>Raksha Shetty</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/raksha-shetty-88591831</t>
+  </si>
+  <si>
+    <t>Yamini Soni</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/yamini-soni-68b806120</t>
+  </si>
+  <si>
+    <t>Tejaswita Pathak</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/tejaswita-pathak-5290a4244</t>
+  </si>
+  <si>
+    <t>Karuna Garud</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/karuna-garud-b49181251</t>
+  </si>
+  <si>
+    <t>Vidyaarthyee C</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/vidyaarthyee-c-263636245</t>
+  </si>
+  <si>
+    <t>Azhar H</t>
+  </si>
+  <si>
+    <t>Message - Not Sent - Connections - 116</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/azhar-h-a79224239</t>
+  </si>
+  <si>
+    <t>Pratibha Kshirsagar</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/pratibha-kshirsagar-3a7a6924a</t>
+  </si>
+  <si>
+    <t>Vinisa .</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/vinisa-225215246</t>
+  </si>
+  <si>
+    <t>Zain Khan</t>
+  </si>
+  <si>
+    <t>Follow - Not Sent - Connections - 454</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/zain-khan-359887256</t>
+  </si>
+  <si>
+    <t>Sangita Mukherjee</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/sangita-mukherjee-54286b187/</t>
+  </si>
+  <si>
+    <t>Ashwini Mali</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/ashwini-mali-4062101a4</t>
+  </si>
+  <si>
+    <t>Jhanvi Vyas</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/jhanvi-vyas-111761229</t>
+  </si>
+  <si>
+    <t>Samanata Saini</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/samanata-saini-a34016157</t>
+  </si>
+  <si>
+    <t>Poonam Awachar</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/poonam-awachar-4a9780158</t>
+  </si>
+  <si>
+    <t>Anamika Kumar</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/anamika-kumar-8b485493</t>
+  </si>
+  <si>
+    <t>Lakshmi Kargaonkar</t>
+  </si>
+  <si>
+    <t>Connect - Not Sent - Connections - 375</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/lakshmi-kargaonkar-10613615</t>
+  </si>
+  <si>
+    <t>Amruta Dalvi</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/amruta-dalvi-9205861ab</t>
+  </si>
+  <si>
+    <t>Komal Sutar</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/komal-sutar-8a4666234</t>
+  </si>
+  <si>
+    <t>Farzeen Baig</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/farzeen-baig-460094117</t>
+  </si>
+  <si>
+    <t>Ujjwal Singh</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/ujjwal-singh-19411219b</t>
+  </si>
+  <si>
+    <t>Kirti Phulwani</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/kirti-phulwani-230513141</t>
+  </si>
+  <si>
+    <t>vaishnavi dhavale</t>
+  </si>
+  <si>
+    <t>Follow - Not Sent - Connections - 491</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/vaishnavi-dhavale-145244196</t>
+  </si>
+  <si>
+    <t>Jyotsna Gunjate</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/jyotsna-gunjate-05b6129b</t>
+  </si>
+  <si>
+    <t>Ashu N</t>
+  </si>
+  <si>
+    <t>Follow - Not Sent - Connections - 122</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/ashu-n-62509518</t>
+  </si>
+  <si>
+    <t>Priya Mehta</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/priya-mehta-aa63499</t>
+  </si>
+  <si>
+    <t>Sachin gupta</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/sachin-gupta-80b37b198</t>
+  </si>
+  <si>
+    <t>Jash Mhatre</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/jash-mhatre-702582212</t>
+  </si>
+  <si>
+    <t>Apurva N.</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/apurva-n-563853122</t>
   </si>
 </sst>
 </file>
@@ -16610,8 +17381,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F23" sqref="F19:F23"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16757,13 +17528,13 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E7" s="1">
-        <v>44922.853912037041</v>
+        <v>44924.868252314816</v>
       </c>
       <c r="F7" t="s">
-        <v>4560</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
@@ -16837,13 +17608,13 @@
         <v>354</v>
       </c>
       <c r="D11">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E11" s="1">
-        <v>44913.529814814814</v>
+        <v>44928.912581018521</v>
       </c>
       <c r="F11" t="s">
-        <v>13</v>
+        <v>4560</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
@@ -16917,13 +17688,13 @@
         <v>354</v>
       </c>
       <c r="D15">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E15" s="1">
-        <v>44922.854328703703</v>
+        <v>44924.868831018517</v>
       </c>
       <c r="F15" t="s">
-        <v>4560</v>
+        <v>13</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
@@ -16997,13 +17768,13 @@
         <v>1978</v>
       </c>
       <c r="D19">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E19" s="1">
-        <v>44922.858229166668</v>
+        <v>44924.870833333334</v>
       </c>
       <c r="F19" t="s">
-        <v>4560</v>
+        <v>13</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
@@ -17017,13 +17788,13 @@
         <v>1978</v>
       </c>
       <c r="D20">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E20" s="1">
-        <v>44922.860266203701</v>
+        <v>44924.872418981482</v>
       </c>
       <c r="F20" t="s">
-        <v>4560</v>
+        <v>13</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
@@ -17037,13 +17808,13 @@
         <v>1978</v>
       </c>
       <c r="D21">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E21" s="1">
-        <v>44922.861979166664</v>
+        <v>44924.87599537037</v>
       </c>
       <c r="F21" t="s">
-        <v>4560</v>
+        <v>13</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
@@ -17057,13 +17828,13 @@
         <v>1978</v>
       </c>
       <c r="D22">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E22" s="1">
-        <v>44922.863923611112</v>
+        <v>44924.877905092595</v>
       </c>
       <c r="F22" t="s">
-        <v>4560</v>
+        <v>13</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
@@ -17077,10 +17848,10 @@
         <v>1978</v>
       </c>
       <c r="D23">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="E23" s="1">
-        <v>44922.866608796299</v>
+        <v>44928.914560185185</v>
       </c>
       <c r="F23" t="s">
         <v>4560</v>
@@ -17154,10 +17925,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:I2399"/>
+  <dimension ref="A1:I2518"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+    <sheetView topLeftCell="A274" workbookViewId="0">
+      <selection activeCell="H281" sqref="H281"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -17165,7 +17936,7 @@
     <col min="1" max="1" width="23.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14.85546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="35.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.5703125" customWidth="1"/>
     <col min="6" max="6" width="15.5703125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="12" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="20" bestFit="1" customWidth="1"/>
@@ -57287,6 +58058,12 @@
       <c r="F1802" s="1">
         <v>44895.812349537038</v>
       </c>
+      <c r="G1802" t="s">
+        <v>60</v>
+      </c>
+      <c r="H1802" s="1">
+        <v>44923.830914351849</v>
+      </c>
     </row>
     <row r="1803" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1803" t="s">
@@ -57307,6 +58084,12 @@
       <c r="F1803" s="1">
         <v>44895.812685185185</v>
       </c>
+      <c r="G1803" t="s">
+        <v>60</v>
+      </c>
+      <c r="H1803" s="1">
+        <v>44923.83085648148</v>
+      </c>
     </row>
     <row r="1804" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1804" t="s">
@@ -57367,6 +58150,12 @@
       <c r="F1806" s="1">
         <v>44895.81322916667</v>
       </c>
+      <c r="G1806" t="s">
+        <v>60</v>
+      </c>
+      <c r="H1806" s="1">
+        <v>44923.83079861111</v>
+      </c>
     </row>
     <row r="1807" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1807" t="s">
@@ -57387,6 +58176,12 @@
       <c r="F1807" s="1">
         <v>44895.813564814816</v>
       </c>
+      <c r="G1807" t="s">
+        <v>60</v>
+      </c>
+      <c r="H1807" s="1">
+        <v>44923.830740740741</v>
+      </c>
     </row>
     <row r="1808" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1808" t="s">
@@ -57407,8 +58202,14 @@
       <c r="F1808" s="1">
         <v>44895.814270833333</v>
       </c>
-    </row>
-    <row r="1809" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G1808" t="s">
+        <v>60</v>
+      </c>
+      <c r="H1808" s="1">
+        <v>44923.830682870372</v>
+      </c>
+    </row>
+    <row r="1809" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1809" t="s">
         <v>4154</v>
       </c>
@@ -57428,7 +58229,7 @@
         <v>44895.814375000002</v>
       </c>
     </row>
-    <row r="1810" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1810" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1810" t="s">
         <v>4156</v>
       </c>
@@ -57447,8 +58248,14 @@
       <c r="F1810" s="1">
         <v>44895.814733796295</v>
       </c>
-    </row>
-    <row r="1811" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G1810" t="s">
+        <v>60</v>
+      </c>
+      <c r="H1810" s="1">
+        <v>44923.830625000002</v>
+      </c>
+    </row>
+    <row r="1811" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1811" t="s">
         <v>4158</v>
       </c>
@@ -57467,8 +58274,14 @@
       <c r="F1811" s="1">
         <v>44895.815092592595</v>
       </c>
-    </row>
-    <row r="1812" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G1811" t="s">
+        <v>60</v>
+      </c>
+      <c r="H1811" s="1">
+        <v>44923.830567129633</v>
+      </c>
+    </row>
+    <row r="1812" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1812" t="s">
         <v>4160</v>
       </c>
@@ -57488,7 +58301,7 @@
         <v>44895.815196759257</v>
       </c>
     </row>
-    <row r="1813" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1813" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1813" t="s">
         <v>4162</v>
       </c>
@@ -57508,7 +58321,7 @@
         <v>44895.815300925926</v>
       </c>
     </row>
-    <row r="1814" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1814" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1814" t="s">
         <v>4165</v>
       </c>
@@ -57528,7 +58341,7 @@
         <v>44895.815405092595</v>
       </c>
     </row>
-    <row r="1815" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1815" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1815" t="s">
         <v>4168</v>
       </c>
@@ -57547,8 +58360,14 @@
       <c r="F1815" s="1">
         <v>44895.816111111111</v>
       </c>
-    </row>
-    <row r="1816" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G1815" t="s">
+        <v>60</v>
+      </c>
+      <c r="H1815" s="1">
+        <v>44923.830509259256</v>
+      </c>
+    </row>
+    <row r="1816" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1816" t="s">
         <v>4170</v>
       </c>
@@ -57568,7 +58387,7 @@
         <v>44895.81621527778</v>
       </c>
     </row>
-    <row r="1817" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1817" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1817" t="s">
         <v>4172</v>
       </c>
@@ -57587,8 +58406,14 @@
       <c r="F1817" s="1">
         <v>44895.816562499997</v>
       </c>
-    </row>
-    <row r="1818" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G1817" t="s">
+        <v>60</v>
+      </c>
+      <c r="H1817" s="1">
+        <v>44923.830462962964</v>
+      </c>
+    </row>
+    <row r="1818" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1818" t="s">
         <v>4174</v>
       </c>
@@ -57607,8 +58432,14 @@
       <c r="F1818" s="1">
         <v>44895.81689814815</v>
       </c>
-    </row>
-    <row r="1819" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G1818" t="s">
+        <v>60</v>
+      </c>
+      <c r="H1818" s="1">
+        <v>44923.830405092594</v>
+      </c>
+    </row>
+    <row r="1819" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1819" t="s">
         <v>4176</v>
       </c>
@@ -57628,7 +58459,7 @@
         <v>44895.817002314812</v>
       </c>
     </row>
-    <row r="1820" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1820" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1820" t="s">
         <v>4179</v>
       </c>
@@ -57648,7 +58479,7 @@
         <v>44895.817106481481</v>
       </c>
     </row>
-    <row r="1821" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1821" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1821" t="s">
         <v>4182</v>
       </c>
@@ -57667,8 +58498,14 @@
       <c r="F1821" s="1">
         <v>44895.817812499998</v>
       </c>
-    </row>
-    <row r="1822" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G1821" t="s">
+        <v>60</v>
+      </c>
+      <c r="H1821" s="1">
+        <v>44923.830347222225</v>
+      </c>
+    </row>
+    <row r="1822" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1822" t="s">
         <v>4184</v>
       </c>
@@ -57687,8 +58524,14 @@
       <c r="F1822" s="1">
         <v>44895.818159722221</v>
       </c>
-    </row>
-    <row r="1823" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G1822" t="s">
+        <v>60</v>
+      </c>
+      <c r="H1822" s="1">
+        <v>44923.830289351848</v>
+      </c>
+    </row>
+    <row r="1823" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1823" t="s">
         <v>4186</v>
       </c>
@@ -57708,7 +58551,7 @@
         <v>44895.81826388889</v>
       </c>
     </row>
-    <row r="1824" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1824" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1824" t="s">
         <v>4188</v>
       </c>
@@ -57728,7 +58571,7 @@
         <v>44895.818368055552</v>
       </c>
     </row>
-    <row r="1825" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1825" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1825" t="s">
         <v>4191</v>
       </c>
@@ -57748,7 +58591,7 @@
         <v>44895.818483796298</v>
       </c>
     </row>
-    <row r="1826" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1826" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1826" t="s">
         <v>4194</v>
       </c>
@@ -57767,8 +58610,14 @@
       <c r="F1826" s="1">
         <v>44895.818842592591</v>
       </c>
-    </row>
-    <row r="1827" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G1826" t="s">
+        <v>60</v>
+      </c>
+      <c r="H1826" s="1">
+        <v>44923.830231481479</v>
+      </c>
+    </row>
+    <row r="1827" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1827" t="s">
         <v>4196</v>
       </c>
@@ -57788,7 +58637,7 @@
         <v>44895.81894675926</v>
       </c>
     </row>
-    <row r="1828" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1828" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1828" t="s">
         <v>4198</v>
       </c>
@@ -57807,8 +58656,14 @@
       <c r="F1828" s="1">
         <v>44895.81931712963</v>
       </c>
-    </row>
-    <row r="1829" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G1828" t="s">
+        <v>60</v>
+      </c>
+      <c r="H1828" s="1">
+        <v>44923.83017361111</v>
+      </c>
+    </row>
+    <row r="1829" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1829" t="s">
         <v>4200</v>
       </c>
@@ -57828,7 +58683,7 @@
         <v>44895.819791666669</v>
       </c>
     </row>
-    <row r="1830" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1830" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1830" t="s">
         <v>4202</v>
       </c>
@@ -57848,7 +58703,7 @@
         <v>44895.819895833331</v>
       </c>
     </row>
-    <row r="1831" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1831" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1831" t="s">
         <v>301</v>
       </c>
@@ -57868,7 +58723,7 @@
         <v>44895.82</v>
       </c>
     </row>
-    <row r="1832" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1832" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1832" t="s">
         <v>4205</v>
       </c>
@@ -57888,7 +58743,7 @@
         <v>44895.820104166669</v>
       </c>
     </row>
-    <row r="1833" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1833" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1833" t="s">
         <v>4207</v>
       </c>
@@ -57908,7 +58763,7 @@
         <v>44895.820555555554</v>
       </c>
     </row>
-    <row r="1834" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1834" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1834" t="s">
         <v>4209</v>
       </c>
@@ -57928,7 +58783,7 @@
         <v>44895.820659722223</v>
       </c>
     </row>
-    <row r="1835" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1835" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1835" t="s">
         <v>4211</v>
       </c>
@@ -57948,7 +58803,7 @@
         <v>44895.821111111109</v>
       </c>
     </row>
-    <row r="1836" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1836" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1836" t="s">
         <v>4213</v>
       </c>
@@ -57968,7 +58823,7 @@
         <v>44895.821215277778</v>
       </c>
     </row>
-    <row r="1837" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1837" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1837" t="s">
         <v>4215</v>
       </c>
@@ -57988,7 +58843,7 @@
         <v>44895.821701388886</v>
       </c>
     </row>
-    <row r="1838" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1838" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1838" t="s">
         <v>4217</v>
       </c>
@@ -58008,7 +58863,7 @@
         <v>44895.821805555555</v>
       </c>
     </row>
-    <row r="1839" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1839" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1839" t="s">
         <v>4219</v>
       </c>
@@ -58028,7 +58883,7 @@
         <v>44895.821909722225</v>
       </c>
     </row>
-    <row r="1840" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1840" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1840" t="s">
         <v>4221</v>
       </c>
@@ -58048,7 +58903,7 @@
         <v>44895.822013888886</v>
       </c>
     </row>
-    <row r="1841" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1841" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1841" t="s">
         <v>4224</v>
       </c>
@@ -58068,7 +58923,7 @@
         <v>44895.822372685187</v>
       </c>
     </row>
-    <row r="1842" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1842" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1842" t="s">
         <v>4226</v>
       </c>
@@ -58088,7 +58943,7 @@
         <v>44895.822662037041</v>
       </c>
     </row>
-    <row r="1843" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1843" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1843" t="s">
         <v>4229</v>
       </c>
@@ -58108,7 +58963,7 @@
         <v>44895.822777777779</v>
       </c>
     </row>
-    <row r="1844" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1844" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1844" t="s">
         <v>4232</v>
       </c>
@@ -58128,7 +58983,7 @@
         <v>44895.822870370372</v>
       </c>
     </row>
-    <row r="1845" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1845" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1845" t="s">
         <v>4234</v>
       </c>
@@ -58148,7 +59003,7 @@
         <v>44895.82335648148</v>
       </c>
     </row>
-    <row r="1846" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1846" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1846" t="s">
         <v>4236</v>
       </c>
@@ -58168,7 +59023,7 @@
         <v>44895.823460648149</v>
       </c>
     </row>
-    <row r="1847" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1847" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1847" t="s">
         <v>4238</v>
       </c>
@@ -58188,7 +59043,7 @@
         <v>44895.823564814818</v>
       </c>
     </row>
-    <row r="1848" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1848" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1848" t="s">
         <v>4240</v>
       </c>
@@ -58207,8 +59062,14 @@
       <c r="F1848" s="1">
         <v>44895.823900462965</v>
       </c>
-    </row>
-    <row r="1849" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G1848" t="s">
+        <v>60</v>
+      </c>
+      <c r="H1848" s="1">
+        <v>44923.83011574074</v>
+      </c>
+    </row>
+    <row r="1849" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1849" t="s">
         <v>4242</v>
       </c>
@@ -58228,7 +59089,7 @@
         <v>44895.824386574073</v>
       </c>
     </row>
-    <row r="1850" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1850" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1850" t="s">
         <v>4245</v>
       </c>
@@ -58247,8 +59108,14 @@
       <c r="F1850" s="1">
         <v>44895.824745370373</v>
       </c>
-    </row>
-    <row r="1851" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G1850" t="s">
+        <v>60</v>
+      </c>
+      <c r="H1850" s="1">
+        <v>44923.830057870371</v>
+      </c>
+    </row>
+    <row r="1851" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1851" t="s">
         <v>4247</v>
       </c>
@@ -58268,7 +59135,7 @@
         <v>44895.825196759259</v>
       </c>
     </row>
-    <row r="1852" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1852" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1852" t="s">
         <v>4249</v>
       </c>
@@ -58287,8 +59154,14 @@
       <c r="F1852" s="1">
         <v>44895.825520833336</v>
       </c>
-    </row>
-    <row r="1853" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G1852" t="s">
+        <v>60</v>
+      </c>
+      <c r="H1852" s="1">
+        <v>44923.83</v>
+      </c>
+    </row>
+    <row r="1853" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1853" t="s">
         <v>4251</v>
       </c>
@@ -58308,7 +59181,7 @@
         <v>44895.825624999998</v>
       </c>
     </row>
-    <row r="1854" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1854" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1854" t="s">
         <v>4253</v>
       </c>
@@ -58328,7 +59201,7 @@
         <v>44895.825729166667</v>
       </c>
     </row>
-    <row r="1855" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1855" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1855" t="s">
         <v>4256</v>
       </c>
@@ -58348,7 +59221,7 @@
         <v>44895.825833333336</v>
       </c>
     </row>
-    <row r="1856" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1856" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1856" t="s">
         <v>4259</v>
       </c>
@@ -58368,7 +59241,7 @@
         <v>44895.825949074075</v>
       </c>
     </row>
-    <row r="1857" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1857" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1857" t="s">
         <v>4261</v>
       </c>
@@ -58387,8 +59260,14 @@
       <c r="F1857" s="1">
         <v>44895.826678240737</v>
       </c>
-    </row>
-    <row r="1858" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G1857" t="s">
+        <v>60</v>
+      </c>
+      <c r="H1857" s="1">
+        <v>44923.829942129632</v>
+      </c>
+    </row>
+    <row r="1858" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1858" t="s">
         <v>4263</v>
       </c>
@@ -58407,8 +59286,14 @@
       <c r="F1858" s="1">
         <v>44895.827037037037</v>
       </c>
-    </row>
-    <row r="1859" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G1858" t="s">
+        <v>60</v>
+      </c>
+      <c r="H1858" s="1">
+        <v>44923.829895833333</v>
+      </c>
+    </row>
+    <row r="1859" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1859" t="s">
         <v>4265</v>
       </c>
@@ -58428,7 +59313,7 @@
         <v>44895.827141203707</v>
       </c>
     </row>
-    <row r="1860" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1860" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1860" t="s">
         <v>4267</v>
       </c>
@@ -58448,7 +59333,7 @@
         <v>44895.827245370368</v>
       </c>
     </row>
-    <row r="1861" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1861" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1861" t="s">
         <v>4269</v>
       </c>
@@ -58467,8 +59352,14 @@
       <c r="F1861" s="1">
         <v>44895.827615740738</v>
       </c>
-    </row>
-    <row r="1862" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G1861" t="s">
+        <v>60</v>
+      </c>
+      <c r="H1861" s="1">
+        <v>44923.829826388886</v>
+      </c>
+    </row>
+    <row r="1862" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1862" t="s">
         <v>4271</v>
       </c>
@@ -58488,7 +59379,7 @@
         <v>44895.827719907407</v>
       </c>
     </row>
-    <row r="1863" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1863" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1863" t="s">
         <v>4274</v>
       </c>
@@ -58508,7 +59399,7 @@
         <v>44895.828067129631</v>
       </c>
     </row>
-    <row r="1864" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1864" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1864" t="s">
         <v>4276</v>
       </c>
@@ -58528,7 +59419,7 @@
         <v>44895.8281712963</v>
       </c>
     </row>
-    <row r="1865" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1865" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1865" t="s">
         <v>4278</v>
       </c>
@@ -58547,8 +59438,14 @@
       <c r="F1865" s="1">
         <v>44895.828888888886</v>
       </c>
-    </row>
-    <row r="1866" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G1865" t="s">
+        <v>60</v>
+      </c>
+      <c r="H1865" s="1">
+        <v>44923.829780092594</v>
+      </c>
+    </row>
+    <row r="1866" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1866" t="s">
         <v>4280</v>
       </c>
@@ -58567,8 +59464,14 @@
       <c r="F1866" s="1">
         <v>44895.829259259262</v>
       </c>
-    </row>
-    <row r="1867" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G1866" t="s">
+        <v>60</v>
+      </c>
+      <c r="H1866" s="1">
+        <v>44923.829722222225</v>
+      </c>
+    </row>
+    <row r="1867" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1867" t="s">
         <v>4282</v>
       </c>
@@ -58587,8 +59490,14 @@
       <c r="F1867" s="1">
         <v>44895.829594907409</v>
       </c>
-    </row>
-    <row r="1868" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G1867" t="s">
+        <v>60</v>
+      </c>
+      <c r="H1867" s="1">
+        <v>44924.937662037039</v>
+      </c>
+    </row>
+    <row r="1868" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1868" t="s">
         <v>4284</v>
       </c>
@@ -58607,8 +59516,14 @@
       <c r="F1868" s="1">
         <v>44895.829930555556</v>
       </c>
-    </row>
-    <row r="1869" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G1868" t="s">
+        <v>60</v>
+      </c>
+      <c r="H1868" s="1">
+        <v>44924.937604166669</v>
+      </c>
+    </row>
+    <row r="1869" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1869" t="s">
         <v>4286</v>
       </c>
@@ -58627,8 +59542,14 @@
       <c r="F1869" s="1">
         <v>44896.888796296298</v>
       </c>
-    </row>
-    <row r="1870" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G1869" t="s">
+        <v>60</v>
+      </c>
+      <c r="H1869" s="1">
+        <v>44924.9375462963</v>
+      </c>
+    </row>
+    <row r="1870" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1870" t="s">
         <v>4288</v>
       </c>
@@ -58647,8 +59568,14 @@
       <c r="F1870" s="1">
         <v>44896.889178240737</v>
       </c>
-    </row>
-    <row r="1871" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G1870" t="s">
+        <v>60</v>
+      </c>
+      <c r="H1870" s="1">
+        <v>44924.937488425923</v>
+      </c>
+    </row>
+    <row r="1871" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1871" t="s">
         <v>4290</v>
       </c>
@@ -58668,7 +59595,7 @@
         <v>44896.889293981483</v>
       </c>
     </row>
-    <row r="1872" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1872" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1872" t="s">
         <v>4292</v>
       </c>
@@ -58688,7 +59615,7 @@
         <v>44896.889409722222</v>
       </c>
     </row>
-    <row r="1873" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1873" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1873" t="s">
         <v>4295</v>
       </c>
@@ -58707,8 +59634,14 @@
       <c r="F1873" s="1">
         <v>44896.889791666668</v>
       </c>
-    </row>
-    <row r="1874" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G1873" t="s">
+        <v>60</v>
+      </c>
+      <c r="H1873" s="1">
+        <v>44924.937430555554</v>
+      </c>
+    </row>
+    <row r="1874" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1874" t="s">
         <v>4297</v>
       </c>
@@ -58727,8 +59660,14 @@
       <c r="F1874" s="1">
         <v>44896.890138888892</v>
       </c>
-    </row>
-    <row r="1875" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G1874" t="s">
+        <v>60</v>
+      </c>
+      <c r="H1874" s="1">
+        <v>44924.937372685185</v>
+      </c>
+    </row>
+    <row r="1875" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1875" t="s">
         <v>4299</v>
       </c>
@@ -58748,7 +59687,7 @@
         <v>44896.890902777777</v>
       </c>
     </row>
-    <row r="1876" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1876" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1876" t="s">
         <v>4301</v>
       </c>
@@ -58768,7 +59707,7 @@
         <v>44896.891273148147</v>
       </c>
     </row>
-    <row r="1877" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1877" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1877" t="s">
         <v>4303</v>
       </c>
@@ -58788,7 +59727,7 @@
         <v>44896.891388888886</v>
       </c>
     </row>
-    <row r="1878" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1878" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1878" t="s">
         <v>4305</v>
       </c>
@@ -58808,7 +59747,7 @@
         <v>44896.891504629632</v>
       </c>
     </row>
-    <row r="1879" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1879" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1879" t="s">
         <v>4308</v>
       </c>
@@ -58828,7 +59767,7 @@
         <v>44896.891608796293</v>
       </c>
     </row>
-    <row r="1880" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1880" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1880" t="s">
         <v>4310</v>
       </c>
@@ -58848,7 +59787,7 @@
         <v>44896.891724537039</v>
       </c>
     </row>
-    <row r="1881" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1881" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1881" t="s">
         <v>4313</v>
       </c>
@@ -58868,7 +59807,7 @@
         <v>44896.891840277778</v>
       </c>
     </row>
-    <row r="1882" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1882" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1882" t="s">
         <v>4316</v>
       </c>
@@ -58888,7 +59827,7 @@
         <v>44896.891944444447</v>
       </c>
     </row>
-    <row r="1883" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1883" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1883" t="s">
         <v>4319</v>
       </c>
@@ -58908,7 +59847,7 @@
         <v>44896.892453703702</v>
       </c>
     </row>
-    <row r="1884" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1884" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1884" t="s">
         <v>4321</v>
       </c>
@@ -58927,8 +59866,14 @@
       <c r="F1884" s="1">
         <v>44896.892824074072</v>
       </c>
-    </row>
-    <row r="1885" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G1884" t="s">
+        <v>60</v>
+      </c>
+      <c r="H1884" s="1">
+        <v>44924.937314814815</v>
+      </c>
+    </row>
+    <row r="1885" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1885" t="s">
         <v>4323</v>
       </c>
@@ -58947,8 +59892,14 @@
       <c r="F1885" s="1">
         <v>44896.893194444441</v>
       </c>
-    </row>
-    <row r="1886" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G1885" t="s">
+        <v>60</v>
+      </c>
+      <c r="H1885" s="1">
+        <v>44924.937256944446</v>
+      </c>
+    </row>
+    <row r="1886" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1886" t="s">
         <v>4325</v>
       </c>
@@ -58968,7 +59919,7 @@
         <v>44896.893310185187</v>
       </c>
     </row>
-    <row r="1887" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1887" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1887" t="s">
         <v>4328</v>
       </c>
@@ -58988,7 +59939,7 @@
         <v>44896.893425925926</v>
       </c>
     </row>
-    <row r="1888" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1888" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1888" t="s">
         <v>4330</v>
       </c>
@@ -59008,7 +59959,7 @@
         <v>44896.893553240741</v>
       </c>
     </row>
-    <row r="1889" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1889" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1889" t="s">
         <v>4332</v>
       </c>
@@ -59028,7 +59979,7 @@
         <v>44896.894074074073</v>
       </c>
     </row>
-    <row r="1890" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1890" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1890" t="s">
         <v>4334</v>
       </c>
@@ -59048,7 +59999,7 @@
         <v>44896.894432870373</v>
       </c>
     </row>
-    <row r="1891" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1891" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1891" t="s">
         <v>4336</v>
       </c>
@@ -59067,8 +60018,14 @@
       <c r="F1891" s="1">
         <v>44896.894791666666</v>
       </c>
-    </row>
-    <row r="1892" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G1891" t="s">
+        <v>60</v>
+      </c>
+      <c r="H1891" s="1">
+        <v>44924.937199074076</v>
+      </c>
+    </row>
+    <row r="1892" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1892" t="s">
         <v>4338</v>
       </c>
@@ -59087,8 +60044,14 @@
       <c r="F1892" s="1">
         <v>44896.895150462966</v>
       </c>
-    </row>
-    <row r="1893" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G1892" t="s">
+        <v>60</v>
+      </c>
+      <c r="H1892" s="1">
+        <v>44924.937141203707</v>
+      </c>
+    </row>
+    <row r="1893" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1893" t="s">
         <v>4340</v>
       </c>
@@ -59108,7 +60071,7 @@
         <v>44896.895879629628</v>
       </c>
     </row>
-    <row r="1894" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1894" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1894" t="s">
         <v>4342</v>
       </c>
@@ -59128,7 +60091,7 @@
         <v>44896.895995370367</v>
       </c>
     </row>
-    <row r="1895" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1895" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1895" t="s">
         <v>4345</v>
       </c>
@@ -59148,7 +60111,7 @@
         <v>44896.8984375</v>
       </c>
     </row>
-    <row r="1896" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1896" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1896" t="s">
         <v>4347</v>
       </c>
@@ -59168,7 +60131,7 @@
         <v>44896.898541666669</v>
       </c>
     </row>
-    <row r="1897" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1897" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1897" t="s">
         <v>4349</v>
       </c>
@@ -59188,7 +60151,7 @@
         <v>44896.898993055554</v>
       </c>
     </row>
-    <row r="1898" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1898" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1898" t="s">
         <v>4351</v>
       </c>
@@ -59207,8 +60170,14 @@
       <c r="F1898" s="1">
         <v>44896.899699074071</v>
       </c>
-    </row>
-    <row r="1899" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G1898" t="s">
+        <v>60</v>
+      </c>
+      <c r="H1898" s="1">
+        <v>44924.937083333331</v>
+      </c>
+    </row>
+    <row r="1899" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1899" t="s">
         <v>4353</v>
       </c>
@@ -59227,8 +60196,14 @@
       <c r="F1899" s="1">
         <v>44896.900057870371</v>
       </c>
-    </row>
-    <row r="1900" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G1899" t="s">
+        <v>60</v>
+      </c>
+      <c r="H1899" s="1">
+        <v>44924.937025462961</v>
+      </c>
+    </row>
+    <row r="1900" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1900" t="s">
         <v>4355</v>
       </c>
@@ -59248,7 +60223,7 @@
         <v>44896.90016203704</v>
       </c>
     </row>
-    <row r="1901" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1901" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1901" t="s">
         <v>4358</v>
       </c>
@@ -59268,7 +60243,7 @@
         <v>44896.900277777779</v>
       </c>
     </row>
-    <row r="1902" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1902" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1902" t="s">
         <v>4361</v>
       </c>
@@ -59288,7 +60263,7 @@
         <v>44896.900381944448</v>
       </c>
     </row>
-    <row r="1903" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1903" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1903" t="s">
         <v>4363</v>
       </c>
@@ -59307,8 +60282,14 @@
       <c r="F1903" s="1">
         <v>44896.90111111111</v>
       </c>
-    </row>
-    <row r="1904" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G1903" t="s">
+        <v>60</v>
+      </c>
+      <c r="H1903" s="1">
+        <v>44924.936967592592</v>
+      </c>
+    </row>
+    <row r="1904" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1904" t="s">
         <v>4365</v>
       </c>
@@ -59327,8 +60308,14 @@
       <c r="F1904" s="1">
         <v>44896.901469907411</v>
       </c>
-    </row>
-    <row r="1905" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G1904" t="s">
+        <v>60</v>
+      </c>
+      <c r="H1904" s="1">
+        <v>44924.936215277776</v>
+      </c>
+    </row>
+    <row r="1905" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1905" t="s">
         <v>2686</v>
       </c>
@@ -59348,7 +60335,7 @@
         <v>44896.901585648149</v>
       </c>
     </row>
-    <row r="1906" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1906" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1906" t="s">
         <v>4368</v>
       </c>
@@ -59367,8 +60354,14 @@
       <c r="F1906" s="1">
         <v>44896.901944444442</v>
       </c>
-    </row>
-    <row r="1907" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G1906" t="s">
+        <v>60</v>
+      </c>
+      <c r="H1906" s="1">
+        <v>44924.936168981483</v>
+      </c>
+    </row>
+    <row r="1907" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1907" t="s">
         <v>4370</v>
       </c>
@@ -59388,7 +60381,7 @@
         <v>44896.902048611111</v>
       </c>
     </row>
-    <row r="1908" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1908" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1908" t="s">
         <v>4372</v>
       </c>
@@ -59408,7 +60401,7 @@
         <v>44896.90215277778</v>
       </c>
     </row>
-    <row r="1909" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1909" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1909" t="s">
         <v>4374</v>
       </c>
@@ -59428,7 +60421,7 @@
         <v>44896.902650462966</v>
       </c>
     </row>
-    <row r="1910" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1910" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1910" t="s">
         <v>4377</v>
       </c>
@@ -59447,8 +60440,14 @@
       <c r="F1910" s="1">
         <v>44896.902986111112</v>
       </c>
-    </row>
-    <row r="1911" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G1910" t="s">
+        <v>60</v>
+      </c>
+      <c r="H1910" s="1">
+        <v>44924.936111111114</v>
+      </c>
+    </row>
+    <row r="1911" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1911" t="s">
         <v>4379</v>
       </c>
@@ -59467,8 +60466,14 @@
       <c r="F1911" s="1">
         <v>44896.903344907405</v>
       </c>
-    </row>
-    <row r="1912" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G1911" t="s">
+        <v>60</v>
+      </c>
+      <c r="H1911" s="1">
+        <v>44924.935995370368</v>
+      </c>
+    </row>
+    <row r="1912" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1912" t="s">
         <v>4381</v>
       </c>
@@ -59487,8 +60492,14 @@
       <c r="F1912" s="1">
         <v>44896.903668981482</v>
       </c>
-    </row>
-    <row r="1913" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G1912" t="s">
+        <v>60</v>
+      </c>
+      <c r="H1912" s="1">
+        <v>44924.936053240737</v>
+      </c>
+    </row>
+    <row r="1913" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1913" t="s">
         <v>4383</v>
       </c>
@@ -59508,7 +60519,7 @@
         <v>44896.903784722221</v>
       </c>
     </row>
-    <row r="1914" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1914" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1914" t="s">
         <v>4386</v>
       </c>
@@ -59528,7 +60539,7 @@
         <v>44896.90425925926</v>
       </c>
     </row>
-    <row r="1915" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1915" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1915" t="s">
         <v>4389</v>
       </c>
@@ -59548,7 +60559,7 @@
         <v>44896.904363425929</v>
       </c>
     </row>
-    <row r="1916" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1916" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1916" t="s">
         <v>4391</v>
       </c>
@@ -59568,7 +60579,7 @@
         <v>44896.904768518521</v>
       </c>
     </row>
-    <row r="1917" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1917" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1917" t="s">
         <v>4393</v>
       </c>
@@ -59588,7 +60599,7 @@
         <v>44896.905127314814</v>
       </c>
     </row>
-    <row r="1918" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1918" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1918" t="s">
         <v>4395</v>
       </c>
@@ -59608,7 +60619,7 @@
         <v>44896.905474537038</v>
       </c>
     </row>
-    <row r="1919" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1919" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1919" t="s">
         <v>4397</v>
       </c>
@@ -59628,7 +60639,7 @@
         <v>44896.905833333331</v>
       </c>
     </row>
-    <row r="1920" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1920" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1920" t="s">
         <v>4399</v>
       </c>
@@ -59648,7 +60659,7 @@
         <v>44896.906331018516</v>
       </c>
     </row>
-    <row r="1921" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1921" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1921" t="s">
         <v>4401</v>
       </c>
@@ -59668,7 +60679,7 @@
         <v>44896.906446759262</v>
       </c>
     </row>
-    <row r="1922" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1922" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1922" t="s">
         <v>4403</v>
       </c>
@@ -59687,8 +60698,14 @@
       <c r="F1922" s="1">
         <v>44896.906793981485</v>
       </c>
-    </row>
-    <row r="1923" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G1922" t="s">
+        <v>60</v>
+      </c>
+      <c r="H1922" s="1">
+        <v>44924.935937499999</v>
+      </c>
+    </row>
+    <row r="1923" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1923" t="s">
         <v>4405</v>
       </c>
@@ -59707,8 +60724,14 @@
       <c r="F1923" s="1">
         <v>44896.907129629632</v>
       </c>
-    </row>
-    <row r="1924" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G1923" t="s">
+        <v>60</v>
+      </c>
+      <c r="H1923" s="1">
+        <v>44924.935879629629</v>
+      </c>
+    </row>
+    <row r="1924" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1924" t="s">
         <v>4407</v>
       </c>
@@ -59727,8 +60750,14 @@
       <c r="F1924" s="1">
         <v>44896.907534722224</v>
       </c>
-    </row>
-    <row r="1925" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G1924" t="s">
+        <v>60</v>
+      </c>
+      <c r="H1924" s="1">
+        <v>44924.93582175926</v>
+      </c>
+    </row>
+    <row r="1925" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1925" t="s">
         <v>4409</v>
       </c>
@@ -59748,7 +60777,7 @@
         <v>44896.907638888886</v>
       </c>
     </row>
-    <row r="1926" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1926" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1926" t="s">
         <v>4411</v>
       </c>
@@ -59768,7 +60797,7 @@
         <v>44897.856550925928</v>
       </c>
     </row>
-    <row r="1927" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1927" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1927" t="s">
         <v>4413</v>
       </c>
@@ -59788,7 +60817,7 @@
         <v>44897.856921296298</v>
       </c>
     </row>
-    <row r="1928" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1928" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1928" t="s">
         <v>4415</v>
       </c>
@@ -59808,7 +60837,7 @@
         <v>44897.857268518521</v>
       </c>
     </row>
-    <row r="1929" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1929" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1929" t="s">
         <v>4417</v>
       </c>
@@ -59827,8 +60856,14 @@
       <c r="F1929" s="1">
         <v>44897.857627314814</v>
       </c>
-    </row>
-    <row r="1930" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G1929" t="s">
+        <v>60</v>
+      </c>
+      <c r="H1929" s="1">
+        <v>44928.901944444442</v>
+      </c>
+    </row>
+    <row r="1930" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1930" t="s">
         <v>4419</v>
       </c>
@@ -59847,8 +60882,14 @@
       <c r="F1930" s="1">
         <v>44897.857974537037</v>
       </c>
-    </row>
-    <row r="1931" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G1930" t="s">
+        <v>60</v>
+      </c>
+      <c r="H1930" s="1">
+        <v>44928.901886574073</v>
+      </c>
+    </row>
+    <row r="1931" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1931" t="s">
         <v>4421</v>
       </c>
@@ -59867,8 +60908,14 @@
       <c r="F1931" s="1">
         <v>44897.858310185184</v>
       </c>
-    </row>
-    <row r="1932" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G1931" t="s">
+        <v>60</v>
+      </c>
+      <c r="H1931" s="1">
+        <v>44928.901828703703</v>
+      </c>
+    </row>
+    <row r="1932" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1932" t="s">
         <v>4423</v>
       </c>
@@ -59888,7 +60935,7 @@
         <v>44897.858796296299</v>
       </c>
     </row>
-    <row r="1933" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1933" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1933" t="s">
         <v>4425</v>
       </c>
@@ -59907,8 +60954,14 @@
       <c r="F1933" s="1">
         <v>44897.859166666669</v>
       </c>
-    </row>
-    <row r="1934" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G1933" t="s">
+        <v>60</v>
+      </c>
+      <c r="H1933" s="1">
+        <v>44928.901770833334</v>
+      </c>
+    </row>
+    <row r="1934" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1934" t="s">
         <v>4427</v>
       </c>
@@ -59928,7 +60981,7 @@
         <v>44897.859270833331</v>
       </c>
     </row>
-    <row r="1935" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1935" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1935" t="s">
         <v>4429</v>
       </c>
@@ -59948,7 +61001,7 @@
         <v>44897.859375</v>
       </c>
     </row>
-    <row r="1936" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1936" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1936" t="s">
         <v>4431</v>
       </c>
@@ -59967,8 +61020,14 @@
       <c r="F1936" s="1">
         <v>44897.859733796293</v>
       </c>
-    </row>
-    <row r="1937" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G1936" t="s">
+        <v>60</v>
+      </c>
+      <c r="H1936" s="1">
+        <v>44928.901712962965</v>
+      </c>
+    </row>
+    <row r="1937" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1937" t="s">
         <v>4433</v>
       </c>
@@ -59988,7 +61047,7 @@
         <v>44897.859837962962</v>
       </c>
     </row>
-    <row r="1938" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1938" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1938" t="s">
         <v>4436</v>
       </c>
@@ -60008,7 +61067,7 @@
         <v>44897.859942129631</v>
       </c>
     </row>
-    <row r="1939" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1939" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1939" t="s">
         <v>4438</v>
       </c>
@@ -60028,7 +61087,7 @@
         <v>44897.860046296293</v>
       </c>
     </row>
-    <row r="1940" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1940" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1940" t="s">
         <v>4440</v>
       </c>
@@ -60048,7 +61107,7 @@
         <v>44897.86078703704</v>
       </c>
     </row>
-    <row r="1941" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1941" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1941" t="s">
         <v>4442</v>
       </c>
@@ -60067,8 +61126,14 @@
       <c r="F1941" s="1">
         <v>44897.861111111109</v>
       </c>
-    </row>
-    <row r="1942" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G1941" t="s">
+        <v>60</v>
+      </c>
+      <c r="H1941" s="1">
+        <v>44928.901655092595</v>
+      </c>
+    </row>
+    <row r="1942" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1942" t="s">
         <v>4444</v>
       </c>
@@ -60088,7 +61153,7 @@
         <v>44897.861215277779</v>
       </c>
     </row>
-    <row r="1943" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1943" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1943" t="s">
         <v>4446</v>
       </c>
@@ -60108,7 +61173,7 @@
         <v>44897.861331018517</v>
       </c>
     </row>
-    <row r="1944" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1944" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1944" t="s">
         <v>4448</v>
       </c>
@@ -60128,7 +61193,7 @@
         <v>44897.861435185187</v>
       </c>
     </row>
-    <row r="1945" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1945" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1945" t="s">
         <v>4451</v>
       </c>
@@ -60148,7 +61213,7 @@
         <v>44900.860185185185</v>
       </c>
     </row>
-    <row r="1946" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1946" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1946" t="s">
         <v>4453</v>
       </c>
@@ -60167,8 +61232,14 @@
       <c r="F1946" s="1">
         <v>44900.860532407409</v>
       </c>
-    </row>
-    <row r="1947" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G1946" t="s">
+        <v>60</v>
+      </c>
+      <c r="H1946" s="1">
+        <v>44928.901539351849</v>
+      </c>
+    </row>
+    <row r="1947" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1947" t="s">
         <v>4455</v>
       </c>
@@ -60188,7 +61259,7 @@
         <v>44900.860891203702</v>
       </c>
     </row>
-    <row r="1948" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1948" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1948" t="s">
         <v>4457</v>
       </c>
@@ -60208,7 +61279,7 @@
         <v>44900.860995370371</v>
       </c>
     </row>
-    <row r="1949" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1949" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1949" t="s">
         <v>4459</v>
       </c>
@@ -60228,7 +61299,7 @@
         <v>44900.86109953704</v>
       </c>
     </row>
-    <row r="1950" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1950" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1950" t="s">
         <v>4462</v>
       </c>
@@ -60247,8 +61318,14 @@
       <c r="F1950" s="1">
         <v>44900.861458333333</v>
       </c>
-    </row>
-    <row r="1951" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G1950" t="s">
+        <v>60</v>
+      </c>
+      <c r="H1950" s="1">
+        <v>44928.90148148148</v>
+      </c>
+    </row>
+    <row r="1951" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1951" t="s">
         <v>4464</v>
       </c>
@@ -60268,7 +61345,7 @@
         <v>44900.861562500002</v>
       </c>
     </row>
-    <row r="1952" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1952" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1952" t="s">
         <v>4466</v>
       </c>
@@ -60287,8 +61364,14 @@
       <c r="F1952" s="1">
         <v>44900.861956018518</v>
       </c>
-    </row>
-    <row r="1953" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G1952" t="s">
+        <v>60</v>
+      </c>
+      <c r="H1952" s="1">
+        <v>44928.901423611111</v>
+      </c>
+    </row>
+    <row r="1953" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1953" t="s">
         <v>4468</v>
       </c>
@@ -60308,7 +61391,7 @@
         <v>44900.862060185187</v>
       </c>
     </row>
-    <row r="1954" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1954" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1954" t="s">
         <v>4470</v>
       </c>
@@ -60328,7 +61411,7 @@
         <v>44900.862546296295</v>
       </c>
     </row>
-    <row r="1955" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1955" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1955" t="s">
         <v>4472</v>
       </c>
@@ -60348,7 +61431,7 @@
         <v>44900.862650462965</v>
       </c>
     </row>
-    <row r="1956" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1956" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1956" t="s">
         <v>4475</v>
       </c>
@@ -60368,7 +61451,7 @@
         <v>44900.862754629627</v>
       </c>
     </row>
-    <row r="1957" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1957" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1957" t="s">
         <v>4477</v>
       </c>
@@ -60388,7 +61471,7 @@
         <v>44900.862858796296</v>
       </c>
     </row>
-    <row r="1958" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1958" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1958" t="s">
         <v>4479</v>
       </c>
@@ -60408,7 +61491,7 @@
         <v>44900.862951388888</v>
       </c>
     </row>
-    <row r="1959" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1959" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1959" t="s">
         <v>4481</v>
       </c>
@@ -60428,7 +61511,7 @@
         <v>44900.863402777781</v>
       </c>
     </row>
-    <row r="1960" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1960" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1960" t="s">
         <v>4483</v>
       </c>
@@ -60448,7 +61531,7 @@
         <v>44900.863506944443</v>
       </c>
     </row>
-    <row r="1961" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1961" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1961" t="s">
         <v>4485</v>
       </c>
@@ -60467,8 +61550,14 @@
       <c r="F1961" s="1">
         <v>44900.864259259259</v>
       </c>
-    </row>
-    <row r="1962" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G1961" t="s">
+        <v>60</v>
+      </c>
+      <c r="H1961" s="1">
+        <v>44928.901365740741</v>
+      </c>
+    </row>
+    <row r="1962" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1962" t="s">
         <v>4487</v>
       </c>
@@ -60488,7 +61577,7 @@
         <v>44900.864351851851</v>
       </c>
     </row>
-    <row r="1963" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1963" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1963" t="s">
         <v>4489</v>
       </c>
@@ -60508,7 +61597,7 @@
         <v>44900.86445601852</v>
       </c>
     </row>
-    <row r="1964" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1964" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1964" t="s">
         <v>4491</v>
       </c>
@@ -60528,7 +61617,7 @@
         <v>44900.864560185182</v>
       </c>
     </row>
-    <row r="1965" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1965" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1965" t="s">
         <v>4493</v>
       </c>
@@ -60548,7 +61637,7 @@
         <v>44900.864664351851</v>
       </c>
     </row>
-    <row r="1966" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1966" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1966" t="s">
         <v>4495</v>
       </c>
@@ -60568,7 +61657,7 @@
         <v>44900.86478009259</v>
       </c>
     </row>
-    <row r="1967" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1967" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1967" t="s">
         <v>4497</v>
       </c>
@@ -60587,8 +61676,14 @@
       <c r="F1967" s="1">
         <v>44900.870451388888</v>
       </c>
-    </row>
-    <row r="1968" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G1967" t="s">
+        <v>60</v>
+      </c>
+      <c r="H1967" s="1">
+        <v>44928.901307870372</v>
+      </c>
+    </row>
+    <row r="1968" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1968" t="s">
         <v>4499</v>
       </c>
@@ -60608,7 +61703,7 @@
         <v>44900.870810185188</v>
       </c>
     </row>
-    <row r="1969" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1969" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1969" t="s">
         <v>4501</v>
       </c>
@@ -60628,7 +61723,7 @@
         <v>44900.871215277781</v>
       </c>
     </row>
-    <row r="1970" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1970" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1970" t="s">
         <v>4503</v>
       </c>
@@ -60648,7 +61743,7 @@
         <v>44900.871319444443</v>
       </c>
     </row>
-    <row r="1971" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1971" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1971" t="s">
         <v>4505</v>
       </c>
@@ -60668,7 +61763,7 @@
         <v>44900.871423611112</v>
       </c>
     </row>
-    <row r="1972" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1972" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1972" t="s">
         <v>4508</v>
       </c>
@@ -60688,7 +61783,7 @@
         <v>44900.871793981481</v>
       </c>
     </row>
-    <row r="1973" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1973" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1973" t="s">
         <v>4510</v>
       </c>
@@ -60705,7 +61800,7 @@
         <v>44900.872199074074</v>
       </c>
     </row>
-    <row r="1974" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1974" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1974" t="s">
         <v>4512</v>
       </c>
@@ -60722,7 +61817,7 @@
         <v>44900.872233796297</v>
       </c>
     </row>
-    <row r="1975" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1975" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1975" t="s">
         <v>4514</v>
       </c>
@@ -60739,7 +61834,7 @@
         <v>44900.872256944444</v>
       </c>
     </row>
-    <row r="1976" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1976" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1976" t="s">
         <v>4516</v>
       </c>
@@ -60756,7 +61851,7 @@
         <v>44900.872291666667</v>
       </c>
     </row>
-    <row r="1977" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1977" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1977" t="s">
         <v>4518</v>
       </c>
@@ -60773,7 +61868,7 @@
         <v>44900.87232638889</v>
       </c>
     </row>
-    <row r="1978" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1978" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1978" t="s">
         <v>4520</v>
       </c>
@@ -60790,7 +61885,7 @@
         <v>44900.872349537036</v>
       </c>
     </row>
-    <row r="1979" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1979" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1979" t="s">
         <v>4522</v>
       </c>
@@ -60807,7 +61902,7 @@
         <v>44900.872384259259</v>
       </c>
     </row>
-    <row r="1980" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1980" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1980" t="s">
         <v>4524</v>
       </c>
@@ -60824,7 +61919,7 @@
         <v>44900.872407407405</v>
       </c>
     </row>
-    <row r="1981" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1981" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1981" t="s">
         <v>4526</v>
       </c>
@@ -60843,8 +61938,14 @@
       <c r="F1981" s="1">
         <v>44900.873136574075</v>
       </c>
-    </row>
-    <row r="1982" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G1981" t="s">
+        <v>60</v>
+      </c>
+      <c r="H1981" s="1">
+        <v>44928.901250000003</v>
+      </c>
+    </row>
+    <row r="1982" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1982" t="s">
         <v>4528</v>
       </c>
@@ -60864,7 +61965,7 @@
         <v>44900.873252314814</v>
       </c>
     </row>
-    <row r="1983" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1983" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1983" t="s">
         <v>4530</v>
       </c>
@@ -60884,7 +61985,7 @@
         <v>44900.873356481483</v>
       </c>
     </row>
-    <row r="1984" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1984" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1984" t="s">
         <v>4533</v>
       </c>
@@ -60903,8 +62004,14 @@
       <c r="F1984" s="1">
         <v>44900.881909722222</v>
       </c>
-    </row>
-    <row r="1985" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G1984" t="s">
+        <v>60</v>
+      </c>
+      <c r="H1984" s="1">
+        <v>44928.901203703703</v>
+      </c>
+    </row>
+    <row r="1985" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1985" t="s">
         <v>4535</v>
       </c>
@@ -60924,7 +62031,7 @@
         <v>44900.882013888891</v>
       </c>
     </row>
-    <row r="1986" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1986" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1986" t="s">
         <v>3120</v>
       </c>
@@ -60944,7 +62051,7 @@
         <v>44900.882118055553</v>
       </c>
     </row>
-    <row r="1987" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1987" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1987" t="s">
         <v>4539</v>
       </c>
@@ -60963,8 +62070,14 @@
       <c r="F1987" s="1">
         <v>44900.882453703707</v>
       </c>
-    </row>
-    <row r="1988" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G1987" t="s">
+        <v>60</v>
+      </c>
+      <c r="H1987" s="1">
+        <v>44928.901145833333</v>
+      </c>
+    </row>
+    <row r="1988" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1988" t="s">
         <v>4541</v>
       </c>
@@ -60984,7 +62097,7 @@
         <v>44900.882557870369</v>
       </c>
     </row>
-    <row r="1989" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1989" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1989" t="s">
         <v>4543</v>
       </c>
@@ -61004,7 +62117,7 @@
         <v>44900.883344907408</v>
       </c>
     </row>
-    <row r="1990" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1990" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1990" t="s">
         <v>4545</v>
       </c>
@@ -61024,7 +62137,7 @@
         <v>44900.883449074077</v>
       </c>
     </row>
-    <row r="1991" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1991" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1991" t="s">
         <v>4548</v>
       </c>
@@ -61044,7 +62157,7 @@
         <v>44900.88385416667</v>
       </c>
     </row>
-    <row r="1992" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1992" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1992" t="s">
         <v>4550</v>
       </c>
@@ -61064,7 +62177,7 @@
         <v>44900.884305555555</v>
       </c>
     </row>
-    <row r="1993" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1993" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1993" t="s">
         <v>4552</v>
       </c>
@@ -61083,8 +62196,14 @@
       <c r="F1993" s="1">
         <v>44900.884652777779</v>
       </c>
-    </row>
-    <row r="1994" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G1993" t="s">
+        <v>60</v>
+      </c>
+      <c r="H1993" s="1">
+        <v>44928.901087962964</v>
+      </c>
+    </row>
+    <row r="1994" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1994" t="s">
         <v>4554</v>
       </c>
@@ -61104,7 +62223,7 @@
         <v>44900.885000000002</v>
       </c>
     </row>
-    <row r="1995" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1995" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1995" t="s">
         <v>4556</v>
       </c>
@@ -61124,7 +62243,7 @@
         <v>44900.885405092595</v>
       </c>
     </row>
-    <row r="1996" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1996" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1996" t="s">
         <v>4558</v>
       </c>
@@ -61143,8 +62262,14 @@
       <c r="F1996" s="1">
         <v>44900.885763888888</v>
       </c>
-    </row>
-    <row r="1997" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G1996" t="s">
+        <v>60</v>
+      </c>
+      <c r="H1996" s="1">
+        <v>44928.901030092595</v>
+      </c>
+    </row>
+    <row r="1997" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1997" t="s">
         <v>4561</v>
       </c>
@@ -61164,7 +62289,7 @@
         <v>44901.847916666666</v>
       </c>
     </row>
-    <row r="1998" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1998" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1998" t="s">
         <v>4563</v>
       </c>
@@ -61184,7 +62309,7 @@
         <v>44901.848020833335</v>
       </c>
     </row>
-    <row r="1999" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1999" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1999" t="s">
         <v>4566</v>
       </c>
@@ -61204,7 +62329,7 @@
         <v>44901.848414351851</v>
       </c>
     </row>
-    <row r="2000" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2000" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2000" t="s">
         <v>4568</v>
       </c>
@@ -69118,6 +70243,2380 @@
       </c>
       <c r="F2399" s="1">
         <v>44922.866585648146</v>
+      </c>
+    </row>
+    <row r="2400" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2400" t="s">
+        <v>5421</v>
+      </c>
+      <c r="B2400" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2400" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2400" t="s">
+        <v>5185</v>
+      </c>
+      <c r="E2400" t="s">
+        <v>5422</v>
+      </c>
+      <c r="F2400" s="1">
+        <v>44923.831712962965</v>
+      </c>
+    </row>
+    <row r="2401" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2401" t="s">
+        <v>5423</v>
+      </c>
+      <c r="B2401" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2401" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2401" t="s">
+        <v>24</v>
+      </c>
+      <c r="E2401" t="s">
+        <v>5424</v>
+      </c>
+      <c r="F2401" s="1">
+        <v>44923.832071759258</v>
+      </c>
+    </row>
+    <row r="2402" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2402" t="s">
+        <v>5425</v>
+      </c>
+      <c r="B2402" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2402" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2402" t="s">
+        <v>2857</v>
+      </c>
+      <c r="E2402" t="s">
+        <v>5426</v>
+      </c>
+      <c r="F2402" s="1">
+        <v>44923.832175925927</v>
+      </c>
+    </row>
+    <row r="2403" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2403" t="s">
+        <v>5427</v>
+      </c>
+      <c r="B2403" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2403" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2403" t="s">
+        <v>1260</v>
+      </c>
+      <c r="E2403" t="s">
+        <v>5428</v>
+      </c>
+      <c r="F2403" s="1">
+        <v>44923.832280092596</v>
+      </c>
+    </row>
+    <row r="2404" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2404" t="s">
+        <v>5429</v>
+      </c>
+      <c r="B2404" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2404" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2404" t="s">
+        <v>29</v>
+      </c>
+      <c r="E2404" t="s">
+        <v>5430</v>
+      </c>
+      <c r="F2404" s="1">
+        <v>44923.832615740743</v>
+      </c>
+    </row>
+    <row r="2405" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2405" t="s">
+        <v>5427</v>
+      </c>
+      <c r="B2405" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2405" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2405" t="s">
+        <v>29</v>
+      </c>
+      <c r="E2405" t="s">
+        <v>5431</v>
+      </c>
+      <c r="F2405" s="1">
+        <v>44923.832951388889</v>
+      </c>
+    </row>
+    <row r="2406" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2406" t="s">
+        <v>5432</v>
+      </c>
+      <c r="B2406" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2406" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2406" t="s">
+        <v>24</v>
+      </c>
+      <c r="E2406" t="s">
+        <v>5433</v>
+      </c>
+      <c r="F2406" s="1">
+        <v>44923.833310185182</v>
+      </c>
+    </row>
+    <row r="2407" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2407" t="s">
+        <v>5434</v>
+      </c>
+      <c r="B2407" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2407" t="s">
+        <v>354</v>
+      </c>
+      <c r="D2407" t="s">
+        <v>966</v>
+      </c>
+      <c r="E2407" t="s">
+        <v>5435</v>
+      </c>
+      <c r="F2407" s="1">
+        <v>44923.833796296298</v>
+      </c>
+    </row>
+    <row r="2408" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2408" t="s">
+        <v>5436</v>
+      </c>
+      <c r="B2408" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2408" t="s">
+        <v>354</v>
+      </c>
+      <c r="D2408" t="s">
+        <v>24</v>
+      </c>
+      <c r="E2408" t="s">
+        <v>5437</v>
+      </c>
+      <c r="F2408" s="1">
+        <v>44923.834143518521</v>
+      </c>
+    </row>
+    <row r="2409" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2409" t="s">
+        <v>5438</v>
+      </c>
+      <c r="B2409" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2409" t="s">
+        <v>354</v>
+      </c>
+      <c r="D2409" t="s">
+        <v>5439</v>
+      </c>
+      <c r="E2409" t="s">
+        <v>5440</v>
+      </c>
+      <c r="F2409" s="1">
+        <v>44923.834247685183</v>
+      </c>
+    </row>
+    <row r="2410" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2410" t="s">
+        <v>5441</v>
+      </c>
+      <c r="B2410" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2410" t="s">
+        <v>354</v>
+      </c>
+      <c r="D2410" t="s">
+        <v>1925</v>
+      </c>
+      <c r="E2410" t="s">
+        <v>5442</v>
+      </c>
+      <c r="F2410" s="1">
+        <v>44923.834351851852</v>
+      </c>
+    </row>
+    <row r="2411" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2411" t="s">
+        <v>5443</v>
+      </c>
+      <c r="B2411" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2411" t="s">
+        <v>354</v>
+      </c>
+      <c r="D2411" t="s">
+        <v>43</v>
+      </c>
+      <c r="E2411" t="s">
+        <v>5444</v>
+      </c>
+      <c r="F2411" s="1">
+        <v>44923.834756944445</v>
+      </c>
+    </row>
+    <row r="2412" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2412" t="s">
+        <v>5445</v>
+      </c>
+      <c r="B2412" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2412" t="s">
+        <v>354</v>
+      </c>
+      <c r="D2412" t="s">
+        <v>24</v>
+      </c>
+      <c r="E2412" t="s">
+        <v>5446</v>
+      </c>
+      <c r="F2412" s="1">
+        <v>44923.835104166668</v>
+      </c>
+    </row>
+    <row r="2413" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2413" t="s">
+        <v>5447</v>
+      </c>
+      <c r="B2413" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2413" t="s">
+        <v>1978</v>
+      </c>
+      <c r="D2413" t="s">
+        <v>1139</v>
+      </c>
+      <c r="E2413" t="s">
+        <v>5448</v>
+      </c>
+      <c r="F2413" s="1">
+        <v>44923.835578703707</v>
+      </c>
+    </row>
+    <row r="2414" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2414" t="s">
+        <v>5449</v>
+      </c>
+      <c r="B2414" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2414" t="s">
+        <v>1978</v>
+      </c>
+      <c r="D2414" t="s">
+        <v>29</v>
+      </c>
+      <c r="E2414" t="s">
+        <v>5450</v>
+      </c>
+      <c r="F2414" s="1">
+        <v>44923.835914351854</v>
+      </c>
+    </row>
+    <row r="2415" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2415" t="s">
+        <v>5451</v>
+      </c>
+      <c r="B2415" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2415" t="s">
+        <v>1978</v>
+      </c>
+      <c r="D2415" t="s">
+        <v>3893</v>
+      </c>
+      <c r="E2415" t="s">
+        <v>5452</v>
+      </c>
+      <c r="F2415" s="1">
+        <v>44923.836018518516</v>
+      </c>
+    </row>
+    <row r="2416" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2416" t="s">
+        <v>5453</v>
+      </c>
+      <c r="B2416" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2416" t="s">
+        <v>1978</v>
+      </c>
+      <c r="D2416" t="s">
+        <v>492</v>
+      </c>
+      <c r="E2416" t="s">
+        <v>5454</v>
+      </c>
+      <c r="F2416" s="1">
+        <v>44923.836122685185</v>
+      </c>
+    </row>
+    <row r="2417" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2417" t="s">
+        <v>5455</v>
+      </c>
+      <c r="B2417" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2417" t="s">
+        <v>1978</v>
+      </c>
+      <c r="D2417" t="s">
+        <v>29</v>
+      </c>
+      <c r="E2417" t="s">
+        <v>5456</v>
+      </c>
+      <c r="F2417" s="1">
+        <v>44923.836458333331</v>
+      </c>
+    </row>
+    <row r="2418" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2418" t="s">
+        <v>5457</v>
+      </c>
+      <c r="B2418" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2418" t="s">
+        <v>1978</v>
+      </c>
+      <c r="D2418" t="s">
+        <v>29</v>
+      </c>
+      <c r="E2418" t="s">
+        <v>5458</v>
+      </c>
+      <c r="F2418" s="1">
+        <v>44923.836805555555</v>
+      </c>
+    </row>
+    <row r="2419" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2419" t="s">
+        <v>5459</v>
+      </c>
+      <c r="B2419" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2419" t="s">
+        <v>1978</v>
+      </c>
+      <c r="D2419" t="s">
+        <v>5460</v>
+      </c>
+      <c r="E2419" t="s">
+        <v>5461</v>
+      </c>
+      <c r="F2419" s="1">
+        <v>44923.836909722224</v>
+      </c>
+    </row>
+    <row r="2420" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2420" t="s">
+        <v>5462</v>
+      </c>
+      <c r="B2420" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2420" t="s">
+        <v>1978</v>
+      </c>
+      <c r="D2420" t="s">
+        <v>24</v>
+      </c>
+      <c r="E2420" t="s">
+        <v>5463</v>
+      </c>
+      <c r="F2420" s="1">
+        <v>44923.837256944447</v>
+      </c>
+    </row>
+    <row r="2421" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2421" t="s">
+        <v>5464</v>
+      </c>
+      <c r="B2421" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2421" t="s">
+        <v>1978</v>
+      </c>
+      <c r="D2421" t="s">
+        <v>29</v>
+      </c>
+      <c r="E2421" t="s">
+        <v>5465</v>
+      </c>
+      <c r="F2421" s="1">
+        <v>44923.837592592594</v>
+      </c>
+    </row>
+    <row r="2422" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2422" t="s">
+        <v>5466</v>
+      </c>
+      <c r="B2422" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2422" t="s">
+        <v>1978</v>
+      </c>
+      <c r="D2422" t="s">
+        <v>5467</v>
+      </c>
+      <c r="E2422" t="s">
+        <v>5468</v>
+      </c>
+      <c r="F2422" s="1">
+        <v>44923.837696759256</v>
+      </c>
+    </row>
+    <row r="2423" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2423" t="s">
+        <v>5469</v>
+      </c>
+      <c r="B2423" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2423" t="s">
+        <v>1978</v>
+      </c>
+      <c r="D2423" t="s">
+        <v>29</v>
+      </c>
+      <c r="E2423" t="s">
+        <v>5470</v>
+      </c>
+      <c r="F2423" s="1">
+        <v>44923.838391203702</v>
+      </c>
+    </row>
+    <row r="2424" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2424" t="s">
+        <v>5471</v>
+      </c>
+      <c r="B2424" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2424" t="s">
+        <v>1978</v>
+      </c>
+      <c r="D2424" t="s">
+        <v>5472</v>
+      </c>
+      <c r="E2424" t="s">
+        <v>5473</v>
+      </c>
+      <c r="F2424" s="1">
+        <v>44923.838495370372</v>
+      </c>
+    </row>
+    <row r="2425" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2425" t="s">
+        <v>5474</v>
+      </c>
+      <c r="B2425" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2425" t="s">
+        <v>1978</v>
+      </c>
+      <c r="D2425" t="s">
+        <v>1577</v>
+      </c>
+      <c r="E2425" t="s">
+        <v>5475</v>
+      </c>
+      <c r="F2425" s="1">
+        <v>44923.838599537034</v>
+      </c>
+    </row>
+    <row r="2426" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2426" t="s">
+        <v>5476</v>
+      </c>
+      <c r="B2426" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2426" t="s">
+        <v>1978</v>
+      </c>
+      <c r="D2426" t="s">
+        <v>43</v>
+      </c>
+      <c r="E2426" t="s">
+        <v>5477</v>
+      </c>
+      <c r="F2426" s="1">
+        <v>44923.838993055557</v>
+      </c>
+    </row>
+    <row r="2427" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2427" t="s">
+        <v>5478</v>
+      </c>
+      <c r="B2427" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2427" t="s">
+        <v>1978</v>
+      </c>
+      <c r="D2427" t="s">
+        <v>2055</v>
+      </c>
+      <c r="E2427" t="s">
+        <v>5479</v>
+      </c>
+      <c r="F2427" s="1">
+        <v>44923.839097222219</v>
+      </c>
+    </row>
+    <row r="2428" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2428" t="s">
+        <v>2446</v>
+      </c>
+      <c r="B2428" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2428" t="s">
+        <v>1978</v>
+      </c>
+      <c r="D2428" t="s">
+        <v>5480</v>
+      </c>
+      <c r="E2428" t="s">
+        <v>5481</v>
+      </c>
+      <c r="F2428" s="1">
+        <v>44923.839201388888</v>
+      </c>
+    </row>
+    <row r="2429" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2429" t="s">
+        <v>5482</v>
+      </c>
+      <c r="B2429" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2429" t="s">
+        <v>1978</v>
+      </c>
+      <c r="D2429" t="s">
+        <v>2699</v>
+      </c>
+      <c r="E2429" t="s">
+        <v>5483</v>
+      </c>
+      <c r="F2429" s="1">
+        <v>44923.839305555557</v>
+      </c>
+    </row>
+    <row r="2430" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2430" t="s">
+        <v>5484</v>
+      </c>
+      <c r="B2430" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2430" t="s">
+        <v>1978</v>
+      </c>
+      <c r="D2430" t="s">
+        <v>43</v>
+      </c>
+      <c r="E2430" t="s">
+        <v>5485</v>
+      </c>
+      <c r="F2430" s="1">
+        <v>44923.840081018519</v>
+      </c>
+    </row>
+    <row r="2431" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2431" t="s">
+        <v>5486</v>
+      </c>
+      <c r="B2431" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2431" t="s">
+        <v>1978</v>
+      </c>
+      <c r="D2431" t="s">
+        <v>24</v>
+      </c>
+      <c r="E2431" t="s">
+        <v>5487</v>
+      </c>
+      <c r="F2431" s="1">
+        <v>44923.840439814812</v>
+      </c>
+    </row>
+    <row r="2432" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2432" t="s">
+        <v>5488</v>
+      </c>
+      <c r="B2432" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2432" t="s">
+        <v>1978</v>
+      </c>
+      <c r="D2432" t="s">
+        <v>5489</v>
+      </c>
+      <c r="E2432" t="s">
+        <v>5490</v>
+      </c>
+      <c r="F2432" s="1">
+        <v>44923.840543981481</v>
+      </c>
+    </row>
+    <row r="2433" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2433" t="s">
+        <v>5491</v>
+      </c>
+      <c r="B2433" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2433" t="s">
+        <v>1978</v>
+      </c>
+      <c r="D2433" t="s">
+        <v>29</v>
+      </c>
+      <c r="E2433" t="s">
+        <v>5492</v>
+      </c>
+      <c r="F2433" s="1">
+        <v>44923.840868055559</v>
+      </c>
+    </row>
+    <row r="2434" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2434" t="s">
+        <v>5493</v>
+      </c>
+      <c r="B2434" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2434" t="s">
+        <v>1978</v>
+      </c>
+      <c r="D2434" t="s">
+        <v>2123</v>
+      </c>
+      <c r="E2434" t="s">
+        <v>5494</v>
+      </c>
+      <c r="F2434" s="1">
+        <v>44923.84097222222</v>
+      </c>
+    </row>
+    <row r="2435" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2435" t="s">
+        <v>5495</v>
+      </c>
+      <c r="B2435" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2435" t="s">
+        <v>1978</v>
+      </c>
+      <c r="D2435" t="s">
+        <v>24</v>
+      </c>
+      <c r="E2435" t="s">
+        <v>5496</v>
+      </c>
+      <c r="F2435" s="1">
+        <v>44923.841319444444</v>
+      </c>
+    </row>
+    <row r="2436" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2436" t="s">
+        <v>5497</v>
+      </c>
+      <c r="B2436" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2436" t="s">
+        <v>1978</v>
+      </c>
+      <c r="D2436" t="s">
+        <v>334</v>
+      </c>
+      <c r="E2436" t="s">
+        <v>5498</v>
+      </c>
+      <c r="F2436" s="1">
+        <v>44923.841793981483</v>
+      </c>
+    </row>
+    <row r="2437" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2437" t="s">
+        <v>5499</v>
+      </c>
+      <c r="B2437" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2437" t="s">
+        <v>1978</v>
+      </c>
+      <c r="D2437" t="s">
+        <v>1985</v>
+      </c>
+      <c r="E2437" t="s">
+        <v>5500</v>
+      </c>
+      <c r="F2437" s="1">
+        <v>44923.841898148145</v>
+      </c>
+    </row>
+    <row r="2438" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2438" t="s">
+        <v>5501</v>
+      </c>
+      <c r="B2438" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2438" t="s">
+        <v>1978</v>
+      </c>
+      <c r="D2438" t="s">
+        <v>3592</v>
+      </c>
+      <c r="E2438" t="s">
+        <v>5502</v>
+      </c>
+      <c r="F2438" s="1">
+        <v>44923.842002314814</v>
+      </c>
+    </row>
+    <row r="2439" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2439" t="s">
+        <v>5503</v>
+      </c>
+      <c r="B2439" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2439" t="s">
+        <v>1978</v>
+      </c>
+      <c r="D2439" t="s">
+        <v>29</v>
+      </c>
+      <c r="E2439" t="s">
+        <v>5504</v>
+      </c>
+      <c r="F2439" s="1">
+        <v>44923.84233796296</v>
+      </c>
+    </row>
+    <row r="2440" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2440" t="s">
+        <v>5505</v>
+      </c>
+      <c r="B2440" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2440" t="s">
+        <v>1978</v>
+      </c>
+      <c r="D2440" t="s">
+        <v>1580</v>
+      </c>
+      <c r="E2440" t="s">
+        <v>5506</v>
+      </c>
+      <c r="F2440" s="1">
+        <v>44923.842442129629</v>
+      </c>
+    </row>
+    <row r="2441" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2441" t="s">
+        <v>5507</v>
+      </c>
+      <c r="B2441" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2441" t="s">
+        <v>1978</v>
+      </c>
+      <c r="D2441" t="s">
+        <v>4976</v>
+      </c>
+      <c r="E2441" t="s">
+        <v>5508</v>
+      </c>
+      <c r="F2441" s="1">
+        <v>44923.842546296299</v>
+      </c>
+    </row>
+    <row r="2442" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2442" t="s">
+        <v>5509</v>
+      </c>
+      <c r="B2442" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2442" t="s">
+        <v>1978</v>
+      </c>
+      <c r="D2442" t="s">
+        <v>3804</v>
+      </c>
+      <c r="E2442" t="s">
+        <v>5510</v>
+      </c>
+      <c r="F2442" s="1">
+        <v>44923.842650462961</v>
+      </c>
+    </row>
+    <row r="2443" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2443" t="s">
+        <v>5511</v>
+      </c>
+      <c r="B2443" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2443" t="s">
+        <v>1978</v>
+      </c>
+      <c r="D2443" t="s">
+        <v>29</v>
+      </c>
+      <c r="E2443" t="s">
+        <v>5512</v>
+      </c>
+      <c r="F2443" s="1">
+        <v>44923.842986111114</v>
+      </c>
+    </row>
+    <row r="2444" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2444" t="s">
+        <v>5513</v>
+      </c>
+      <c r="B2444" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2444" t="s">
+        <v>1978</v>
+      </c>
+      <c r="D2444" t="s">
+        <v>3501</v>
+      </c>
+      <c r="E2444" t="s">
+        <v>5514</v>
+      </c>
+      <c r="F2444" s="1">
+        <v>44923.843460648146</v>
+      </c>
+    </row>
+    <row r="2445" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2445" t="s">
+        <v>5515</v>
+      </c>
+      <c r="B2445" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2445" t="s">
+        <v>1978</v>
+      </c>
+      <c r="D2445" t="s">
+        <v>502</v>
+      </c>
+      <c r="E2445" t="s">
+        <v>5516</v>
+      </c>
+      <c r="F2445" s="1">
+        <v>44923.843564814815</v>
+      </c>
+    </row>
+    <row r="2446" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2446" t="s">
+        <v>5517</v>
+      </c>
+      <c r="B2446" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2446" t="s">
+        <v>1978</v>
+      </c>
+      <c r="D2446" t="s">
+        <v>870</v>
+      </c>
+      <c r="E2446" t="s">
+        <v>5518</v>
+      </c>
+      <c r="F2446" s="1">
+        <v>44923.843668981484</v>
+      </c>
+    </row>
+    <row r="2447" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2447" t="s">
+        <v>5519</v>
+      </c>
+      <c r="B2447" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2447" t="s">
+        <v>1978</v>
+      </c>
+      <c r="D2447" t="s">
+        <v>5520</v>
+      </c>
+      <c r="E2447" t="s">
+        <v>5521</v>
+      </c>
+      <c r="F2447" s="1">
+        <v>44923.843773148146</v>
+      </c>
+    </row>
+    <row r="2448" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2448" t="s">
+        <v>5522</v>
+      </c>
+      <c r="B2448" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2448" t="s">
+        <v>1978</v>
+      </c>
+      <c r="D2448" t="s">
+        <v>873</v>
+      </c>
+      <c r="E2448" t="s">
+        <v>5523</v>
+      </c>
+      <c r="F2448" s="1">
+        <v>44923.843877314815</v>
+      </c>
+    </row>
+    <row r="2449" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2449" t="s">
+        <v>5524</v>
+      </c>
+      <c r="B2449" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2449" t="s">
+        <v>1978</v>
+      </c>
+      <c r="D2449" t="s">
+        <v>5525</v>
+      </c>
+      <c r="E2449" t="s">
+        <v>5526</v>
+      </c>
+      <c r="F2449" s="1">
+        <v>44923.843981481485</v>
+      </c>
+    </row>
+    <row r="2450" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2450" t="s">
+        <v>5527</v>
+      </c>
+      <c r="B2450" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2450" t="s">
+        <v>1978</v>
+      </c>
+      <c r="D2450" t="s">
+        <v>2078</v>
+      </c>
+      <c r="E2450" t="s">
+        <v>5528</v>
+      </c>
+      <c r="F2450" s="1">
+        <v>44923.844085648147</v>
+      </c>
+    </row>
+    <row r="2451" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2451" t="s">
+        <v>5529</v>
+      </c>
+      <c r="B2451" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2451" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2451" t="s">
+        <v>24</v>
+      </c>
+      <c r="E2451" t="s">
+        <v>5530</v>
+      </c>
+      <c r="F2451" s="1">
+        <v>44924.8671875</v>
+      </c>
+    </row>
+    <row r="2452" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2452" t="s">
+        <v>5531</v>
+      </c>
+      <c r="B2452" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2452" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2452" t="s">
+        <v>5532</v>
+      </c>
+      <c r="E2452" t="s">
+        <v>5533</v>
+      </c>
+      <c r="F2452" s="1">
+        <v>44924.867291666669</v>
+      </c>
+    </row>
+    <row r="2453" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2453" t="s">
+        <v>5534</v>
+      </c>
+      <c r="B2453" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2453" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2453" t="s">
+        <v>361</v>
+      </c>
+      <c r="E2453" t="s">
+        <v>5535</v>
+      </c>
+      <c r="F2453" s="1">
+        <v>44924.867407407408</v>
+      </c>
+    </row>
+    <row r="2454" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2454" t="s">
+        <v>5536</v>
+      </c>
+      <c r="B2454" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2454" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2454" t="s">
+        <v>24</v>
+      </c>
+      <c r="E2454" t="s">
+        <v>5537</v>
+      </c>
+      <c r="F2454" s="1">
+        <v>44924.867754629631</v>
+      </c>
+    </row>
+    <row r="2455" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2455" t="s">
+        <v>5538</v>
+      </c>
+      <c r="B2455" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2455" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2455" t="s">
+        <v>24</v>
+      </c>
+      <c r="E2455" t="s">
+        <v>5539</v>
+      </c>
+      <c r="F2455" s="1">
+        <v>44924.868125000001</v>
+      </c>
+    </row>
+    <row r="2456" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2456" t="s">
+        <v>5540</v>
+      </c>
+      <c r="B2456" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2456" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2456" t="s">
+        <v>2070</v>
+      </c>
+      <c r="E2456" t="s">
+        <v>5541</v>
+      </c>
+      <c r="F2456" s="1">
+        <v>44924.86822916667</v>
+      </c>
+    </row>
+    <row r="2457" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2457" t="s">
+        <v>5542</v>
+      </c>
+      <c r="B2457" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2457" t="s">
+        <v>354</v>
+      </c>
+      <c r="D2457" t="s">
+        <v>3384</v>
+      </c>
+      <c r="E2457" t="s">
+        <v>5543</v>
+      </c>
+      <c r="F2457" s="1">
+        <v>44924.868703703702</v>
+      </c>
+    </row>
+    <row r="2458" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2458" t="s">
+        <v>5544</v>
+      </c>
+      <c r="B2458" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2458" t="s">
+        <v>354</v>
+      </c>
+      <c r="D2458" t="s">
+        <v>5545</v>
+      </c>
+      <c r="E2458" t="s">
+        <v>5546</v>
+      </c>
+      <c r="F2458" s="1">
+        <v>44924.868807870371</v>
+      </c>
+    </row>
+    <row r="2459" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2459" t="s">
+        <v>5547</v>
+      </c>
+      <c r="B2459" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2459" t="s">
+        <v>1978</v>
+      </c>
+      <c r="D2459" t="s">
+        <v>24</v>
+      </c>
+      <c r="E2459" t="s">
+        <v>5548</v>
+      </c>
+      <c r="F2459" s="1">
+        <v>44924.869537037041</v>
+      </c>
+    </row>
+    <row r="2460" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2460" t="s">
+        <v>5549</v>
+      </c>
+      <c r="B2460" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2460" t="s">
+        <v>1978</v>
+      </c>
+      <c r="D2460" t="s">
+        <v>5550</v>
+      </c>
+      <c r="E2460" t="s">
+        <v>5551</v>
+      </c>
+      <c r="F2460" s="1">
+        <v>44924.869641203702</v>
+      </c>
+    </row>
+    <row r="2461" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2461" t="s">
+        <v>5552</v>
+      </c>
+      <c r="B2461" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2461" t="s">
+        <v>1978</v>
+      </c>
+      <c r="D2461" t="s">
+        <v>24</v>
+      </c>
+      <c r="E2461" t="s">
+        <v>5553</v>
+      </c>
+      <c r="F2461" s="1">
+        <v>44924.87</v>
+      </c>
+    </row>
+    <row r="2462" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2462" t="s">
+        <v>5554</v>
+      </c>
+      <c r="B2462" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2462" t="s">
+        <v>1978</v>
+      </c>
+      <c r="D2462" t="s">
+        <v>2707</v>
+      </c>
+      <c r="E2462" t="s">
+        <v>5555</v>
+      </c>
+      <c r="F2462" s="1">
+        <v>44924.870104166665</v>
+      </c>
+    </row>
+    <row r="2463" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2463" t="s">
+        <v>5556</v>
+      </c>
+      <c r="B2463" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2463" t="s">
+        <v>1978</v>
+      </c>
+      <c r="D2463" t="s">
+        <v>5557</v>
+      </c>
+      <c r="E2463" t="s">
+        <v>5558</v>
+      </c>
+      <c r="F2463" s="1">
+        <v>44924.870208333334</v>
+      </c>
+    </row>
+    <row r="2464" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2464" t="s">
+        <v>5559</v>
+      </c>
+      <c r="B2464" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2464" t="s">
+        <v>1978</v>
+      </c>
+      <c r="D2464" t="s">
+        <v>24</v>
+      </c>
+      <c r="E2464" t="s">
+        <v>5560</v>
+      </c>
+      <c r="F2464" s="1">
+        <v>44924.87060185185</v>
+      </c>
+    </row>
+    <row r="2465" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2465" t="s">
+        <v>5561</v>
+      </c>
+      <c r="B2465" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2465" t="s">
+        <v>1978</v>
+      </c>
+      <c r="D2465" t="s">
+        <v>3622</v>
+      </c>
+      <c r="E2465" t="s">
+        <v>5562</v>
+      </c>
+      <c r="F2465" s="1">
+        <v>44924.870706018519</v>
+      </c>
+    </row>
+    <row r="2466" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2466" t="s">
+        <v>5563</v>
+      </c>
+      <c r="B2466" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2466" t="s">
+        <v>1978</v>
+      </c>
+      <c r="D2466" t="s">
+        <v>5564</v>
+      </c>
+      <c r="E2466" t="s">
+        <v>5565</v>
+      </c>
+      <c r="F2466" s="1">
+        <v>44924.870810185188</v>
+      </c>
+    </row>
+    <row r="2467" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2467" t="s">
+        <v>5566</v>
+      </c>
+      <c r="B2467" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2467" t="s">
+        <v>1978</v>
+      </c>
+      <c r="D2467" t="s">
+        <v>29</v>
+      </c>
+      <c r="E2467" t="s">
+        <v>5567</v>
+      </c>
+      <c r="F2467" s="1">
+        <v>44924.871550925927</v>
+      </c>
+    </row>
+    <row r="2468" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2468" t="s">
+        <v>5568</v>
+      </c>
+      <c r="B2468" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2468" t="s">
+        <v>1978</v>
+      </c>
+      <c r="D2468" t="s">
+        <v>361</v>
+      </c>
+      <c r="E2468" t="s">
+        <v>5569</v>
+      </c>
+      <c r="F2468" s="1">
+        <v>44924.871655092589</v>
+      </c>
+    </row>
+    <row r="2469" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2469" t="s">
+        <v>5570</v>
+      </c>
+      <c r="B2469" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2469" t="s">
+        <v>1978</v>
+      </c>
+      <c r="D2469" t="s">
+        <v>1925</v>
+      </c>
+      <c r="E2469" t="s">
+        <v>5571</v>
+      </c>
+      <c r="F2469" s="1">
+        <v>44924.871759259258</v>
+      </c>
+    </row>
+    <row r="2470" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2470" t="s">
+        <v>5572</v>
+      </c>
+      <c r="B2470" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2470" t="s">
+        <v>1978</v>
+      </c>
+      <c r="D2470" t="s">
+        <v>462</v>
+      </c>
+      <c r="E2470" t="s">
+        <v>5573</v>
+      </c>
+      <c r="F2470" s="1">
+        <v>44924.871874999997</v>
+      </c>
+    </row>
+    <row r="2471" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2471" t="s">
+        <v>5574</v>
+      </c>
+      <c r="B2471" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2471" t="s">
+        <v>1978</v>
+      </c>
+      <c r="D2471" t="s">
+        <v>2857</v>
+      </c>
+      <c r="E2471" t="s">
+        <v>5575</v>
+      </c>
+      <c r="F2471" s="1">
+        <v>44924.871979166666</v>
+      </c>
+    </row>
+    <row r="2472" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2472" t="s">
+        <v>5576</v>
+      </c>
+      <c r="B2472" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2472" t="s">
+        <v>1978</v>
+      </c>
+      <c r="D2472" t="s">
+        <v>2023</v>
+      </c>
+      <c r="E2472" t="s">
+        <v>5577</v>
+      </c>
+      <c r="F2472" s="1">
+        <v>44924.872083333335</v>
+      </c>
+    </row>
+    <row r="2473" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2473" t="s">
+        <v>5578</v>
+      </c>
+      <c r="B2473" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2473" t="s">
+        <v>1978</v>
+      </c>
+      <c r="D2473" t="s">
+        <v>693</v>
+      </c>
+      <c r="E2473" t="s">
+        <v>5579</v>
+      </c>
+      <c r="F2473" s="1">
+        <v>44924.872187499997</v>
+      </c>
+    </row>
+    <row r="2474" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2474" t="s">
+        <v>5580</v>
+      </c>
+      <c r="B2474" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2474" t="s">
+        <v>1978</v>
+      </c>
+      <c r="D2474" t="s">
+        <v>1971</v>
+      </c>
+      <c r="E2474" t="s">
+        <v>5581</v>
+      </c>
+      <c r="F2474" s="1">
+        <v>44924.872291666667</v>
+      </c>
+    </row>
+    <row r="2475" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2475" t="s">
+        <v>5582</v>
+      </c>
+      <c r="B2475" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2475" t="s">
+        <v>1978</v>
+      </c>
+      <c r="D2475" t="s">
+        <v>2252</v>
+      </c>
+      <c r="E2475" t="s">
+        <v>5583</v>
+      </c>
+      <c r="F2475" s="1">
+        <v>44924.872395833336</v>
+      </c>
+    </row>
+    <row r="2476" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2476" t="s">
+        <v>5584</v>
+      </c>
+      <c r="B2476" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2476" t="s">
+        <v>1978</v>
+      </c>
+      <c r="D2476" t="s">
+        <v>431</v>
+      </c>
+      <c r="E2476" t="s">
+        <v>5585</v>
+      </c>
+      <c r="F2476" s="1">
+        <v>44924.872881944444</v>
+      </c>
+    </row>
+    <row r="2477" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2477" t="s">
+        <v>5586</v>
+      </c>
+      <c r="B2477" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2477" t="s">
+        <v>1978</v>
+      </c>
+      <c r="D2477" t="s">
+        <v>43</v>
+      </c>
+      <c r="E2477" t="s">
+        <v>5587</v>
+      </c>
+      <c r="F2477" s="1">
+        <v>44924.873287037037</v>
+      </c>
+    </row>
+    <row r="2478" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2478" t="s">
+        <v>5588</v>
+      </c>
+      <c r="B2478" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2478" t="s">
+        <v>1978</v>
+      </c>
+      <c r="D2478" t="s">
+        <v>29</v>
+      </c>
+      <c r="E2478" t="s">
+        <v>5589</v>
+      </c>
+      <c r="F2478" s="1">
+        <v>44924.87363425926</v>
+      </c>
+    </row>
+    <row r="2479" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2479" t="s">
+        <v>5590</v>
+      </c>
+      <c r="B2479" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2479" t="s">
+        <v>1978</v>
+      </c>
+      <c r="D2479" t="s">
+        <v>43</v>
+      </c>
+      <c r="E2479" t="s">
+        <v>5591</v>
+      </c>
+      <c r="F2479" s="1">
+        <v>44924.874027777776</v>
+      </c>
+    </row>
+    <row r="2480" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2480" t="s">
+        <v>5592</v>
+      </c>
+      <c r="B2480" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2480" t="s">
+        <v>1978</v>
+      </c>
+      <c r="D2480" t="s">
+        <v>43</v>
+      </c>
+      <c r="E2480" t="s">
+        <v>5593</v>
+      </c>
+      <c r="F2480" s="1">
+        <v>44924.874421296299</v>
+      </c>
+    </row>
+    <row r="2481" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2481" t="s">
+        <v>5594</v>
+      </c>
+      <c r="B2481" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2481" t="s">
+        <v>1978</v>
+      </c>
+      <c r="D2481" t="s">
+        <v>29</v>
+      </c>
+      <c r="E2481" t="s">
+        <v>5595</v>
+      </c>
+      <c r="F2481" s="1">
+        <v>44924.874756944446</v>
+      </c>
+    </row>
+    <row r="2482" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2482" t="s">
+        <v>5596</v>
+      </c>
+      <c r="B2482" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2482" t="s">
+        <v>1978</v>
+      </c>
+      <c r="D2482" t="s">
+        <v>630</v>
+      </c>
+      <c r="E2482" t="s">
+        <v>5597</v>
+      </c>
+      <c r="F2482" s="1">
+        <v>44924.874861111108</v>
+      </c>
+    </row>
+    <row r="2483" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2483" t="s">
+        <v>5598</v>
+      </c>
+      <c r="B2483" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2483" t="s">
+        <v>1978</v>
+      </c>
+      <c r="D2483" t="s">
+        <v>24</v>
+      </c>
+      <c r="E2483" t="s">
+        <v>5599</v>
+      </c>
+      <c r="F2483" s="1">
+        <v>44924.875219907408</v>
+      </c>
+    </row>
+    <row r="2484" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2484" t="s">
+        <v>5600</v>
+      </c>
+      <c r="B2484" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2484" t="s">
+        <v>1978</v>
+      </c>
+      <c r="D2484" t="s">
+        <v>29</v>
+      </c>
+      <c r="E2484" t="s">
+        <v>5601</v>
+      </c>
+      <c r="F2484" s="1">
+        <v>44924.875567129631</v>
+      </c>
+    </row>
+    <row r="2485" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2485" t="s">
+        <v>5602</v>
+      </c>
+      <c r="B2485" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2485" t="s">
+        <v>1978</v>
+      </c>
+      <c r="D2485" t="s">
+        <v>24</v>
+      </c>
+      <c r="E2485" t="s">
+        <v>5603</v>
+      </c>
+      <c r="F2485" s="1">
+        <v>44924.875960648147</v>
+      </c>
+    </row>
+    <row r="2486" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2486" t="s">
+        <v>5604</v>
+      </c>
+      <c r="B2486" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2486" t="s">
+        <v>1978</v>
+      </c>
+      <c r="D2486" t="s">
+        <v>24</v>
+      </c>
+      <c r="E2486" t="s">
+        <v>5605</v>
+      </c>
+      <c r="F2486" s="1">
+        <v>44924.876689814817</v>
+      </c>
+    </row>
+    <row r="2487" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2487" t="s">
+        <v>5606</v>
+      </c>
+      <c r="B2487" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2487" t="s">
+        <v>1978</v>
+      </c>
+      <c r="D2487" t="s">
+        <v>5607</v>
+      </c>
+      <c r="E2487" t="s">
+        <v>5608</v>
+      </c>
+      <c r="F2487" s="1">
+        <v>44924.876793981479</v>
+      </c>
+    </row>
+    <row r="2488" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2488" t="s">
+        <v>5609</v>
+      </c>
+      <c r="B2488" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2488" t="s">
+        <v>1978</v>
+      </c>
+      <c r="D2488" t="s">
+        <v>5610</v>
+      </c>
+      <c r="E2488" t="s">
+        <v>5611</v>
+      </c>
+      <c r="F2488" s="1">
+        <v>44924.876921296294</v>
+      </c>
+    </row>
+    <row r="2489" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2489" t="s">
+        <v>5612</v>
+      </c>
+      <c r="B2489" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2489" t="s">
+        <v>1978</v>
+      </c>
+      <c r="D2489" t="s">
+        <v>431</v>
+      </c>
+      <c r="E2489" t="s">
+        <v>5613</v>
+      </c>
+      <c r="F2489" s="1">
+        <v>44924.87703703704</v>
+      </c>
+    </row>
+    <row r="2490" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2490" t="s">
+        <v>5614</v>
+      </c>
+      <c r="B2490" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2490" t="s">
+        <v>1978</v>
+      </c>
+      <c r="D2490" t="s">
+        <v>5615</v>
+      </c>
+      <c r="E2490" t="s">
+        <v>5616</v>
+      </c>
+      <c r="F2490" s="1">
+        <v>44924.877141203702</v>
+      </c>
+    </row>
+    <row r="2491" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2491" t="s">
+        <v>5617</v>
+      </c>
+      <c r="B2491" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2491" t="s">
+        <v>1978</v>
+      </c>
+      <c r="D2491" t="s">
+        <v>24</v>
+      </c>
+      <c r="E2491" t="s">
+        <v>5618</v>
+      </c>
+      <c r="F2491" s="1">
+        <v>44924.877534722225</v>
+      </c>
+    </row>
+    <row r="2492" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2492" t="s">
+        <v>5619</v>
+      </c>
+      <c r="B2492" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2492" t="s">
+        <v>1978</v>
+      </c>
+      <c r="D2492" t="s">
+        <v>24</v>
+      </c>
+      <c r="E2492" t="s">
+        <v>5620</v>
+      </c>
+      <c r="F2492" s="1">
+        <v>44924.877881944441</v>
+      </c>
+    </row>
+    <row r="2493" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2493" t="s">
+        <v>5621</v>
+      </c>
+      <c r="B2493" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2493" t="s">
+        <v>1978</v>
+      </c>
+      <c r="D2493" t="s">
+        <v>966</v>
+      </c>
+      <c r="E2493" t="s">
+        <v>5622</v>
+      </c>
+      <c r="F2493" s="1">
+        <v>44924.87835648148</v>
+      </c>
+    </row>
+    <row r="2494" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2494" t="s">
+        <v>5623</v>
+      </c>
+      <c r="B2494" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2494" t="s">
+        <v>1978</v>
+      </c>
+      <c r="D2494" t="s">
+        <v>361</v>
+      </c>
+      <c r="E2494" t="s">
+        <v>5624</v>
+      </c>
+      <c r="F2494" s="1">
+        <v>44924.878460648149</v>
+      </c>
+    </row>
+    <row r="2495" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2495" t="s">
+        <v>5625</v>
+      </c>
+      <c r="B2495" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2495" t="s">
+        <v>1978</v>
+      </c>
+      <c r="D2495" t="s">
+        <v>693</v>
+      </c>
+      <c r="E2495" t="s">
+        <v>5626</v>
+      </c>
+      <c r="F2495" s="1">
+        <v>44924.878564814811</v>
+      </c>
+    </row>
+    <row r="2496" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2496" t="s">
+        <v>5627</v>
+      </c>
+      <c r="B2496" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2496" t="s">
+        <v>1978</v>
+      </c>
+      <c r="D2496" t="s">
+        <v>5628</v>
+      </c>
+      <c r="E2496" t="s">
+        <v>5629</v>
+      </c>
+      <c r="F2496" s="1">
+        <v>44924.878668981481</v>
+      </c>
+    </row>
+    <row r="2497" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2497" t="s">
+        <v>5630</v>
+      </c>
+      <c r="B2497" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2497" t="s">
+        <v>1978</v>
+      </c>
+      <c r="D2497" t="s">
+        <v>1377</v>
+      </c>
+      <c r="E2497" t="s">
+        <v>5631</v>
+      </c>
+      <c r="F2497" s="1">
+        <v>44924.87877314815</v>
+      </c>
+    </row>
+    <row r="2498" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2498" t="s">
+        <v>5632</v>
+      </c>
+      <c r="B2498" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2498" t="s">
+        <v>1978</v>
+      </c>
+      <c r="D2498" t="s">
+        <v>610</v>
+      </c>
+      <c r="E2498" t="s">
+        <v>5633</v>
+      </c>
+      <c r="F2498" s="1">
+        <v>44924.878877314812</v>
+      </c>
+    </row>
+    <row r="2499" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2499" t="s">
+        <v>5634</v>
+      </c>
+      <c r="B2499" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2499" t="s">
+        <v>1978</v>
+      </c>
+      <c r="D2499" t="s">
+        <v>5635</v>
+      </c>
+      <c r="E2499" t="s">
+        <v>5636</v>
+      </c>
+      <c r="F2499" s="1">
+        <v>44924.878981481481</v>
+      </c>
+    </row>
+    <row r="2500" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2500" t="s">
+        <v>5637</v>
+      </c>
+      <c r="E2500" t="s">
+        <v>5638</v>
+      </c>
+      <c r="G2500" t="s">
+        <v>60</v>
+      </c>
+      <c r="H2500" s="1">
+        <v>44928.901597222219</v>
+      </c>
+    </row>
+    <row r="2501" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2501" t="s">
+        <v>5639</v>
+      </c>
+      <c r="B2501" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2501" t="s">
+        <v>354</v>
+      </c>
+      <c r="D2501" t="s">
+        <v>43</v>
+      </c>
+      <c r="E2501" t="s">
+        <v>5640</v>
+      </c>
+      <c r="F2501" s="1">
+        <v>44928.910138888888</v>
+      </c>
+    </row>
+    <row r="2502" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2502" t="s">
+        <v>5641</v>
+      </c>
+      <c r="B2502" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2502" t="s">
+        <v>354</v>
+      </c>
+      <c r="D2502" t="s">
+        <v>43</v>
+      </c>
+      <c r="E2502" t="s">
+        <v>5642</v>
+      </c>
+      <c r="F2502" s="1">
+        <v>44928.910543981481</v>
+      </c>
+    </row>
+    <row r="2503" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2503" t="s">
+        <v>5643</v>
+      </c>
+      <c r="B2503" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2503" t="s">
+        <v>354</v>
+      </c>
+      <c r="D2503" t="s">
+        <v>24</v>
+      </c>
+      <c r="E2503" t="s">
+        <v>5644</v>
+      </c>
+      <c r="F2503" s="1">
+        <v>44928.910949074074</v>
+      </c>
+    </row>
+    <row r="2504" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2504" t="s">
+        <v>5645</v>
+      </c>
+      <c r="B2504" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2504" t="s">
+        <v>354</v>
+      </c>
+      <c r="D2504" t="s">
+        <v>29</v>
+      </c>
+      <c r="E2504" t="s">
+        <v>5646</v>
+      </c>
+      <c r="F2504" s="1">
+        <v>44928.911296296297</v>
+      </c>
+    </row>
+    <row r="2505" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2505" t="s">
+        <v>5647</v>
+      </c>
+      <c r="B2505" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2505" t="s">
+        <v>354</v>
+      </c>
+      <c r="D2505" t="s">
+        <v>29</v>
+      </c>
+      <c r="E2505" t="s">
+        <v>5648</v>
+      </c>
+      <c r="F2505" s="1">
+        <v>44928.911643518521</v>
+      </c>
+    </row>
+    <row r="2506" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2506" t="s">
+        <v>5649</v>
+      </c>
+      <c r="B2506" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2506" t="s">
+        <v>354</v>
+      </c>
+      <c r="D2506" t="s">
+        <v>5650</v>
+      </c>
+      <c r="E2506" t="s">
+        <v>5651</v>
+      </c>
+      <c r="F2506" s="1">
+        <v>44928.911759259259</v>
+      </c>
+    </row>
+    <row r="2507" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2507" t="s">
+        <v>5652</v>
+      </c>
+      <c r="B2507" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2507" t="s">
+        <v>354</v>
+      </c>
+      <c r="D2507" t="s">
+        <v>43</v>
+      </c>
+      <c r="E2507" t="s">
+        <v>5653</v>
+      </c>
+      <c r="F2507" s="1">
+        <v>44928.912164351852</v>
+      </c>
+    </row>
+    <row r="2508" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2508" t="s">
+        <v>5654</v>
+      </c>
+      <c r="B2508" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2508" t="s">
+        <v>354</v>
+      </c>
+      <c r="D2508" t="s">
+        <v>43</v>
+      </c>
+      <c r="E2508" t="s">
+        <v>5655</v>
+      </c>
+      <c r="F2508" s="1">
+        <v>44928.912557870368</v>
+      </c>
+    </row>
+    <row r="2509" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2509" t="s">
+        <v>5656</v>
+      </c>
+      <c r="B2509" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2509" t="s">
+        <v>1978</v>
+      </c>
+      <c r="D2509" t="s">
+        <v>1260</v>
+      </c>
+      <c r="E2509" t="s">
+        <v>5657</v>
+      </c>
+      <c r="F2509" s="1">
+        <v>44928.913043981483</v>
+      </c>
+    </row>
+    <row r="2510" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2510" t="s">
+        <v>5658</v>
+      </c>
+      <c r="B2510" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2510" t="s">
+        <v>1978</v>
+      </c>
+      <c r="D2510" t="s">
+        <v>5545</v>
+      </c>
+      <c r="E2510" t="s">
+        <v>5659</v>
+      </c>
+      <c r="F2510" s="1">
+        <v>44928.913148148145</v>
+      </c>
+    </row>
+    <row r="2511" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2511" t="s">
+        <v>5660</v>
+      </c>
+      <c r="B2511" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2511" t="s">
+        <v>1978</v>
+      </c>
+      <c r="D2511" t="s">
+        <v>24</v>
+      </c>
+      <c r="E2511" t="s">
+        <v>5661</v>
+      </c>
+      <c r="F2511" s="1">
+        <v>44928.913506944446</v>
+      </c>
+    </row>
+    <row r="2512" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2512" t="s">
+        <v>5662</v>
+      </c>
+      <c r="B2512" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2512" t="s">
+        <v>1978</v>
+      </c>
+      <c r="D2512" t="s">
+        <v>5663</v>
+      </c>
+      <c r="E2512" t="s">
+        <v>5664</v>
+      </c>
+      <c r="F2512" s="1">
+        <v>44928.913611111115</v>
+      </c>
+    </row>
+    <row r="2513" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2513" t="s">
+        <v>5665</v>
+      </c>
+      <c r="B2513" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2513" t="s">
+        <v>1978</v>
+      </c>
+      <c r="D2513" t="s">
+        <v>663</v>
+      </c>
+      <c r="E2513" t="s">
+        <v>5666</v>
+      </c>
+      <c r="F2513" s="1">
+        <v>44928.913715277777</v>
+      </c>
+    </row>
+    <row r="2514" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2514" t="s">
+        <v>5667</v>
+      </c>
+      <c r="B2514" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2514" t="s">
+        <v>1978</v>
+      </c>
+      <c r="D2514" t="s">
+        <v>5668</v>
+      </c>
+      <c r="E2514" t="s">
+        <v>5669</v>
+      </c>
+      <c r="F2514" s="1">
+        <v>44928.913831018515</v>
+      </c>
+    </row>
+    <row r="2515" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2515" t="s">
+        <v>5670</v>
+      </c>
+      <c r="B2515" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2515" t="s">
+        <v>1978</v>
+      </c>
+      <c r="D2515" t="s">
+        <v>43</v>
+      </c>
+      <c r="E2515" t="s">
+        <v>5671</v>
+      </c>
+      <c r="F2515" s="1">
+        <v>44928.914212962962</v>
+      </c>
+    </row>
+    <row r="2516" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2516" t="s">
+        <v>5672</v>
+      </c>
+      <c r="B2516" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2516" t="s">
+        <v>1978</v>
+      </c>
+      <c r="D2516" t="s">
+        <v>2692</v>
+      </c>
+      <c r="E2516" t="s">
+        <v>5673</v>
+      </c>
+      <c r="F2516" s="1">
+        <v>44928.9143287037</v>
+      </c>
+    </row>
+    <row r="2517" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2517" t="s">
+        <v>5674</v>
+      </c>
+      <c r="B2517" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2517" t="s">
+        <v>1978</v>
+      </c>
+      <c r="D2517" t="s">
+        <v>3960</v>
+      </c>
+      <c r="E2517" t="s">
+        <v>5675</v>
+      </c>
+      <c r="F2517" s="1">
+        <v>44928.91443287037</v>
+      </c>
+    </row>
+    <row r="2518" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2518" t="s">
+        <v>5676</v>
+      </c>
+      <c r="B2518" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2518" t="s">
+        <v>1978</v>
+      </c>
+      <c r="D2518" t="s">
+        <v>4070</v>
+      </c>
+      <c r="E2518" t="s">
+        <v>5677</v>
+      </c>
+      <c r="F2518" s="1">
+        <v>44928.914537037039</v>
       </c>
     </row>
   </sheetData>
